--- a/results/xlsx/KDI_results.xlsx
+++ b/results/xlsx/KDI_results.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="gasoline_shocks" sheetId="3" r:id="rId1"/>
     <sheet name="electricity_shocks" sheetId="4" r:id="rId2"/>
+    <sheet name="gasoline_shocks_MC_trials" sheetId="6" r:id="rId3"/>
+    <sheet name="electricity_shocks_MC_trials" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
@@ -49,8 +51,93 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="O2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is from a reduction in Gasoline usage due to cheaper electricity
+- Saketh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O43" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is from a reduction in Gasoline usage due to cheaper electricity
+- Saketh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O84" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is from a reduction in Gasoline usage due to cheaper electricity
+- Saketh</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="53">
   <si>
     <t>Feedstock</t>
   </si>
@@ -208,6 +295,15 @@
   <si>
     <t>Rebound Effect    Gasoline</t>
   </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>5th Percentile</t>
+  </si>
+  <si>
+    <t>95th Percentile</t>
+  </si>
 </sst>
 </file>
 
@@ -216,9 +312,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.00000000000000%"/>
+    <numFmt numFmtId="166" formatCode="0.00000000000000%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,16 +374,29 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCB5151"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -315,11 +424,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -356,17 +474,20 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="60">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000%"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -399,9 +520,312 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -470,6 +894,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCB5151"/>
+      <color rgb="FFC33B3B"/>
+      <color rgb="FF812727"/>
+      <color rgb="FFA80000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -482,32 +914,176 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:O20" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:O20" totalsRowShown="0" headerRowDxfId="59">
   <autoFilter ref="A1:O20"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Feedstock" dataDxfId="13"/>
+    <tableColumn id="1" name="Feedstock" dataDxfId="58"/>
     <tableColumn id="2" name="Technology"/>
     <tableColumn id="3" name="Quantity (MatLab)"/>
     <tableColumn id="4" name="Unit"/>
     <tableColumn id="14" name="Notes"/>
-    <tableColumn id="16" name="% Supply Shock" dataDxfId="12"/>
-    <tableColumn id="5" name="% Price Change_x000a_Fuel" dataDxfId="11"/>
-    <tableColumn id="6" name="% Price Change_x000a_Electricity" dataDxfId="10"/>
-    <tableColumn id="7" name="% Price Change_x000a_Natural Gas" dataDxfId="9"/>
-    <tableColumn id="8" name="% Quantity Change_x000a_Fuel" dataDxfId="8"/>
-    <tableColumn id="9" name="% Quantity Change_x000a_Electricity" dataDxfId="7"/>
-    <tableColumn id="10" name="% Quantity Change_x000a_Natural Gas" dataDxfId="6"/>
-    <tableColumn id="11" name="% Quantity Change_x000a_Gasoline" dataDxfId="5"/>
-    <tableColumn id="19" name="Rebound Effect    Gasoline" dataDxfId="3"/>
-    <tableColumn id="15" name="CO2 Reduction (tonnes)" dataDxfId="4"/>
+    <tableColumn id="16" name="% Supply Shock" dataDxfId="57"/>
+    <tableColumn id="5" name="% Price Change_x000a_Fuel" dataDxfId="56"/>
+    <tableColumn id="6" name="% Price Change_x000a_Electricity" dataDxfId="55"/>
+    <tableColumn id="7" name="% Price Change_x000a_Natural Gas" dataDxfId="54"/>
+    <tableColumn id="8" name="% Quantity Change_x000a_Fuel" dataDxfId="53"/>
+    <tableColumn id="9" name="% Quantity Change_x000a_Electricity" dataDxfId="52"/>
+    <tableColumn id="10" name="% Quantity Change_x000a_Natural Gas" dataDxfId="51"/>
+    <tableColumn id="11" name="% Quantity Change_x000a_Gasoline" dataDxfId="50"/>
+    <tableColumn id="19" name="Rebound Effect    Gasoline" dataDxfId="49"/>
+    <tableColumn id="15" name="CO2 Reduction (tonnes)" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table36" displayName="Table36" ref="A1:O38" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table36" displayName="Table36" ref="A1:O38" totalsRowShown="0" headerRowDxfId="47">
   <autoFilter ref="A1:O38"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Feedstock" dataDxfId="46"/>
+    <tableColumn id="2" name="Technology"/>
+    <tableColumn id="3" name="Quantity (MatLab)"/>
+    <tableColumn id="4" name="Unit"/>
+    <tableColumn id="15" name="Notes"/>
+    <tableColumn id="16" name="% Supply Shock"/>
+    <tableColumn id="5" name="% Price Change_x000a_Fuel"/>
+    <tableColumn id="6" name="% Price Change_x000a_Electricity"/>
+    <tableColumn id="7" name="% Price Change_x000a_Natural Gas"/>
+    <tableColumn id="8" name="% Quantity Change_x000a_Fuel"/>
+    <tableColumn id="9" name="% Quantity Change_x000a_Electricity"/>
+    <tableColumn id="10" name="% Quantity Change_x000a_Natural Gas"/>
+    <tableColumn id="12" name="% Quantity Change    Non-biomass Electricity"/>
+    <tableColumn id="18" name="Rebound effect on Electricity" dataDxfId="45"/>
+    <tableColumn id="14" name="CO2 Reduction (tonnes)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table33" displayName="Table33" ref="A2:O21" totalsRowShown="0" headerRowDxfId="44">
+  <autoFilter ref="A2:O21"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Feedstock" dataDxfId="43"/>
+    <tableColumn id="2" name="Technology"/>
+    <tableColumn id="3" name="Quantity (MatLab)"/>
+    <tableColumn id="4" name="Unit"/>
+    <tableColumn id="14" name="Notes"/>
+    <tableColumn id="16" name="% Supply Shock" dataDxfId="42"/>
+    <tableColumn id="5" name="% Price Change_x000a_Fuel" dataDxfId="41"/>
+    <tableColumn id="6" name="% Price Change_x000a_Electricity" dataDxfId="40"/>
+    <tableColumn id="7" name="% Price Change_x000a_Natural Gas" dataDxfId="39"/>
+    <tableColumn id="8" name="% Quantity Change_x000a_Fuel" dataDxfId="38"/>
+    <tableColumn id="9" name="% Quantity Change_x000a_Electricity" dataDxfId="37"/>
+    <tableColumn id="10" name="% Quantity Change_x000a_Natural Gas" dataDxfId="36"/>
+    <tableColumn id="11" name="% Quantity Change_x000a_Gasoline" dataDxfId="35"/>
+    <tableColumn id="19" name="Rebound Effect    Gasoline" dataDxfId="34"/>
+    <tableColumn id="15" name="CO2 Reduction (tonnes)" dataDxfId="33"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table336" displayName="Table336" ref="A25:O44" totalsRowShown="0" headerRowDxfId="32">
+  <autoFilter ref="A25:O44"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Feedstock" dataDxfId="31"/>
+    <tableColumn id="2" name="Technology"/>
+    <tableColumn id="3" name="Quantity (MatLab)"/>
+    <tableColumn id="4" name="Unit"/>
+    <tableColumn id="14" name="Notes"/>
+    <tableColumn id="16" name="% Supply Shock" dataDxfId="30"/>
+    <tableColumn id="5" name="% Price Change_x000a_Fuel" dataDxfId="29"/>
+    <tableColumn id="6" name="% Price Change_x000a_Electricity" dataDxfId="28"/>
+    <tableColumn id="7" name="% Price Change_x000a_Natural Gas" dataDxfId="27"/>
+    <tableColumn id="8" name="% Quantity Change_x000a_Fuel" dataDxfId="26"/>
+    <tableColumn id="9" name="% Quantity Change_x000a_Electricity" dataDxfId="25"/>
+    <tableColumn id="10" name="% Quantity Change_x000a_Natural Gas" dataDxfId="24"/>
+    <tableColumn id="11" name="% Quantity Change_x000a_Gasoline" dataDxfId="23"/>
+    <tableColumn id="19" name="Rebound Effect    Gasoline" dataDxfId="22"/>
+    <tableColumn id="15" name="CO2 Reduction (tonnes)" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table3367" displayName="Table3367" ref="A48:O67" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="A48:O67"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Feedstock" dataDxfId="19"/>
+    <tableColumn id="2" name="Technology"/>
+    <tableColumn id="3" name="Quantity (MatLab)"/>
+    <tableColumn id="4" name="Unit"/>
+    <tableColumn id="14" name="Notes"/>
+    <tableColumn id="16" name="% Supply Shock" dataDxfId="18"/>
+    <tableColumn id="5" name="% Price Change_x000a_Fuel" dataDxfId="17"/>
+    <tableColumn id="6" name="% Price Change_x000a_Electricity" dataDxfId="16"/>
+    <tableColumn id="7" name="% Price Change_x000a_Natural Gas" dataDxfId="15"/>
+    <tableColumn id="8" name="% Quantity Change_x000a_Fuel" dataDxfId="14"/>
+    <tableColumn id="9" name="% Quantity Change_x000a_Electricity" dataDxfId="13"/>
+    <tableColumn id="10" name="% Quantity Change_x000a_Natural Gas" dataDxfId="12"/>
+    <tableColumn id="11" name="% Quantity Change_x000a_Gasoline" dataDxfId="11"/>
+    <tableColumn id="19" name="Rebound Effect    Gasoline" dataDxfId="10"/>
+    <tableColumn id="15" name="CO2 Reduction (tonnes)" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table368" displayName="Table368" ref="A2:O39" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A2:O39"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Feedstock" dataDxfId="8"/>
+    <tableColumn id="2" name="Technology"/>
+    <tableColumn id="3" name="Quantity (MatLab)"/>
+    <tableColumn id="4" name="Unit"/>
+    <tableColumn id="15" name="Notes"/>
+    <tableColumn id="16" name="% Supply Shock"/>
+    <tableColumn id="5" name="% Price Change_x000a_Fuel"/>
+    <tableColumn id="6" name="% Price Change_x000a_Electricity"/>
+    <tableColumn id="7" name="% Price Change_x000a_Natural Gas"/>
+    <tableColumn id="8" name="% Quantity Change_x000a_Fuel"/>
+    <tableColumn id="9" name="% Quantity Change_x000a_Electricity"/>
+    <tableColumn id="10" name="% Quantity Change_x000a_Natural Gas"/>
+    <tableColumn id="12" name="% Quantity Change    Non-biomass Electricity"/>
+    <tableColumn id="18" name="Rebound effect on Electricity" dataDxfId="7"/>
+    <tableColumn id="14" name="CO2 Reduction (tonnes)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table3689" displayName="Table3689" ref="A43:O80" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A43:O80"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Feedstock" dataDxfId="4"/>
+    <tableColumn id="2" name="Technology"/>
+    <tableColumn id="3" name="Quantity (MatLab)"/>
+    <tableColumn id="4" name="Unit"/>
+    <tableColumn id="15" name="Notes"/>
+    <tableColumn id="16" name="% Supply Shock"/>
+    <tableColumn id="5" name="% Price Change_x000a_Fuel"/>
+    <tableColumn id="6" name="% Price Change_x000a_Electricity"/>
+    <tableColumn id="7" name="% Price Change_x000a_Natural Gas"/>
+    <tableColumn id="8" name="% Quantity Change_x000a_Fuel"/>
+    <tableColumn id="9" name="% Quantity Change_x000a_Electricity"/>
+    <tableColumn id="10" name="% Quantity Change_x000a_Natural Gas"/>
+    <tableColumn id="12" name="% Quantity Change    Non-biomass Electricity"/>
+    <tableColumn id="18" name="Rebound effect on Electricity" dataDxfId="3"/>
+    <tableColumn id="14" name="CO2 Reduction (tonnes)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table36810" displayName="Table36810" ref="A84:O121" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A84:O121"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Feedstock" dataDxfId="1"/>
     <tableColumn id="2" name="Technology"/>
@@ -819,8 +1395,8 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L23" sqref="L23"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1736,8 +2312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3553,4 +4129,8210 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:O1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="9" width="19" customWidth="1"/>
+    <col min="10" max="12" width="23.28515625" customWidth="1"/>
+    <col min="13" max="14" width="26.5703125" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+    </row>
+    <row r="2" spans="1:15" ht="38.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6500</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="11" t="str">
+        <f>IF(Table33[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F5" s="19">
+        <v>2.0211819872261199E-6</v>
+      </c>
+      <c r="G5" s="15">
+        <v>-2.5334884192969202E-6</v>
+      </c>
+      <c r="H5" s="15">
+        <v>-3.1187114088499501E-7</v>
+      </c>
+      <c r="I5" s="15">
+        <v>-3.4426197356483499E-6</v>
+      </c>
+      <c r="J5" s="15">
+        <v>1.28647034559521E-6</v>
+      </c>
+      <c r="K5" s="15">
+        <v>-2.1830979849671301E-8</v>
+      </c>
+      <c r="L5" s="15">
+        <v>-1.7213098677703901E-7</v>
+      </c>
+      <c r="M5" s="9">
+        <v>-7.34710156647985E-7</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0.63649480289684301</v>
+      </c>
+      <c r="O5" s="20">
+        <v>29.575496923008501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5">
+        <v>51464.7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="11" t="str">
+        <f>IF(Table33[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F6" s="19">
+        <v>1.6003003787384098E-5</v>
+      </c>
+      <c r="G6" s="15">
+        <v>-2.00592648389963E-5</v>
+      </c>
+      <c r="H6" s="15">
+        <v>-2.4692853410229901E-6</v>
+      </c>
+      <c r="I6" s="15">
+        <v>-2.7257444909282E-5</v>
+      </c>
+      <c r="J6" s="15">
+        <v>1.01858169839794E-5</v>
+      </c>
+      <c r="K6" s="15">
+        <v>-1.72849973860903E-7</v>
+      </c>
+      <c r="L6" s="15">
+        <v>-1.36287224545929E-6</v>
+      </c>
+      <c r="M6" s="9">
+        <v>-5.8170937123727002E-6</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.63649988529287305</v>
+      </c>
+      <c r="O6" s="20">
+        <v>234.16831945250999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1699742.564</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="11" t="str">
+        <f>IF(Table33[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F7" s="19">
+        <v>5.2853677742744395E-4</v>
+      </c>
+      <c r="G7" s="15">
+        <v>-6.6250432334354298E-4</v>
+      </c>
+      <c r="H7" s="15">
+        <v>-8.1553946621347101E-5</v>
+      </c>
+      <c r="I7" s="15">
+        <v>-9.0024112252542099E-4</v>
+      </c>
+      <c r="J7" s="15">
+        <v>3.3641052365782098E-4</v>
+      </c>
+      <c r="K7" s="15">
+        <v>-5.7087762634823999E-6</v>
+      </c>
+      <c r="L7" s="15">
+        <v>-4.5012056126268301E-5</v>
+      </c>
+      <c r="M7" s="9">
+        <v>-1.92024761620966E-4</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0.63668609296099898</v>
+      </c>
+      <c r="O7" s="20">
+        <v>7733.9586107282103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5">
+        <v>739173.7622</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="11" t="str">
+        <f>IF(Table33[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F8" s="19">
+        <v>2.29846875936742E-4</v>
+      </c>
+      <c r="G8" s="15">
+        <v>-2.8810587175451599E-4</v>
+      </c>
+      <c r="H8" s="15">
+        <v>-3.5465686877123301E-5</v>
+      </c>
+      <c r="I8" s="15">
+        <v>-3.9149141259255902E-4</v>
+      </c>
+      <c r="J8" s="15">
+        <v>1.4629617312786E-4</v>
+      </c>
+      <c r="K8" s="15">
+        <v>-2.4825980813877301E-6</v>
+      </c>
+      <c r="L8" s="15">
+        <v>-1.95745706296259E-5</v>
+      </c>
+      <c r="M8" s="9">
+        <v>-8.3531503353754603E-5</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0.63657759970274796</v>
+      </c>
+      <c r="O8" s="20">
+        <v>3363.29712750006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1274806.923</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="11" t="str">
+        <f>IF(Table33[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F9" s="19">
+        <v>3.9640258307058201E-4</v>
+      </c>
+      <c r="G9" s="15">
+        <v>-4.9687824250754299E-4</v>
+      </c>
+      <c r="H9" s="15">
+        <v>-6.1165459966365399E-5</v>
+      </c>
+      <c r="I9" s="15">
+        <v>-6.7518084189393201E-4</v>
+      </c>
+      <c r="J9" s="15">
+        <v>2.5230789274331602E-4</v>
+      </c>
+      <c r="K9" s="15">
+        <v>-4.2815821976357799E-6</v>
+      </c>
+      <c r="L9" s="15">
+        <v>-3.3759042094692701E-5</v>
+      </c>
+      <c r="M9" s="9">
+        <v>-1.4403759345311601E-4</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0.63663810579289304</v>
+      </c>
+      <c r="O9" s="20">
+        <v>5800.4689580451704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5">
+        <v>7175373.0360000003</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="11" t="str">
+        <f>IF(Table33[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F10" s="19">
+        <v>2.2311899587678999E-3</v>
+      </c>
+      <c r="G10" s="15">
+        <v>-2.7967268447790599E-3</v>
+      </c>
+      <c r="H10" s="15">
+        <v>-3.44275657950633E-4</v>
+      </c>
+      <c r="I10" s="15">
+        <v>-3.80032012687E-3</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1.4201391737818599E-3</v>
+      </c>
+      <c r="K10" s="15">
+        <v>-2.4099296056532799E-5</v>
+      </c>
+      <c r="L10" s="15">
+        <v>-1.9001600634349801E-4</v>
+      </c>
+      <c r="M10" s="9">
+        <v>-8.0924520520991503E-4</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0.63730331340465696</v>
+      </c>
+      <c r="O10" s="20">
+        <v>32648.495867724101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3120382.8119999999</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="11" t="str">
+        <f>IF(Table33[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F11" s="19">
+        <v>9.7028638967144897E-4</v>
+      </c>
+      <c r="G11" s="15">
+        <v>-1.2162236489340699E-3</v>
+      </c>
+      <c r="H11" s="15">
+        <v>-1.49716515123634E-4</v>
+      </c>
+      <c r="I11" s="15">
+        <v>-1.65266022330636E-3</v>
+      </c>
+      <c r="J11" s="15">
+        <v>6.1758153148047396E-4</v>
+      </c>
+      <c r="K11" s="15">
+        <v>-1.0480156058647301E-5</v>
+      </c>
+      <c r="L11" s="15">
+        <v>-8.2633011165314502E-5</v>
+      </c>
+      <c r="M11" s="9">
+        <v>-3.5236296520155301E-4</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0.636846431164652</v>
+      </c>
+      <c r="O11" s="20">
+        <v>14197.980346411399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5">
+        <v>5381529.7769999998</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="11" t="str">
+        <f>IF(Table33[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F12" s="19">
+        <v>1.6733924690759299E-3</v>
+      </c>
+      <c r="G12" s="15">
+        <v>-2.0975451335843399E-3</v>
+      </c>
+      <c r="H12" s="15">
+        <v>-2.5820674346282697E-4</v>
+      </c>
+      <c r="I12" s="15">
+        <v>-2.8502400951525499E-3</v>
+      </c>
+      <c r="J12" s="15">
+        <v>1.06510438033641E-3</v>
+      </c>
+      <c r="K12" s="15">
+        <v>-1.8074472042387E-5</v>
+      </c>
+      <c r="L12" s="15">
+        <v>-1.42512004757624E-4</v>
+      </c>
+      <c r="M12" s="9">
+        <v>-6.0727188454121604E-4</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0.63710134008397701</v>
+      </c>
+      <c r="O12" s="20">
+        <v>24486.371900793802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5">
+        <v>8319618</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="11" t="str">
+        <f>IF(Table33[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F13" s="19">
+        <v>2.5869941603388299E-3</v>
+      </c>
+      <c r="G13" s="15">
+        <v>-3.24271628557429E-3</v>
+      </c>
+      <c r="H13" s="15">
+        <v>-3.9917673220321402E-4</v>
+      </c>
+      <c r="I13" s="15">
+        <v>-4.4063509415667203E-3</v>
+      </c>
+      <c r="J13" s="15">
+        <v>1.6466064375222399E-3</v>
+      </c>
+      <c r="K13" s="15">
+        <v>-2.7942371254212801E-5</v>
+      </c>
+      <c r="L13" s="15">
+        <v>-2.20317547078332E-4</v>
+      </c>
+      <c r="M13" s="9">
+        <v>-9.3796122261105401E-4</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0.63743202942204802</v>
+      </c>
+      <c r="O13" s="20">
+        <v>37854.8979309192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5">
+        <v>38864666122</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="11" t="str">
+        <f>IF(Table33[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v>Market Collapse</v>
+      </c>
+      <c r="F14" s="19">
+        <v>12.085009708514599</v>
+      </c>
+      <c r="G14" s="15">
+        <v>-15.148181775559699</v>
+      </c>
+      <c r="H14" s="15">
+        <v>-1.86473350347845</v>
+      </c>
+      <c r="I14" s="15">
+        <v>-20.584041017310199</v>
+      </c>
+      <c r="J14" s="15">
+        <v>7.6920369936021498</v>
+      </c>
+      <c r="K14" s="15">
+        <v>-0.130531345243492</v>
+      </c>
+      <c r="L14" s="15">
+        <v>-1.02920205086551</v>
+      </c>
+      <c r="M14" s="9">
+        <v>-0.335725598434504</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0.97221966663394799</v>
+      </c>
+      <c r="O14" s="20">
+        <v>176837202.04071099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5">
+        <v>16901230856</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="11" t="str">
+        <f>IF(Table33[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v>Market Collapse</v>
+      </c>
+      <c r="F15" s="19">
+        <v>5.25545590278427</v>
+      </c>
+      <c r="G15" s="15">
+        <v>-6.5875496378562897</v>
+      </c>
+      <c r="H15" s="15">
+        <v>-0.81092402359187199</v>
+      </c>
+      <c r="I15" s="15">
+        <v>-8.9514632157357106</v>
+      </c>
+      <c r="J15" s="15">
+        <v>3.3450665078059298</v>
+      </c>
+      <c r="K15" s="15">
+        <v>-5.6764681651431101E-2</v>
+      </c>
+      <c r="L15" s="15">
+        <v>-0.447573160786786</v>
+      </c>
+      <c r="M15" s="9">
+        <v>-0.30539570970806801</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0.94188977790751205</v>
+      </c>
+      <c r="O15" s="20">
+        <v>76901892.486021593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5">
+        <v>29148499592</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="11" t="str">
+        <f>IF(Table33[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v>Market Collapse</v>
+      </c>
+      <c r="F16" s="19">
+        <v>9.0637572815412799</v>
+      </c>
+      <c r="G16" s="15">
+        <v>-11.361136331864699</v>
+      </c>
+      <c r="H16" s="15">
+        <v>-1.39855012763283</v>
+      </c>
+      <c r="I16" s="15">
+        <v>-15.4380307632475</v>
+      </c>
+      <c r="J16" s="15">
+        <v>5.7690277453005701</v>
+      </c>
+      <c r="K16" s="15">
+        <v>-9.7898508934297995E-2</v>
+      </c>
+      <c r="L16" s="15">
+        <v>-0.77190153816237395</v>
+      </c>
+      <c r="M16" s="9">
+        <v>-0.32738563183393399</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0.96387970003337797</v>
+      </c>
+      <c r="O16" s="20">
+        <v>132627901.53280801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="E17" s="11" t="str">
+        <f>IF(Table33[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="20"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5">
+        <v>230098748.90000001</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="11" t="str">
+        <f>IF(Table33[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F18" s="19">
+        <v>7.1549453316915104E-2</v>
+      </c>
+      <c r="G18" s="15">
+        <v>-8.9685002406157302E-2</v>
+      </c>
+      <c r="H18" s="15">
+        <v>-1.10401783675542E-2</v>
+      </c>
+      <c r="I18" s="15">
+        <v>-0.121868076018496</v>
+      </c>
+      <c r="J18" s="15">
+        <v>4.5540802619129503E-2</v>
+      </c>
+      <c r="K18" s="15">
+        <v>-7.7281248572878499E-4</v>
+      </c>
+      <c r="L18" s="15">
+        <v>-6.0934038009248003E-3</v>
+      </c>
+      <c r="M18" s="9">
+        <v>-2.4272002208836501E-2</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0.66076607040827995</v>
+      </c>
+      <c r="O18" s="20">
+        <v>1046966.89843711</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="5">
+        <v>61923061.5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="11" t="str">
+        <f>IF(Table33[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F19" s="19">
+        <v>1.9255042538106899E-2</v>
+      </c>
+      <c r="G19" s="15">
+        <v>-2.4135593723013601E-2</v>
+      </c>
+      <c r="H19" s="15">
+        <v>-2.9710793617662998E-3</v>
+      </c>
+      <c r="I19" s="15">
+        <v>-3.27965467098634E-2</v>
+      </c>
+      <c r="J19" s="15">
+        <v>1.22557203584331E-2</v>
+      </c>
+      <c r="K19" s="15">
+        <v>-2.0797555532363099E-4</v>
+      </c>
+      <c r="L19" s="15">
+        <v>-1.6398273354931801E-3</v>
+      </c>
+      <c r="M19" s="9">
+        <v>-6.8670959549481797E-3</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0.64336116415439104</v>
+      </c>
+      <c r="O19" s="20">
+        <v>281754.663814192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5">
+        <v>148772706.5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="11" t="str">
+        <f>IF(Table33[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F20" s="19">
+        <v>4.6261033010566201E-2</v>
+      </c>
+      <c r="G20" s="15">
+        <v>-5.7986758312283102E-2</v>
+      </c>
+      <c r="H20" s="15">
+        <v>-7.1381405758861498E-3</v>
+      </c>
+      <c r="I20" s="15">
+        <v>-7.8795054696707098E-2</v>
+      </c>
+      <c r="J20" s="15">
+        <v>2.9444873100004001E-2</v>
+      </c>
+      <c r="K20" s="15">
+        <v>-4.99669840312018E-4</v>
+      </c>
+      <c r="L20" s="15">
+        <v>-3.93975273483535E-3</v>
+      </c>
+      <c r="M20" s="9">
+        <v>-1.6072623733462101E-2</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0.65256669193290495</v>
+      </c>
+      <c r="O20" s="20">
+        <v>676927.18817907199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5">
+        <v>55319876.289999999</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="11" t="str">
+        <f>IF(Table33[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F21" s="19">
+        <v>1.7201774998911502E-2</v>
+      </c>
+      <c r="G21" s="15">
+        <v>-2.1561887067596101E-2</v>
+      </c>
+      <c r="H21" s="15">
+        <v>-2.6542573761580801E-3</v>
+      </c>
+      <c r="I21" s="15">
+        <v>-2.9299276598733E-2</v>
+      </c>
+      <c r="J21" s="15">
+        <v>1.09488277493087E-2</v>
+      </c>
+      <c r="K21" s="15">
+        <v>-1.8579801633105699E-4</v>
+      </c>
+      <c r="L21" s="15">
+        <v>-1.4649638299366399E-3</v>
+      </c>
+      <c r="M21" s="9">
+        <v>-6.1472044222588996E-3</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0.64264127262170201</v>
+      </c>
+      <c r="O21" s="20">
+        <v>251709.66629825899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="O22" s="12"/>
+    </row>
+    <row r="24" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+    </row>
+    <row r="25" spans="1:15" ht="38.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5">
+        <v>6500</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="11" t="str">
+        <f>IF(Table336[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F28" s="19">
+        <v>2.0211819872261301E-6</v>
+      </c>
+      <c r="G28" s="15">
+        <v>-3.8331775858910603E-6</v>
+      </c>
+      <c r="H28" s="15">
+        <v>-1.6655909188659E-6</v>
+      </c>
+      <c r="I28" s="15">
+        <v>-6.3110499665496198E-6</v>
+      </c>
+      <c r="J28" s="15">
+        <v>9.0956048729640697E-7</v>
+      </c>
+      <c r="K28" s="15">
+        <v>-1.16591364277123E-7</v>
+      </c>
+      <c r="L28" s="15">
+        <v>-3.1555249832153302E-7</v>
+      </c>
+      <c r="M28" s="9">
+        <v>-1.1116192531449099E-6</v>
+      </c>
+      <c r="N28" s="9">
+        <v>0.450015258314023</v>
+      </c>
+      <c r="O28" s="20">
+        <v>19.9745321104506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="5">
+        <v>51464.7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="11" t="str">
+        <f>IF(Table336[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F29" s="19">
+        <v>1.6003003787384098E-5</v>
+      </c>
+      <c r="G29" s="15">
+        <v>-3.0349743770061799E-5</v>
+      </c>
+      <c r="H29" s="15">
+        <v>-1.3187559535281201E-5</v>
+      </c>
+      <c r="I29" s="15">
+        <v>-4.9968660489518899E-5</v>
+      </c>
+      <c r="J29" s="15">
+        <v>7.2015780939590504E-6</v>
+      </c>
+      <c r="K29" s="15">
+        <v>-9.2312916743907904E-7</v>
+      </c>
+      <c r="L29" s="15">
+        <v>-2.4984330245208698E-6</v>
+      </c>
+      <c r="M29" s="9">
+        <v>-8.8012848463710006E-6</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0.45002294798496101</v>
+      </c>
+      <c r="O29" s="20">
+        <v>158.151277352465</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1699742.564</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="11" t="str">
+        <f>IF(Table336[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F30" s="19">
+        <v>5.2853677742744005E-4</v>
+      </c>
+      <c r="G30" s="15">
+        <v>-1.0023715535627099E-3</v>
+      </c>
+      <c r="H30" s="15">
+        <v>-4.35550119933756E-4</v>
+      </c>
+      <c r="I30" s="15">
+        <v>-1.6503323462359299E-3</v>
+      </c>
+      <c r="J30" s="15">
+        <v>2.3784902689428001E-4</v>
+      </c>
+      <c r="K30" s="15">
+        <v>-3.0488508395352601E-5</v>
+      </c>
+      <c r="L30" s="15">
+        <v>-8.2516617311859095E-5</v>
+      </c>
+      <c r="M30" s="9">
+        <v>-2.90534192527349E-4</v>
+      </c>
+      <c r="N30" s="9">
+        <v>0.45030468089378101</v>
+      </c>
+      <c r="O30" s="20">
+        <v>5223.3172964804098</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="5">
+        <v>739173.7622</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="11" t="str">
+        <f>IF(Table336[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F31" s="19">
+        <v>2.2984687593673999E-4</v>
+      </c>
+      <c r="G31" s="15">
+        <v>-4.3590527651758199E-4</v>
+      </c>
+      <c r="H31" s="15">
+        <v>-1.8940940092728801E-4</v>
+      </c>
+      <c r="I31" s="15">
+        <v>-7.1768654564788596E-4</v>
+      </c>
+      <c r="J31" s="15">
+        <v>1.03434345746545E-4</v>
+      </c>
+      <c r="K31" s="15">
+        <v>-1.32586580648984E-5</v>
+      </c>
+      <c r="L31" s="15">
+        <v>-3.5884327282409701E-5</v>
+      </c>
+      <c r="M31" s="9">
+        <v>-1.2638348134180101E-4</v>
+      </c>
+      <c r="N31" s="9">
+        <v>0.450140530182428</v>
+      </c>
+      <c r="O31" s="20">
+        <v>2271.4846230111202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1274806.923</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="11" t="str">
+        <f>IF(Table336[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F32" s="19">
+        <v>3.9640258307058001E-4</v>
+      </c>
+      <c r="G32" s="15">
+        <v>-7.5177866517183096E-4</v>
+      </c>
+      <c r="H32" s="15">
+        <v>-3.2666258995035601E-4</v>
+      </c>
+      <c r="I32" s="15">
+        <v>-1.23774925967689E-3</v>
+      </c>
+      <c r="J32" s="15">
+        <v>1.78386770170691E-4</v>
+      </c>
+      <c r="K32" s="15">
+        <v>-2.2866381296484699E-5</v>
+      </c>
+      <c r="L32" s="15">
+        <v>-6.1887462983856195E-5</v>
+      </c>
+      <c r="M32" s="9">
+        <v>-2.1792942511280301E-4</v>
+      </c>
+      <c r="N32" s="9">
+        <v>0.45023207612650601</v>
+      </c>
+      <c r="O32" s="20">
+        <v>3917.4879723618001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="5">
+        <v>7175373.0360000003</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="11" t="str">
+        <f>IF(Table336[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F33" s="19">
+        <v>2.2311899587678899E-3</v>
+      </c>
+      <c r="G33" s="15">
+        <v>-4.23145832187712E-3</v>
+      </c>
+      <c r="H33" s="15">
+        <v>-1.83865171855181E-3</v>
+      </c>
+      <c r="I33" s="15">
+        <v>-6.9667904236904703E-3</v>
+      </c>
+      <c r="J33" s="15">
+        <v>1.0040670454234801E-3</v>
+      </c>
+      <c r="K33" s="15">
+        <v>-1.2870562029862701E-4</v>
+      </c>
+      <c r="L33" s="15">
+        <v>-3.4833952118454E-4</v>
+      </c>
+      <c r="M33" s="9">
+        <v>-1.22439106429607E-3</v>
+      </c>
+      <c r="N33" s="9">
+        <v>0.45123853776564798</v>
+      </c>
+      <c r="O33" s="20">
+        <v>22049.956788411499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="5">
+        <v>3120382.8119999999</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="11" t="str">
+        <f>IF(Table336[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F34" s="19">
+        <v>9.7028638967144897E-4</v>
+      </c>
+      <c r="G34" s="15">
+        <v>-1.8401509929914801E-3</v>
+      </c>
+      <c r="H34" s="15">
+        <v>-7.9958173478124903E-4</v>
+      </c>
+      <c r="I34" s="15">
+        <v>-3.0296756675678598E-3</v>
+      </c>
+      <c r="J34" s="15">
+        <v>4.3664260170387498E-4</v>
+      </c>
+      <c r="K34" s="15">
+        <v>-5.5970721434690099E-5</v>
+      </c>
+      <c r="L34" s="15">
+        <v>-1.5148378337837199E-4</v>
+      </c>
+      <c r="M34" s="9">
+        <v>-5.3312650257808698E-4</v>
+      </c>
+      <c r="N34" s="9">
+        <v>0.45054727320393501</v>
+      </c>
+      <c r="O34" s="20">
+        <v>9588.95179702934</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="5">
+        <v>5381529.7769999998</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="11" t="str">
+        <f>IF(Table336[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F35" s="19">
+        <v>1.6733924690759199E-3</v>
+      </c>
+      <c r="G35" s="15">
+        <v>-3.1735937414079599E-3</v>
+      </c>
+      <c r="H35" s="15">
+        <v>-1.3789887889139501E-3</v>
+      </c>
+      <c r="I35" s="15">
+        <v>-5.2250928177680501E-3</v>
+      </c>
+      <c r="J35" s="15">
+        <v>7.5305028406750195E-4</v>
+      </c>
+      <c r="K35" s="15">
+        <v>-9.6529215223984695E-5</v>
+      </c>
+      <c r="L35" s="15">
+        <v>-2.61254640888367E-4</v>
+      </c>
+      <c r="M35" s="9">
+        <v>-9.1880466420276999E-4</v>
+      </c>
+      <c r="N35" s="9">
+        <v>0.45093295136546602</v>
+      </c>
+      <c r="O35" s="20">
+        <v>16537.467591307901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="5">
+        <v>8319618</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="11" t="str">
+        <f>IF(Table336[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F36" s="19">
+        <v>2.5869941603388099E-3</v>
+      </c>
+      <c r="G36" s="15">
+        <v>-4.9062420370780298E-3</v>
+      </c>
+      <c r="H36" s="15">
+        <v>-2.1318584910706901E-3</v>
+      </c>
+      <c r="I36" s="15">
+        <v>-8.0777730607682306E-3</v>
+      </c>
+      <c r="J36" s="15">
+        <v>1.16418396958611E-3</v>
+      </c>
+      <c r="K36" s="15">
+        <v>-1.49230094374902E-4</v>
+      </c>
+      <c r="L36" s="15">
+        <v>-4.0388865303840599E-4</v>
+      </c>
+      <c r="M36" s="9">
+        <v>-1.4191388867399999E-3</v>
+      </c>
+      <c r="N36" s="9">
+        <v>0.45143328558803802</v>
+      </c>
+      <c r="O36" s="20">
+        <v>25566.227215745799</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="5">
+        <v>38864666122</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="11" t="str">
+        <f>IF(Table336[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v>Market Collapse</v>
+      </c>
+      <c r="F37" s="19">
+        <v>12.0850097085145</v>
+      </c>
+      <c r="G37" s="15">
+        <v>-22.919256471241901</v>
+      </c>
+      <c r="H37" s="15">
+        <v>-9.9588669185056808</v>
+      </c>
+      <c r="I37" s="15">
+        <v>-37.734899969688101</v>
+      </c>
+      <c r="J37" s="15">
+        <v>5.4384253318543303</v>
+      </c>
+      <c r="K37" s="15">
+        <v>-0.69712068429539797</v>
+      </c>
+      <c r="L37" s="15">
+        <v>-1.88674499848441</v>
+      </c>
+      <c r="M37" s="9">
+        <v>-0.50795410356747195</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0.95796825026879395</v>
+      </c>
+      <c r="O37" s="20">
+        <v>119431310.997576</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="5">
+        <v>16901230856</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="11" t="str">
+        <f>IF(Table336[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v>Market Collapse</v>
+      </c>
+      <c r="F38" s="19">
+        <v>5.2554559027842602</v>
+      </c>
+      <c r="G38" s="15">
+        <v>-9.9669875833323296</v>
+      </c>
+      <c r="H38" s="15">
+        <v>-4.3308517902992403</v>
+      </c>
+      <c r="I38" s="15">
+        <v>-16.409924987230202</v>
+      </c>
+      <c r="J38" s="15">
+        <v>2.3650295036178801</v>
+      </c>
+      <c r="K38" s="15">
+        <v>-0.30315962532094698</v>
+      </c>
+      <c r="L38" s="15">
+        <v>-0.82049624936151</v>
+      </c>
+      <c r="M38" s="9">
+        <v>-0.46206486690760101</v>
+      </c>
+      <c r="N38" s="9">
+        <v>0.91207901360892296</v>
+      </c>
+      <c r="O38" s="20">
+        <v>51937565.918317102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="5">
+        <v>29148499592</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="11" t="str">
+        <f>IF(Table336[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v>Market Collapse</v>
+      </c>
+      <c r="F39" s="19">
+        <v>9.0637572815413208</v>
+      </c>
+      <c r="G39" s="15">
+        <v>-17.189442353726299</v>
+      </c>
+      <c r="H39" s="15">
+        <v>-7.4691501890073697</v>
+      </c>
+      <c r="I39" s="15">
+        <v>-28.3011749777516</v>
+      </c>
+      <c r="J39" s="15">
+        <v>4.0788189989607098</v>
+      </c>
+      <c r="K39" s="15">
+        <v>-0.52284051323051595</v>
+      </c>
+      <c r="L39" s="15">
+        <v>-1.4150587488875801</v>
+      </c>
+      <c r="M39" s="9">
+        <v>-0.49533570247405101</v>
+      </c>
+      <c r="N39" s="9">
+        <v>0.94534984917537201</v>
+      </c>
+      <c r="O39" s="20">
+        <v>89573483.249718294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="E40" s="11" t="str">
+        <f>IF(Table336[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="20"/>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="5">
+        <v>230098748.90000001</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="11" t="str">
+        <f>IF(Table336[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F41" s="19">
+        <v>7.1549453316915104E-2</v>
+      </c>
+      <c r="G41" s="15">
+        <v>-0.13569374874330201</v>
+      </c>
+      <c r="H41" s="15">
+        <v>-5.8961597951631799E-2</v>
+      </c>
+      <c r="I41" s="15">
+        <v>-0.22340995406048</v>
+      </c>
+      <c r="J41" s="15">
+        <v>3.2198266181357599E-2</v>
+      </c>
+      <c r="K41" s="15">
+        <v>-4.1273118566142004E-3</v>
+      </c>
+      <c r="L41" s="15">
+        <v>-1.1170497703024E-2</v>
+      </c>
+      <c r="M41" s="9">
+        <v>-3.6723631386072098E-2</v>
+      </c>
+      <c r="N41" s="9">
+        <v>0.48673777808739399</v>
+      </c>
+      <c r="O41" s="20">
+        <v>707094.59213578305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="5">
+        <v>61923061.5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="11" t="str">
+        <f>IF(Table336[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F42" s="19">
+        <v>1.9255042538107101E-2</v>
+      </c>
+      <c r="G42" s="15">
+        <v>-3.6517244829735097E-2</v>
+      </c>
+      <c r="H42" s="15">
+        <v>-1.5867459834316599E-2</v>
+      </c>
+      <c r="I42" s="15">
+        <v>-6.01230054102194E-2</v>
+      </c>
+      <c r="J42" s="15">
+        <v>8.6650415374838197E-3</v>
+      </c>
+      <c r="K42" s="15">
+        <v>-1.1107221884021901E-3</v>
+      </c>
+      <c r="L42" s="15">
+        <v>-3.0061502705110198E-3</v>
+      </c>
+      <c r="M42" s="9">
+        <v>-1.03899422211858E-2</v>
+      </c>
+      <c r="N42" s="9">
+        <v>0.46040408892250401</v>
+      </c>
+      <c r="O42" s="20">
+        <v>190289.87391048699</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="5">
+        <v>148772706.5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="11" t="str">
+        <f>IF(Table336[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F43" s="19">
+        <v>4.6261033010566097E-2</v>
+      </c>
+      <c r="G43" s="15">
+        <v>-8.7734185223429406E-2</v>
+      </c>
+      <c r="H43" s="15">
+        <v>-3.8122225995419499E-2</v>
+      </c>
+      <c r="I43" s="15">
+        <v>-0.14444799758152199</v>
+      </c>
+      <c r="J43" s="15">
+        <v>2.0818119295771501E-2</v>
+      </c>
+      <c r="K43" s="15">
+        <v>-2.66855581967933E-3</v>
+      </c>
+      <c r="L43" s="15">
+        <v>-7.2223998790760802E-3</v>
+      </c>
+      <c r="M43" s="9">
+        <v>-2.4317940659209902E-2</v>
+      </c>
+      <c r="N43" s="9">
+        <v>0.47433208736053001</v>
+      </c>
+      <c r="O43" s="20">
+        <v>457179.26206227398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="5">
+        <v>55319876.289999999</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="11" t="str">
+        <f>IF(Table336[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F44" s="19">
+        <v>1.7201774998911699E-2</v>
+      </c>
+      <c r="G44" s="15">
+        <v>-3.26232169000975E-2</v>
+      </c>
+      <c r="H44" s="15">
+        <v>-1.41754282460817E-2</v>
+      </c>
+      <c r="I44" s="15">
+        <v>-5.37117697495679E-2</v>
+      </c>
+      <c r="J44" s="15">
+        <v>7.7410420978833699E-3</v>
+      </c>
+      <c r="K44" s="15">
+        <v>-9.9227997722570399E-4</v>
+      </c>
+      <c r="L44" s="15">
+        <v>-2.6855884874784101E-3</v>
+      </c>
+      <c r="M44" s="9">
+        <v>-9.3007436022596503E-3</v>
+      </c>
+      <c r="N44" s="9">
+        <v>0.45931489030358302</v>
+      </c>
+      <c r="O44" s="20">
+        <v>169998.25313817599</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+    </row>
+    <row r="48" spans="1:15" ht="38.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N48" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O48" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+    </row>
+    <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+    </row>
+    <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="5">
+        <v>6500</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="11" t="str">
+        <f>IF(Table3367[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F51" s="19">
+        <v>2.0211819872261301E-6</v>
+      </c>
+      <c r="G51" s="15">
+        <v>-1.71105310324653E-6</v>
+      </c>
+      <c r="H51" s="15">
+        <v>7.3198340152713102E-7</v>
+      </c>
+      <c r="I51" s="15">
+        <v>-1.6545358035459999E-6</v>
+      </c>
+      <c r="J51" s="15">
+        <v>1.5249765873343799E-6</v>
+      </c>
+      <c r="K51" s="15">
+        <v>5.12388381201971E-8</v>
+      </c>
+      <c r="L51" s="15">
+        <v>-8.2726790161132801E-8</v>
+      </c>
+      <c r="M51" s="9">
+        <v>-4.9620439697236097E-7</v>
+      </c>
+      <c r="N51" s="9">
+        <v>0.75449791255395504</v>
+      </c>
+      <c r="O51" s="20">
+        <v>44.747838999449399</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="5">
+        <v>51464.7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="11" t="str">
+        <f>IF(Table3367[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F52" s="19">
+        <v>1.6003003787384098E-5</v>
+      </c>
+      <c r="G52" s="15">
+        <v>-1.35475130216941E-5</v>
+      </c>
+      <c r="H52" s="15">
+        <v>5.7955855566876897E-6</v>
+      </c>
+      <c r="I52" s="15">
+        <v>-1.31000290412551E-5</v>
+      </c>
+      <c r="J52" s="15">
+        <v>1.20742250110243E-5</v>
+      </c>
+      <c r="K52" s="15">
+        <v>4.0569098895225499E-7</v>
+      </c>
+      <c r="L52" s="15">
+        <v>-6.5500145202636703E-7</v>
+      </c>
+      <c r="M52" s="9">
+        <v>-3.9287159050449899E-6</v>
+      </c>
+      <c r="N52" s="9">
+        <v>0.754501345044848</v>
+      </c>
+      <c r="O52" s="20">
+        <v>354.29755534347498</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1699742.564</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="11" t="str">
+        <f>IF(Table3367[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F53" s="19">
+        <v>5.2853677742744005E-4</v>
+      </c>
+      <c r="G53" s="15">
+        <v>-4.4743842904884E-4</v>
+      </c>
+      <c r="H53" s="15">
+        <v>1.9141282190873301E-4</v>
+      </c>
+      <c r="I53" s="15">
+        <v>-4.3265921983659799E-4</v>
+      </c>
+      <c r="J53" s="15">
+        <v>3.9877963300327999E-4</v>
+      </c>
+      <c r="K53" s="15">
+        <v>1.33988975335891E-5</v>
+      </c>
+      <c r="L53" s="15">
+        <v>-2.1632960991821302E-5</v>
+      </c>
+      <c r="M53" s="9">
+        <v>-1.2968859922989401E-4</v>
+      </c>
+      <c r="N53" s="9">
+        <v>0.75462710492705798</v>
+      </c>
+      <c r="O53" s="20">
+        <v>11701.5087066903</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="5">
+        <v>739173.7622</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="11" t="str">
+        <f>IF(Table3367[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F54" s="19">
+        <v>2.2984687593673999E-4</v>
+      </c>
+      <c r="G54" s="15">
+        <v>-1.94579316866928E-4</v>
+      </c>
+      <c r="H54" s="15">
+        <v>8.3240449876936196E-5</v>
+      </c>
+      <c r="I54" s="15">
+        <v>-1.8815222378414201E-4</v>
+      </c>
+      <c r="J54" s="15">
+        <v>1.7341887404525899E-4</v>
+      </c>
+      <c r="K54" s="15">
+        <v>5.8268314913589097E-6</v>
+      </c>
+      <c r="L54" s="15">
+        <v>-9.4076111891937293E-6</v>
+      </c>
+      <c r="M54" s="9">
+        <v>-5.6415035071875899E-5</v>
+      </c>
+      <c r="N54" s="9">
+        <v>0.75455383136291698</v>
+      </c>
+      <c r="O54" s="20">
+        <v>5088.6813081789296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1274806.923</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="11" t="str">
+        <f>IF(Table3367[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F55" s="19">
+        <v>3.9640258307058001E-4</v>
+      </c>
+      <c r="G55" s="15">
+        <v>-3.3557882178659001E-4</v>
+      </c>
+      <c r="H55" s="15">
+        <v>1.43559616432355E-4</v>
+      </c>
+      <c r="I55" s="15">
+        <v>-3.2449441487733901E-4</v>
+      </c>
+      <c r="J55" s="15">
+        <v>2.9908472475234898E-4</v>
+      </c>
+      <c r="K55" s="15">
+        <v>1.00491731502957E-5</v>
+      </c>
+      <c r="L55" s="15">
+        <v>-1.6224720743866E-5</v>
+      </c>
+      <c r="M55" s="9">
+        <v>-9.7279296553753994E-5</v>
+      </c>
+      <c r="N55" s="9">
+        <v>0.75459469562428805</v>
+      </c>
+      <c r="O55" s="20">
+        <v>8776.1315300154693</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="5">
+        <v>7175373.0360000003</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="11" t="str">
+        <f>IF(Table3367[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F56" s="19">
+        <v>2.2311899587678899E-3</v>
+      </c>
+      <c r="G56" s="15">
+        <v>-1.8888375846230401E-3</v>
+      </c>
+      <c r="H56" s="15">
+        <v>8.0803907024556098E-4</v>
+      </c>
+      <c r="I56" s="15">
+        <v>-1.8264479372018E-3</v>
+      </c>
+      <c r="J56" s="15">
+        <v>1.6834270592270999E-3</v>
+      </c>
+      <c r="K56" s="15">
+        <v>5.6562734917205303E-5</v>
+      </c>
+      <c r="L56" s="15">
+        <v>-9.1322396860122704E-5</v>
+      </c>
+      <c r="M56" s="9">
+        <v>-5.4654345726683196E-4</v>
+      </c>
+      <c r="N56" s="9">
+        <v>0.75504395978518801</v>
+      </c>
+      <c r="O56" s="20">
+        <v>49397.298057242602</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="5">
+        <v>3120382.8119999999</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="11" t="str">
+        <f>IF(Table3367[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F57" s="19">
+        <v>9.7028638967144897E-4</v>
+      </c>
+      <c r="G57" s="15">
+        <v>-8.2140626057296696E-4</v>
+      </c>
+      <c r="H57" s="15">
+        <v>3.5139514190674401E-4</v>
+      </c>
+      <c r="I57" s="15">
+        <v>-7.9427462818497201E-4</v>
+      </c>
+      <c r="J57" s="15">
+        <v>7.32078574105171E-4</v>
+      </c>
+      <c r="K57" s="15">
+        <v>2.45976599334407E-5</v>
+      </c>
+      <c r="L57" s="15">
+        <v>-3.97137314092255E-5</v>
+      </c>
+      <c r="M57" s="9">
+        <v>-2.3797690980957101E-4</v>
+      </c>
+      <c r="N57" s="9">
+        <v>0.754735393237709</v>
+      </c>
+      <c r="O57" s="20">
+        <v>21481.598105592799</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="5">
+        <v>5381529.7769999998</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="11" t="str">
+        <f>IF(Table3367[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F58" s="19">
+        <v>1.6733924690759199E-3</v>
+      </c>
+      <c r="G58" s="15">
+        <v>-1.4166281884672399E-3</v>
+      </c>
+      <c r="H58" s="15">
+        <v>6.0602930268336601E-4</v>
+      </c>
+      <c r="I58" s="15">
+        <v>-1.3698359529013501E-3</v>
+      </c>
+      <c r="J58" s="15">
+        <v>1.26257029442038E-3</v>
+      </c>
+      <c r="K58" s="15">
+        <v>4.2422051187844702E-5</v>
+      </c>
+      <c r="L58" s="15">
+        <v>-6.8491797645034799E-5</v>
+      </c>
+      <c r="M58" s="9">
+        <v>-4.1013585640211698E-4</v>
+      </c>
+      <c r="N58" s="9">
+        <v>0.75490755218433403</v>
+      </c>
+      <c r="O58" s="20">
+        <v>37047.9735429379</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="5">
+        <v>8319618</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="11" t="str">
+        <f>IF(Table3367[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F59" s="19">
+        <v>2.5869941603388099E-3</v>
+      </c>
+      <c r="G59" s="15">
+        <v>-2.1900474148542899E-3</v>
+      </c>
+      <c r="H59" s="15">
+        <v>9.3689573486837002E-4</v>
+      </c>
+      <c r="I59" s="15">
+        <v>-2.11770859273372E-3</v>
+      </c>
+      <c r="J59" s="15">
+        <v>1.9518804100309799E-3</v>
+      </c>
+      <c r="K59" s="15">
+        <v>6.5582701440783804E-5</v>
+      </c>
+      <c r="L59" s="15">
+        <v>-1.05885429636688E-4</v>
+      </c>
+      <c r="M59" s="9">
+        <v>-6.3347495430033697E-4</v>
+      </c>
+      <c r="N59" s="9">
+        <v>0.75513089128219302</v>
+      </c>
+      <c r="O59" s="20">
+        <v>57274.604122538898</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="5">
+        <v>38864666122</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="11" t="str">
+        <f>IF(Table3367[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v>Market Collapse</v>
+      </c>
+      <c r="F60" s="19">
+        <v>12.0850097085145</v>
+      </c>
+      <c r="G60" s="15">
+        <v>-10.230693472904999</v>
+      </c>
+      <c r="H60" s="15">
+        <v>4.3766600734343699</v>
+      </c>
+      <c r="I60" s="15">
+        <v>-9.8927663986839107</v>
+      </c>
+      <c r="J60" s="15">
+        <v>9.1181086013720201</v>
+      </c>
+      <c r="K60" s="15">
+        <v>0.30636620514040602</v>
+      </c>
+      <c r="L60" s="15">
+        <v>-0.49463831993419599</v>
+      </c>
+      <c r="M60" s="9">
+        <v>-0.22674045898581699</v>
+      </c>
+      <c r="N60" s="9">
+        <v>0.98123787531373996</v>
+      </c>
+      <c r="O60" s="20">
+        <v>267555357.28829199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="5">
+        <v>16901230856</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="11" t="str">
+        <f>IF(Table3367[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v>Market Collapse</v>
+      </c>
+      <c r="F61" s="19">
+        <v>5.2554559027842602</v>
+      </c>
+      <c r="G61" s="15">
+        <v>-4.44906207761451</v>
+      </c>
+      <c r="H61" s="15">
+        <v>1.9032954521505501</v>
+      </c>
+      <c r="I61" s="15">
+        <v>-4.3021063961743398</v>
+      </c>
+      <c r="J61" s="15">
+        <v>3.9652279002760502</v>
+      </c>
+      <c r="K61" s="15">
+        <v>0.133230681650538</v>
+      </c>
+      <c r="L61" s="15">
+        <v>-0.215105319808717</v>
+      </c>
+      <c r="M61" s="9">
+        <v>-0.20625642999640301</v>
+      </c>
+      <c r="N61" s="9">
+        <v>0.96075384632432503</v>
+      </c>
+      <c r="O61" s="20">
+        <v>116352854.958124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="5">
+        <v>29148499592</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="11" t="str">
+        <f>IF(Table3367[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v>Market Collapse</v>
+      </c>
+      <c r="F62" s="19">
+        <v>9.0637572815413208</v>
+      </c>
+      <c r="G62" s="15">
+        <v>-7.6730201048103499</v>
+      </c>
+      <c r="H62" s="15">
+        <v>3.2824950551320802</v>
+      </c>
+      <c r="I62" s="15">
+        <v>-7.4195747991402099</v>
+      </c>
+      <c r="J62" s="15">
+        <v>6.8385814511463199</v>
+      </c>
+      <c r="K62" s="15">
+        <v>0.229774653859245</v>
+      </c>
+      <c r="L62" s="15">
+        <v>-0.37097873995700997</v>
+      </c>
+      <c r="M62" s="9">
+        <v>-0.221107859435001</v>
+      </c>
+      <c r="N62" s="9">
+        <v>0.975605275762923</v>
+      </c>
+      <c r="O62" s="20">
+        <v>200666517.969661</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="E63" s="11" t="str">
+        <f>IF(Table3367[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F63" s="19"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="20"/>
+    </row>
+    <row r="64" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="5">
+        <v>230098748.90000001</v>
+      </c>
+      <c r="D64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="11" t="str">
+        <f>IF(Table3367[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F64" s="19">
+        <v>7.1549453316915104E-2</v>
+      </c>
+      <c r="G64" s="15">
+        <v>-6.0570950515956401E-2</v>
+      </c>
+      <c r="H64" s="15">
+        <v>2.5912071496936102E-2</v>
+      </c>
+      <c r="I64" s="15">
+        <v>-5.8570248985326603E-2</v>
+      </c>
+      <c r="J64" s="15">
+        <v>5.3983877667287801E-2</v>
+      </c>
+      <c r="K64" s="15">
+        <v>1.81384500478553E-3</v>
+      </c>
+      <c r="L64" s="15">
+        <v>-2.9285124492662799E-3</v>
+      </c>
+      <c r="M64" s="9">
+        <v>-1.63926877991998E-2</v>
+      </c>
+      <c r="N64" s="9">
+        <v>0.770890104127122</v>
+      </c>
+      <c r="O64" s="20">
+        <v>1584064.8876352799</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="5">
+        <v>61923061.5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="11" t="str">
+        <f>IF(Table3367[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F65" s="19">
+        <v>1.9255042538107101E-2</v>
+      </c>
+      <c r="G65" s="15">
+        <v>-1.6300561006279399E-2</v>
+      </c>
+      <c r="H65" s="15">
+        <v>6.9733312526357701E-3</v>
+      </c>
+      <c r="I65" s="15">
+        <v>-1.5762141894847599E-2</v>
+      </c>
+      <c r="J65" s="15">
+        <v>1.4527879846286E-2</v>
+      </c>
+      <c r="K65" s="15">
+        <v>4.8813318768454301E-4</v>
+      </c>
+      <c r="L65" s="15">
+        <v>-7.8810709474243202E-4</v>
+      </c>
+      <c r="M65" s="9">
+        <v>-4.6378604907852004E-3</v>
+      </c>
+      <c r="N65" s="9">
+        <v>0.75913527681870596</v>
+      </c>
+      <c r="O65" s="20">
+        <v>426295.87481877202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="5">
+        <v>148772706.5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="11" t="str">
+        <f>IF(Table3367[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F66" s="19">
+        <v>4.6261033010566097E-2</v>
+      </c>
+      <c r="G66" s="15">
+        <v>-3.9162769404942302E-2</v>
+      </c>
+      <c r="H66" s="15">
+        <v>1.67537156375244E-2</v>
+      </c>
+      <c r="I66" s="15">
+        <v>-3.7869195306719602E-2</v>
+      </c>
+      <c r="J66" s="15">
+        <v>3.49038298831328E-2</v>
+      </c>
+      <c r="K66" s="15">
+        <v>1.1727600946267E-3</v>
+      </c>
+      <c r="L66" s="15">
+        <v>-1.89345976533592E-3</v>
+      </c>
+      <c r="M66" s="9">
+        <v>-1.08550378625432E-2</v>
+      </c>
+      <c r="N66" s="9">
+        <v>0.76535245419046505</v>
+      </c>
+      <c r="O66" s="20">
+        <v>1024193.40275309</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="5">
+        <v>55319876.289999999</v>
+      </c>
+      <c r="D67" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="11" t="str">
+        <f>IF(Table3367[[#This Row],[% Price Change
+Fuel]]&lt;-1,"Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F67" s="19">
+        <v>1.7201774998911699E-2</v>
+      </c>
+      <c r="G67" s="15">
+        <v>-1.45623455378571E-2</v>
+      </c>
+      <c r="H67" s="15">
+        <v>6.2297278732746297E-3</v>
+      </c>
+      <c r="I67" s="15">
+        <v>-1.40813409183328E-2</v>
+      </c>
+      <c r="J67" s="15">
+        <v>1.29786947929331E-2</v>
+      </c>
+      <c r="K67" s="15">
+        <v>4.3608095112919302E-4</v>
+      </c>
+      <c r="L67" s="15">
+        <v>-7.04067045916672E-4</v>
+      </c>
+      <c r="M67" s="9">
+        <v>-4.1516642123271101E-3</v>
+      </c>
+      <c r="N67" s="9">
+        <v>0.75864908054024804</v>
+      </c>
+      <c r="O67" s="20">
+        <v>380837.67964075197</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A24:O24"/>
+    <mergeCell ref="A47:O47"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D43" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="12" width="23.140625" customWidth="1"/>
+    <col min="13" max="13" width="28.140625" customWidth="1"/>
+    <col min="14" max="14" width="24.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+    </row>
+    <row r="2" spans="1:15" ht="38.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5">
+        <v>78.279968349613</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F4" s="17">
+        <v>1.5962505704459701E-4</v>
+      </c>
+      <c r="G4" s="16">
+        <v>-6.7871327992386099E-6</v>
+      </c>
+      <c r="H4" s="16">
+        <v>-4.9092085828610999E-4</v>
+      </c>
+      <c r="I4" s="16">
+        <v>-1.18583345723924E-4</v>
+      </c>
+      <c r="J4" s="16">
+        <v>-1.9682685118140801E-6</v>
+      </c>
+      <c r="K4" s="16">
+        <v>1.25260596964577E-4</v>
+      </c>
+      <c r="L4" s="16">
+        <v>-5.9291672861962898E-6</v>
+      </c>
+      <c r="M4" s="16">
+        <v>-3.4358975526590103E-5</v>
+      </c>
+      <c r="N4" s="16">
+        <v>0.78475199218258795</v>
+      </c>
+      <c r="O4" s="21">
+        <v>0.21094357024073401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5">
+        <v>71.425238501169304</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F5" s="17">
+        <v>1.4564719442977799E-4</v>
+      </c>
+      <c r="G5" s="16">
+        <v>-6.1928049940643198E-6</v>
+      </c>
+      <c r="H5" s="16">
+        <v>-4.47932467621409E-4</v>
+      </c>
+      <c r="I5" s="16">
+        <v>-1.08199376279371E-4</v>
+      </c>
+      <c r="J5" s="16">
+        <v>-1.7959134483154699E-6</v>
+      </c>
+      <c r="K5" s="16">
+        <v>1.14291921696283E-4</v>
+      </c>
+      <c r="L5" s="16">
+        <v>-5.4099688139633197E-6</v>
+      </c>
+      <c r="M5" s="16">
+        <v>-3.1350706591027099E-5</v>
+      </c>
+      <c r="N5" s="16">
+        <v>0.78474898391439996</v>
+      </c>
+      <c r="O5" s="21">
+        <v>0.19247190733892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5">
+        <v>54.2622507724803</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F6" s="17">
+        <v>1.10649187238311E-4</v>
+      </c>
+      <c r="G6" s="16">
+        <v>-4.7047170526724701E-6</v>
+      </c>
+      <c r="H6" s="16">
+        <v>-3.4029741303421402E-4</v>
+      </c>
+      <c r="I6" s="16">
+        <v>-8.2199819171810602E-5</v>
+      </c>
+      <c r="J6" s="16">
+        <v>-1.3643679453131501E-6</v>
+      </c>
+      <c r="K6" s="16">
+        <v>8.6828368325971695E-5</v>
+      </c>
+      <c r="L6" s="16">
+        <v>-4.1099909585855099E-6</v>
+      </c>
+      <c r="M6" s="16">
+        <v>-2.38181834497446E-5</v>
+      </c>
+      <c r="N6" s="16">
+        <v>0.78474145139045404</v>
+      </c>
+      <c r="O6" s="21">
+        <v>0.146222247511992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45.7854092798406</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F7" s="17">
+        <v>9.3363586140755297E-5</v>
+      </c>
+      <c r="G7" s="16">
+        <v>-3.9697467896309901E-6</v>
+      </c>
+      <c r="H7" s="16">
+        <v>-2.8713619709576301E-4</v>
+      </c>
+      <c r="I7" s="16">
+        <v>-6.9358574514183605E-5</v>
+      </c>
+      <c r="J7" s="16">
+        <v>-1.15122656902509E-6</v>
+      </c>
+      <c r="K7" s="16">
+        <v>7.3264052344114498E-5</v>
+      </c>
+      <c r="L7" s="16">
+        <v>-3.46792872570404E-6</v>
+      </c>
+      <c r="M7" s="16">
+        <v>-2.0097657407324902E-5</v>
+      </c>
+      <c r="N7" s="16">
+        <v>0.78473773086409304</v>
+      </c>
+      <c r="O7" s="21">
+        <v>0.12337942773947801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5">
+        <v>94.710389505675494</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F8" s="17">
+        <v>1.9312924680857E-4</v>
+      </c>
+      <c r="G8" s="16">
+        <v>-8.2117047898436397E-6</v>
+      </c>
+      <c r="H8" s="16">
+        <v>-5.9396173356873901E-4</v>
+      </c>
+      <c r="I8" s="16">
+        <v>-1.4347316560270199E-4</v>
+      </c>
+      <c r="J8" s="16">
+        <v>-2.38139438909238E-6</v>
+      </c>
+      <c r="K8" s="16">
+        <v>1.5155192545874399E-4</v>
+      </c>
+      <c r="L8" s="16">
+        <v>-7.1736582801330501E-6</v>
+      </c>
+      <c r="M8" s="16">
+        <v>-4.1569293103534602E-5</v>
+      </c>
+      <c r="N8" s="16">
+        <v>0.78475920250060105</v>
+      </c>
+      <c r="O8" s="21">
+        <v>0.255219159158947</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5">
+        <v>347.463431650475</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F9" s="17">
+        <v>7.0853209662025097E-4</v>
+      </c>
+      <c r="G9" s="16">
+        <v>-3.0126231566573499E-5</v>
+      </c>
+      <c r="H9" s="16">
+        <v>-2.1790638101235201E-3</v>
+      </c>
+      <c r="I9" s="16">
+        <v>-5.2635913261763801E-4</v>
+      </c>
+      <c r="J9" s="16">
+        <v>-8.7366071543402902E-6</v>
+      </c>
+      <c r="K9" s="16">
+        <v>5.5599762991163004E-4</v>
+      </c>
+      <c r="L9" s="16">
+        <v>-2.6317956630877401E-5</v>
+      </c>
+      <c r="M9" s="16">
+        <v>-1.5242646766392101E-4</v>
+      </c>
+      <c r="N9" s="16">
+        <v>0.78487005967547996</v>
+      </c>
+      <c r="O9" s="21">
+        <v>0.936320981542063</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5">
+        <v>301.51785396969899</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F10" s="17">
+        <v>6.1484190214437405E-4</v>
+      </c>
+      <c r="G10" s="16">
+        <v>-2.61425976453915E-5</v>
+      </c>
+      <c r="H10" s="16">
+        <v>-1.8909231413822901E-3</v>
+      </c>
+      <c r="I10" s="16">
+        <v>-4.5675792508684498E-4</v>
+      </c>
+      <c r="J10" s="16">
+        <v>-7.5813533171949496E-6</v>
+      </c>
+      <c r="K10" s="16">
+        <v>4.8247728224764001E-4</v>
+      </c>
+      <c r="L10" s="16">
+        <v>-2.2837896254339301E-5</v>
+      </c>
+      <c r="M10" s="16">
+        <v>-1.32283286589205E-4</v>
+      </c>
+      <c r="N10" s="16">
+        <v>0.78484991649423597</v>
+      </c>
+      <c r="O10" s="21">
+        <v>0.81250994281775302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5">
+        <v>229.06521214312818</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F11" s="17">
+        <v>4.67099672191684E-4</v>
+      </c>
+      <c r="G11" s="16">
+        <v>-1.98607133765345E-5</v>
+      </c>
+      <c r="H11" s="16">
+        <v>-1.43654747081991E-3</v>
+      </c>
+      <c r="I11" s="16">
+        <v>-3.4700217459950999E-4</v>
+      </c>
+      <c r="J11" s="16">
+        <v>-5.7596068792309299E-6</v>
+      </c>
+      <c r="K11" s="16">
+        <v>3.6654134923427899E-4</v>
+      </c>
+      <c r="L11" s="16">
+        <v>-1.7350108729976199E-5</v>
+      </c>
+      <c r="M11" s="16">
+        <v>-1.0051137412747799E-4</v>
+      </c>
+      <c r="N11" s="16">
+        <v>0.78481814458171495</v>
+      </c>
+      <c r="O11" s="21">
+        <v>0.61726945840727299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5">
+        <v>193.28067562836512</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F12" s="17">
+        <v>3.9412942446531501E-4</v>
+      </c>
+      <c r="G12" s="16">
+        <v>-1.6758075414260998E-5</v>
+      </c>
+      <c r="H12" s="16">
+        <v>-1.21213021887732E-3</v>
+      </c>
+      <c r="I12" s="16">
+        <v>-2.92793541732521E-4</v>
+      </c>
+      <c r="J12" s="16">
+        <v>-4.8598418701670502E-6</v>
+      </c>
+      <c r="K12" s="16">
+        <v>3.09280309143859E-4</v>
+      </c>
+      <c r="L12" s="16">
+        <v>-1.46396770866205E-5</v>
+      </c>
+      <c r="M12" s="16">
+        <v>-8.4815686963512395E-5</v>
+      </c>
+      <c r="N12" s="16">
+        <v>0.78480244889461004</v>
+      </c>
+      <c r="O12" s="21">
+        <v>0.520839706952684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="5">
+        <v>399.81488344685596</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F13" s="17">
+        <v>8.1528486690807603E-4</v>
+      </c>
+      <c r="G13" s="16">
+        <v>-3.4665276012552597E-5</v>
+      </c>
+      <c r="H13" s="16">
+        <v>-2.5073779394003699E-3</v>
+      </c>
+      <c r="I13" s="16">
+        <v>-6.0566435512096704E-4</v>
+      </c>
+      <c r="J13" s="16">
+        <v>-1.0052930043676101E-5</v>
+      </c>
+      <c r="K13" s="16">
+        <v>6.39768411150044E-4</v>
+      </c>
+      <c r="L13" s="16">
+        <v>-3.0283217756046401E-5</v>
+      </c>
+      <c r="M13" s="16">
+        <v>-1.75373476416634E-4</v>
+      </c>
+      <c r="N13" s="16">
+        <v>0.78489300668399797</v>
+      </c>
+      <c r="O13" s="21">
+        <v>1.07739413706439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="E14" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="21"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5">
+        <v>13979.558874595172</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F15" s="17">
+        <v>2.85064995536186E-2</v>
+      </c>
+      <c r="G15" s="16">
+        <v>-1.2120741047594199E-3</v>
+      </c>
+      <c r="H15" s="16">
+        <v>-8.7670667040952194E-2</v>
+      </c>
+      <c r="I15" s="16">
+        <v>-2.1177101856898198E-2</v>
+      </c>
+      <c r="J15" s="16">
+        <v>-3.5150149038026498E-4</v>
+      </c>
+      <c r="K15" s="16">
+        <v>2.23695528607523E-2</v>
+      </c>
+      <c r="L15" s="16">
+        <v>-1.05885509284491E-3</v>
+      </c>
+      <c r="M15" s="16">
+        <v>-5.9668526115587402E-3</v>
+      </c>
+      <c r="N15" s="16">
+        <v>0.79068448581926198</v>
+      </c>
+      <c r="O15" s="21">
+        <v>37.6711708188041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="5">
+        <v>12880.894356686529</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F16" s="17">
+        <v>2.6266151351627302E-2</v>
+      </c>
+      <c r="G16" s="16">
+        <v>-1.1168162483476899E-3</v>
+      </c>
+      <c r="H16" s="16">
+        <v>-8.0780560421471206E-2</v>
+      </c>
+      <c r="I16" s="16">
+        <v>-1.9512776779760502E-2</v>
+      </c>
+      <c r="J16" s="16">
+        <v>-3.2387671202086503E-4</v>
+      </c>
+      <c r="K16" s="16">
+        <v>2.0611512122124E-2</v>
+      </c>
+      <c r="L16" s="16">
+        <v>-9.7563883898802101E-4</v>
+      </c>
+      <c r="M16" s="16">
+        <v>-5.5099149689928004E-3</v>
+      </c>
+      <c r="N16" s="16">
+        <v>0.79022754817669605</v>
+      </c>
+      <c r="O16" s="21">
+        <v>34.710563899947097</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5">
+        <v>12928.250585906731</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F17" s="17">
+        <v>2.6362718084471298E-2</v>
+      </c>
+      <c r="G17" s="16">
+        <v>-1.12092219043447E-3</v>
+      </c>
+      <c r="H17" s="16">
+        <v>-8.1077547775758194E-2</v>
+      </c>
+      <c r="I17" s="16">
+        <v>-1.9584514929637201E-2</v>
+      </c>
+      <c r="J17" s="16">
+        <v>-3.2506743522603198E-4</v>
+      </c>
+      <c r="K17" s="16">
+        <v>2.06872897401684E-2</v>
+      </c>
+      <c r="L17" s="16">
+        <v>-9.7922574648185291E-4</v>
+      </c>
+      <c r="M17" s="16">
+        <v>-5.5296516955480098E-3</v>
+      </c>
+      <c r="N17" s="16">
+        <v>0.79024728490325302</v>
+      </c>
+      <c r="O17" s="21">
+        <v>34.838176267138898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5">
+        <v>20202.167397060159</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F18" s="17">
+        <v>4.1195368255359799E-2</v>
+      </c>
+      <c r="G18" s="16">
+        <v>-1.7515948952074301E-3</v>
+      </c>
+      <c r="H18" s="16">
+        <v>-0.12669480541277101</v>
+      </c>
+      <c r="I18" s="16">
+        <v>-3.06034947551262E-2</v>
+      </c>
+      <c r="J18" s="16">
+        <v>-5.0796251961018998E-4</v>
+      </c>
+      <c r="K18" s="16">
+        <v>3.2326731876465703E-2</v>
+      </c>
+      <c r="L18" s="16">
+        <v>-1.5301747377563001E-3</v>
+      </c>
+      <c r="M18" s="16">
+        <v>-8.5177447473228397E-3</v>
+      </c>
+      <c r="N18" s="16">
+        <v>0.79323537795502896</v>
+      </c>
+      <c r="O18" s="21">
+        <v>54.439435875744302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="5">
+        <v>8287.3401193964201</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F19" s="17">
+        <v>1.6899178259736299E-2</v>
+      </c>
+      <c r="G19" s="16">
+        <v>-7.1853986568260505E-4</v>
+      </c>
+      <c r="H19" s="16">
+        <v>-5.19727870371565E-2</v>
+      </c>
+      <c r="I19" s="16">
+        <v>-1.2554176237288399E-2</v>
+      </c>
+      <c r="J19" s="16">
+        <v>-2.0837656104798999E-4</v>
+      </c>
+      <c r="K19" s="16">
+        <v>1.32610831671353E-2</v>
+      </c>
+      <c r="L19" s="16">
+        <v>-6.2770881186441905E-4</v>
+      </c>
+      <c r="M19" s="16">
+        <v>-3.5776359843529199E-3</v>
+      </c>
+      <c r="N19" s="16">
+        <v>0.78829526919205595</v>
+      </c>
+      <c r="O19" s="21">
+        <v>22.332164274414499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="5">
+        <v>15343.41827613693</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F20" s="17">
+        <v>3.1287621459540199E-2</v>
+      </c>
+      <c r="G20" s="16">
+        <v>-1.3303252368566799E-3</v>
+      </c>
+      <c r="H20" s="16">
+        <v>-9.6223902844446693E-2</v>
+      </c>
+      <c r="I20" s="16">
+        <v>-2.3243160573344999E-2</v>
+      </c>
+      <c r="J20" s="16">
+        <v>-3.8579431868846902E-4</v>
+      </c>
+      <c r="K20" s="16">
+        <v>2.4551948260428599E-2</v>
+      </c>
+      <c r="L20" s="16">
+        <v>-1.1621580286672499E-3</v>
+      </c>
+      <c r="M20" s="16">
+        <v>-6.5313236181178402E-3</v>
+      </c>
+      <c r="N20" s="16">
+        <v>0.79124895682581897</v>
+      </c>
+      <c r="O20" s="21">
+        <v>41.346406993937201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="5">
+        <v>860.28054599366999</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F21" s="17">
+        <v>1.75424612610073E-3</v>
+      </c>
+      <c r="G21" s="16">
+        <v>-7.4589175665737301E-5</v>
+      </c>
+      <c r="H21" s="16">
+        <v>-5.3951179709023902E-3</v>
+      </c>
+      <c r="I21" s="16">
+        <v>-1.3032062679118499E-3</v>
+      </c>
+      <c r="J21" s="16">
+        <v>-2.1630860943100199E-5</v>
+      </c>
+      <c r="K21" s="16">
+        <v>1.37658786813753E-3</v>
+      </c>
+      <c r="L21" s="16">
+        <v>-6.5160313395589705E-5</v>
+      </c>
+      <c r="M21" s="16">
+        <v>-3.76996912589695E-4</v>
+      </c>
+      <c r="N21" s="16">
+        <v>0.785094630120308</v>
+      </c>
+      <c r="O21" s="21">
+        <v>2.31822589617714</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>3762.1112153559802</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F22" s="17">
+        <v>7.6715311722820303E-3</v>
+      </c>
+      <c r="G22" s="16">
+        <v>-3.2618751594832001E-4</v>
+      </c>
+      <c r="H22" s="16">
+        <v>-2.3593505538425701E-2</v>
+      </c>
+      <c r="I22" s="16">
+        <v>-5.6990791425727003E-3</v>
+      </c>
+      <c r="J22" s="16">
+        <v>-9.4594379625048203E-5</v>
+      </c>
+      <c r="K22" s="16">
+        <v>6.0199857845923401E-3</v>
+      </c>
+      <c r="L22" s="16">
+        <v>-2.8495395712863498E-4</v>
+      </c>
+      <c r="M22" s="16">
+        <v>-1.63897196318372E-3</v>
+      </c>
+      <c r="N22" s="16">
+        <v>0.78635660517088501</v>
+      </c>
+      <c r="O22" s="21">
+        <v>10.1378831409742</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>3466.4439374662097</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F23" s="17">
+        <v>7.0686195067000404E-3</v>
+      </c>
+      <c r="G23" s="16">
+        <v>-3.0055218264704001E-4</v>
+      </c>
+      <c r="H23" s="16">
+        <v>-2.17392733908085E-2</v>
+      </c>
+      <c r="I23" s="16">
+        <v>-5.2511840325916099E-3</v>
+      </c>
+      <c r="J23" s="16">
+        <v>-8.71601329676744E-5</v>
+      </c>
+      <c r="K23" s="16">
+        <v>5.5468703693434401E-3</v>
+      </c>
+      <c r="L23" s="16">
+        <v>-2.6255920162957398E-4</v>
+      </c>
+      <c r="M23" s="16">
+        <v>-1.5110679728080501E-3</v>
+      </c>
+      <c r="N23" s="16">
+        <v>0.78622870118051202</v>
+      </c>
+      <c r="O23" s="21">
+        <v>9.3411389353212808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>9038.6271912206303</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F24" s="17">
+        <v>1.8431169703079699E-2</v>
+      </c>
+      <c r="G24" s="16">
+        <v>-7.8367894576142295E-4</v>
+      </c>
+      <c r="H24" s="16">
+        <v>-5.6684369091849998E-2</v>
+      </c>
+      <c r="I24" s="16">
+        <v>-1.3692272438070901E-2</v>
+      </c>
+      <c r="J24" s="16">
+        <v>-2.2726689427084301E-4</v>
+      </c>
+      <c r="K24" s="16">
+        <v>1.4463263866650301E-2</v>
+      </c>
+      <c r="L24" s="16">
+        <v>-6.8461362190354303E-4</v>
+      </c>
+      <c r="M24" s="16">
+        <v>-3.8960962257138299E-3</v>
+      </c>
+      <c r="N24" s="16">
+        <v>0.78861372943341701</v>
+      </c>
+      <c r="O24" s="21">
+        <v>24.356681919823401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>8328.2743775763392</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F25" s="17">
+        <v>1.6982649592630201E-2</v>
+      </c>
+      <c r="G25" s="16">
+        <v>-7.2208900158760405E-4</v>
+      </c>
+      <c r="H25" s="16">
+        <v>-5.2229499981510198E-2</v>
+      </c>
+      <c r="I25" s="16">
+        <v>-1.2616185987573801E-2</v>
+      </c>
+      <c r="J25" s="16">
+        <v>-2.0940581046043701E-4</v>
+      </c>
+      <c r="K25" s="16">
+        <v>1.33265845939247E-2</v>
+      </c>
+      <c r="L25" s="16">
+        <v>-6.3080929937868501E-4</v>
+      </c>
+      <c r="M25" s="16">
+        <v>-3.5950121667957598E-3</v>
+      </c>
+      <c r="N25" s="16">
+        <v>0.78831264537449897</v>
+      </c>
+      <c r="O25" s="21">
+        <v>22.442471147905401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>3360.1350171024301</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F26" s="17">
+        <v>6.8518390475968702E-3</v>
+      </c>
+      <c r="G26" s="16">
+        <v>-2.9133484677587899E-4</v>
+      </c>
+      <c r="H26" s="16">
+        <v>-2.10725732435222E-2</v>
+      </c>
+      <c r="I26" s="16">
+        <v>-5.0901406938828504E-3</v>
+      </c>
+      <c r="J26" s="16">
+        <v>-8.4487105565039396E-5</v>
+      </c>
+      <c r="K26" s="16">
+        <v>5.3767589205502304E-3</v>
+      </c>
+      <c r="L26" s="16">
+        <v>-2.54507034694135E-4</v>
+      </c>
+      <c r="M26" s="16">
+        <v>-1.46504189577868E-3</v>
+      </c>
+      <c r="N26" s="16">
+        <v>0.78618267510347895</v>
+      </c>
+      <c r="O26" s="21">
+        <v>9.0546648387843707</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>3808.15302114118</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F27" s="17">
+        <v>7.7654175908620201E-3</v>
+      </c>
+      <c r="G27" s="16">
+        <v>-3.3017949316510202E-4</v>
+      </c>
+      <c r="H27" s="16">
+        <v>-2.3882249687019099E-2</v>
+      </c>
+      <c r="I27" s="16">
+        <v>-5.7688261223977104E-3</v>
+      </c>
+      <c r="J27" s="16">
+        <v>-9.5752053017916894E-5</v>
+      </c>
+      <c r="K27" s="16">
+        <v>6.09366011277079E-3</v>
+      </c>
+      <c r="L27" s="16">
+        <v>-2.8844130611988201E-4</v>
+      </c>
+      <c r="M27" s="16">
+        <v>-1.6588756162002299E-3</v>
+      </c>
+      <c r="N27" s="16">
+        <v>0.78637650882390497</v>
+      </c>
+      <c r="O27" s="21">
+        <v>10.2619534886939</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>3822.1535825767901</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F28" s="17">
+        <v>7.79396691791136E-3</v>
+      </c>
+      <c r="G28" s="16">
+        <v>-3.3139338826157901E-4</v>
+      </c>
+      <c r="H28" s="16">
+        <v>-2.3970052068411199E-2</v>
+      </c>
+      <c r="I28" s="16">
+        <v>-5.79003504023517E-3</v>
+      </c>
+      <c r="J28" s="16">
+        <v>-9.6104082595893897E-5</v>
+      </c>
+      <c r="K28" s="16">
+        <v>6.11606327312252E-3</v>
+      </c>
+      <c r="L28" s="16">
+        <v>-2.8950175201175599E-4</v>
+      </c>
+      <c r="M28" s="16">
+        <v>-1.66492725682832E-3</v>
+      </c>
+      <c r="N28" s="16">
+        <v>0.78638256046453603</v>
+      </c>
+      <c r="O28" s="21">
+        <v>10.299681255795001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>5972.6399961013694</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F29" s="17">
+        <v>1.2179143913632401E-2</v>
+      </c>
+      <c r="G29" s="16">
+        <v>-5.17847690421783E-4</v>
+      </c>
+      <c r="H29" s="16">
+        <v>-3.7456498960439198E-2</v>
+      </c>
+      <c r="I29" s="16">
+        <v>-9.04772508822713E-3</v>
+      </c>
+      <c r="J29" s="16">
+        <v>-1.50175830222353E-4</v>
+      </c>
+      <c r="K29" s="16">
+        <v>9.5571889864015901E-3</v>
+      </c>
+      <c r="L29" s="16">
+        <v>-4.5238625441135601E-4</v>
+      </c>
+      <c r="M29" s="16">
+        <v>-2.5904059997648599E-3</v>
+      </c>
+      <c r="N29" s="16">
+        <v>0.78730803920746895</v>
+      </c>
+      <c r="O29" s="21">
+        <v>16.094666759566799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>2450.098450813101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F30" s="17">
+        <v>4.9961326405907804E-3</v>
+      </c>
+      <c r="G30" s="16">
+        <v>-2.1243165918042101E-4</v>
+      </c>
+      <c r="H30" s="16">
+        <v>-1.5365417995351901E-2</v>
+      </c>
+      <c r="I30" s="16">
+        <v>-3.7115609238993E-3</v>
+      </c>
+      <c r="J30" s="16">
+        <v>-6.1605181162359003E-5</v>
+      </c>
+      <c r="K30" s="16">
+        <v>3.9205533809161903E-3</v>
+      </c>
+      <c r="L30" s="16">
+        <v>-1.8557804619496099E-4</v>
+      </c>
+      <c r="M30" s="16">
+        <v>-1.0702322374600299E-3</v>
+      </c>
+      <c r="N30" s="16">
+        <v>0.78578786544516699</v>
+      </c>
+      <c r="O30" s="21">
+        <v>6.6023597805505503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>4536.1822744070996</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F31" s="17">
+        <v>9.2499827169448701E-3</v>
+      </c>
+      <c r="G31" s="16">
+        <v>-3.9330204326178402E-4</v>
+      </c>
+      <c r="H31" s="16">
+        <v>-2.8447973887026998E-2</v>
+      </c>
+      <c r="I31" s="16">
+        <v>-6.8716899387397503E-3</v>
+      </c>
+      <c r="J31" s="16">
+        <v>-1.14057592545951E-4</v>
+      </c>
+      <c r="K31" s="16">
+        <v>7.25862454485316E-3</v>
+      </c>
+      <c r="L31" s="16">
+        <v>-3.4358449693698502E-4</v>
+      </c>
+      <c r="M31" s="16">
+        <v>-1.9731069667507498E-3</v>
+      </c>
+      <c r="N31" s="16">
+        <v>0.78669074017444096</v>
+      </c>
+      <c r="O31" s="21">
+        <v>12.223797535913301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>1606695.2125056691</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F32" s="17">
+        <v>3.2763019755457399</v>
+      </c>
+      <c r="G32" s="16">
+        <v>-0.139305802049177</v>
+      </c>
+      <c r="H32" s="16">
+        <v>-10.0761434803109</v>
+      </c>
+      <c r="I32" s="16">
+        <v>-2.4339214472680299</v>
+      </c>
+      <c r="J32" s="16">
+        <v>-4.0398682594261298E-2</v>
+      </c>
+      <c r="K32" s="16">
+        <v>2.5709719319240101</v>
+      </c>
+      <c r="L32" s="16">
+        <v>-0.12169607236340201</v>
+      </c>
+      <c r="M32" s="16">
+        <v>-0.16493925070194401</v>
+      </c>
+      <c r="N32" s="16">
+        <v>0.94965688390964997</v>
+      </c>
+      <c r="O32" s="21">
+        <v>4329.6137129225299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33">
+        <v>1405858.3109424603</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F33" s="17">
+        <v>2.8667642286025199</v>
+      </c>
+      <c r="G33" s="16">
+        <v>-0.12189257679303001</v>
+      </c>
+      <c r="H33" s="16">
+        <v>-8.8166255452720499</v>
+      </c>
+      <c r="I33" s="16">
+        <v>-2.1296812663595301</v>
+      </c>
+      <c r="J33" s="16">
+        <v>-3.5348847269978598E-2</v>
+      </c>
+      <c r="K33" s="16">
+        <v>2.2496004404334999</v>
+      </c>
+      <c r="L33" s="16">
+        <v>-0.106484063317977</v>
+      </c>
+      <c r="M33" s="16">
+        <v>-0.15960729738934401</v>
+      </c>
+      <c r="N33" s="16">
+        <v>0.94432493059704903</v>
+      </c>
+      <c r="O33" s="21">
+        <v>3788.4119988072198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34">
+        <v>1068040.3431848581</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F34" s="17">
+        <v>2.1779007363082998</v>
+      </c>
+      <c r="G34" s="16">
+        <v>-9.2602638926279596E-2</v>
+      </c>
+      <c r="H34" s="16">
+        <v>-6.6980517878733297</v>
+      </c>
+      <c r="I34" s="16">
+        <v>-1.6179336800108699</v>
+      </c>
+      <c r="J34" s="16">
+        <v>-2.6854765288621098E-2</v>
+      </c>
+      <c r="K34" s="16">
+        <v>1.7090371111571701</v>
+      </c>
+      <c r="L34" s="16">
+        <v>-8.0896684000543298E-2</v>
+      </c>
+      <c r="M34" s="16">
+        <v>-0.14753878867085099</v>
+      </c>
+      <c r="N34" s="16">
+        <v>0.93225642187855695</v>
+      </c>
+      <c r="O34" s="21">
+        <v>2878.0829617311902</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35">
+        <v>901191.22496311564</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F35" s="17">
+        <v>1.83766937730933</v>
+      </c>
+      <c r="G35" s="16">
+        <v>-7.8136267175018898E-2</v>
+      </c>
+      <c r="H35" s="16">
+        <v>-5.65168304184105</v>
+      </c>
+      <c r="I35" s="16">
+        <v>-1.3651802989484201</v>
+      </c>
+      <c r="J35" s="16">
+        <v>-2.2659517480755498E-2</v>
+      </c>
+      <c r="K35" s="16">
+        <v>1.4420515643804499</v>
+      </c>
+      <c r="L35" s="16">
+        <v>-6.8259014947420801E-2</v>
+      </c>
+      <c r="M35" s="16">
+        <v>-0.13941645777775499</v>
+      </c>
+      <c r="N35" s="16">
+        <v>0.92413409098545996</v>
+      </c>
+      <c r="O35" s="21">
+        <v>2428.4692300046299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36">
+        <v>1864178.4196379881</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F36" s="17">
+        <v>3.80135036906269</v>
+      </c>
+      <c r="G36" s="16">
+        <v>-0.161630449813468</v>
+      </c>
+      <c r="H36" s="16">
+        <v>-11.690910063694099</v>
+      </c>
+      <c r="I36" s="16">
+        <v>-2.8239729612532898</v>
+      </c>
+      <c r="J36" s="16">
+        <v>-4.6872830445905699E-2</v>
+      </c>
+      <c r="K36" s="16">
+        <v>2.9829866646041299</v>
+      </c>
+      <c r="L36" s="16">
+        <v>-0.14119864806266499</v>
+      </c>
+      <c r="M36" s="16">
+        <v>-0.17044448781152799</v>
+      </c>
+      <c r="N36" s="16">
+        <v>0.95516212101923303</v>
+      </c>
+      <c r="O36" s="21">
+        <v>5023.4620643524404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37">
+        <v>1789322.1461500002</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F37" s="17">
+        <v>3.64870675949583</v>
+      </c>
+      <c r="G37" s="16">
+        <v>-0.15514016271016901</v>
+      </c>
+      <c r="H37" s="16">
+        <v>-11.2214603845044</v>
+      </c>
+      <c r="I37" s="16">
+        <v>-2.7105760406134198</v>
+      </c>
+      <c r="J37" s="16">
+        <v>-4.4990647185949202E-2</v>
+      </c>
+      <c r="K37" s="16">
+        <v>2.86320453258053</v>
+      </c>
+      <c r="L37" s="16">
+        <v>-0.135528802030671</v>
+      </c>
+      <c r="M37" s="16">
+        <v>-0.16897220400292501</v>
+      </c>
+      <c r="N37" s="16">
+        <v>0.95368983721063105</v>
+      </c>
+      <c r="O37" s="21">
+        <v>4821.7444357261302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38">
+        <v>1602880.4750000001</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F38" s="17">
+        <v>3.2685231311646099</v>
+      </c>
+      <c r="G38" s="16">
+        <v>-0.13897505165937099</v>
+      </c>
+      <c r="H38" s="16">
+        <v>-10.052219937035501</v>
+      </c>
+      <c r="I38" s="16">
+        <v>-2.4281426465605498</v>
+      </c>
+      <c r="J38" s="16">
+        <v>-4.0302764981217799E-2</v>
+      </c>
+      <c r="K38" s="16">
+        <v>2.5648677355721401</v>
+      </c>
+      <c r="L38" s="16">
+        <v>-0.121407132328027</v>
+      </c>
+      <c r="M38" s="16">
+        <v>-0.164847506730155</v>
+      </c>
+      <c r="N38" s="16">
+        <v>0.94956513993785996</v>
+      </c>
+      <c r="O38" s="21">
+        <v>4319.3340160097696</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39">
+        <v>924809.875</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" t="str">
+        <f>IF(Table368[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F39" s="17">
+        <v>1.8858314861979599</v>
+      </c>
+      <c r="G39" s="16">
+        <v>-8.0184082442717297E-2</v>
+      </c>
+      <c r="H39" s="16">
+        <v>-5.7998037960018598</v>
+      </c>
+      <c r="I39" s="16">
+        <v>-1.4009592932672199</v>
+      </c>
+      <c r="J39" s="16">
+        <v>-2.3253383908387999E-2</v>
+      </c>
+      <c r="K39" s="16">
+        <v>1.4798452204778401</v>
+      </c>
+      <c r="L39" s="16">
+        <v>-7.0047964663360995E-2</v>
+      </c>
+      <c r="M39" s="16">
+        <v>-0.14068259621597301</v>
+      </c>
+      <c r="N39" s="16">
+        <v>0.92540022942367794</v>
+      </c>
+      <c r="O39" s="21">
+        <v>2492.1151724861102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G40" s="18"/>
+    </row>
+    <row r="42" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+    </row>
+    <row r="43" spans="1:15" ht="38.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="O43" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="5">
+        <v>78.279968349613</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F45" s="17">
+        <v>1.5962505704459601E-4</v>
+      </c>
+      <c r="G45" s="16">
+        <v>-7.1630248621878595E-5</v>
+      </c>
+      <c r="H45" s="16">
+        <v>-7.3924038406520103E-4</v>
+      </c>
+      <c r="I45" s="16">
+        <v>-3.9889413790580798E-4</v>
+      </c>
+      <c r="J45" s="16">
+        <v>-2.077277210038E-5</v>
+      </c>
+      <c r="K45" s="16">
+        <v>1.07878230160057E-4</v>
+      </c>
+      <c r="L45" s="16">
+        <v>-1.9944706895217899E-5</v>
+      </c>
+      <c r="M45" s="16">
+        <v>-5.1738568112651301E-5</v>
+      </c>
+      <c r="N45" s="16">
+        <v>0.67587439547040296</v>
+      </c>
+      <c r="O45" s="21">
+        <v>0.14413408094256999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="5">
+        <v>71.425238501169304</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F46" s="17">
+        <v>1.45647194429779E-4</v>
+      </c>
+      <c r="G46" s="16">
+        <v>-6.5357813749820801E-5</v>
+      </c>
+      <c r="H46" s="16">
+        <v>-6.7450743599777605E-4</v>
+      </c>
+      <c r="I46" s="16">
+        <v>-3.6396423679408698E-4</v>
+      </c>
+      <c r="J46" s="16">
+        <v>-1.89537659874892E-5</v>
+      </c>
+      <c r="K46" s="16">
+        <v>9.8431673909956505E-5</v>
+      </c>
+      <c r="L46" s="16">
+        <v>-1.8198211839675898E-5</v>
+      </c>
+      <c r="M46" s="16">
+        <v>-4.7208644713156897E-5</v>
+      </c>
+      <c r="N46" s="16">
+        <v>0.67586986554747897</v>
+      </c>
+      <c r="O46" s="21">
+        <v>0.131512714229196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="5">
+        <v>54.2622507724803</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F47" s="17">
+        <v>1.10649187238311E-4</v>
+      </c>
+      <c r="G47" s="16">
+        <v>-4.9652785962521599E-5</v>
+      </c>
+      <c r="H47" s="16">
+        <v>-5.1242799335454302E-4</v>
+      </c>
+      <c r="I47" s="16">
+        <v>-2.7650616369741103E-4</v>
+      </c>
+      <c r="J47" s="16">
+        <v>-1.4399307929127E-5</v>
+      </c>
+      <c r="K47" s="16">
+        <v>7.4779227703550605E-5</v>
+      </c>
+      <c r="L47" s="16">
+        <v>-1.38253081848145E-5</v>
+      </c>
+      <c r="M47" s="16">
+        <v>-3.5865990992053002E-5</v>
+      </c>
+      <c r="N47" s="16">
+        <v>0.67585852289355997</v>
+      </c>
+      <c r="O47" s="21">
+        <v>9.9911124261892206E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="5">
+        <v>45.7854092798406</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F48" s="17">
+        <v>9.3363586140756002E-5</v>
+      </c>
+      <c r="G48" s="16">
+        <v>-4.1896034440445403E-5</v>
+      </c>
+      <c r="H48" s="16">
+        <v>-4.3237656138747399E-4</v>
+      </c>
+      <c r="I48" s="16">
+        <v>-2.3331040812095299E-4</v>
+      </c>
+      <c r="J48" s="16">
+        <v>-1.2149849987805801E-5</v>
+      </c>
+      <c r="K48" s="16">
+        <v>6.3097226843746704E-5</v>
+      </c>
+      <c r="L48" s="16">
+        <v>-1.16655204060364E-5</v>
+      </c>
+      <c r="M48" s="16">
+        <v>-3.02635337850179E-5</v>
+      </c>
+      <c r="N48" s="16">
+        <v>0.67585292043739398</v>
+      </c>
+      <c r="O48" s="21">
+        <v>8.4303021913348999E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="5">
+        <v>94.710389505675494</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F49" s="17">
+        <v>1.93129246808569E-4</v>
+      </c>
+      <c r="G49" s="16">
+        <v>-8.6664939835774102E-5</v>
+      </c>
+      <c r="H49" s="16">
+        <v>-8.9440180149823504E-4</v>
+      </c>
+      <c r="I49" s="16">
+        <v>-4.8261924434940599E-4</v>
+      </c>
+      <c r="J49" s="16">
+        <v>-2.5132832552396699E-5</v>
+      </c>
+      <c r="K49" s="16">
+        <v>1.3052112070370799E-4</v>
+      </c>
+      <c r="L49" s="16">
+        <v>-2.4130962217483501E-5</v>
+      </c>
+      <c r="M49" s="16">
+        <v>-6.2596036979362994E-5</v>
+      </c>
+      <c r="N49" s="16">
+        <v>0.67588525293940305</v>
+      </c>
+      <c r="O49" s="21">
+        <v>0.17438682251566101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="5">
+        <v>347.463431650475</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F50" s="17">
+        <v>7.0853209662025205E-4</v>
+      </c>
+      <c r="G50" s="16">
+        <v>-3.1794713923384202E-4</v>
+      </c>
+      <c r="H50" s="16">
+        <v>-3.2812864654559498E-3</v>
+      </c>
+      <c r="I50" s="16">
+        <v>-1.77058229511676E-3</v>
+      </c>
+      <c r="J50" s="16">
+        <v>-9.22046703778591E-5</v>
+      </c>
+      <c r="K50" s="16">
+        <v>4.7884204403833802E-4</v>
+      </c>
+      <c r="L50" s="16">
+        <v>-8.8529114755783102E-5</v>
+      </c>
+      <c r="M50" s="16">
+        <v>-2.2952742503423701E-4</v>
+      </c>
+      <c r="N50" s="16">
+        <v>0.67605218432714798</v>
+      </c>
+      <c r="O50" s="21">
+        <v>0.63977187827209303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="5">
+        <v>301.51785396969899</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F51" s="17">
+        <v>6.1484190214437405E-4</v>
+      </c>
+      <c r="G51" s="16">
+        <v>-2.7590454236357001E-4</v>
+      </c>
+      <c r="H51" s="16">
+        <v>-2.8473973466054399E-3</v>
+      </c>
+      <c r="I51" s="16">
+        <v>-1.53645571093476E-3</v>
+      </c>
+      <c r="J51" s="16">
+        <v>-8.0012317285530794E-5</v>
+      </c>
+      <c r="K51" s="16">
+        <v>4.1552408788196702E-4</v>
+      </c>
+      <c r="L51" s="16">
+        <v>-7.6822785546722401E-5</v>
+      </c>
+      <c r="M51" s="16">
+        <v>-1.991953406203E-4</v>
+      </c>
+      <c r="N51" s="16">
+        <v>0.67602185224271505</v>
+      </c>
+      <c r="O51" s="21">
+        <v>0.55517394406224996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="5">
+        <v>229.06521214312818</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F52" s="17">
+        <v>4.6709967219168101E-4</v>
+      </c>
+      <c r="G52" s="16">
+        <v>-2.0960660105440499E-4</v>
+      </c>
+      <c r="H52" s="16">
+        <v>-2.1631875813275599E-3</v>
+      </c>
+      <c r="I52" s="16">
+        <v>-1.1672560969112501E-3</v>
+      </c>
+      <c r="J52" s="16">
+        <v>-6.07859143058171E-5</v>
+      </c>
+      <c r="K52" s="16">
+        <v>3.1567654149871997E-4</v>
+      </c>
+      <c r="L52" s="16">
+        <v>-5.83628048455811E-5</v>
+      </c>
+      <c r="M52" s="16">
+        <v>-1.51352434020626E-4</v>
+      </c>
+      <c r="N52" s="16">
+        <v>0.67597400933624097</v>
+      </c>
+      <c r="O52" s="21">
+        <v>0.42176950916373801</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="5">
+        <v>193.28067562836512</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F53" s="17">
+        <v>3.94129424465313E-4</v>
+      </c>
+      <c r="G53" s="16">
+        <v>-1.7686188613663101E-4</v>
+      </c>
+      <c r="H53" s="16">
+        <v>-1.82525470942593E-3</v>
+      </c>
+      <c r="I53" s="16">
+        <v>-9.8490750704356093E-4</v>
+      </c>
+      <c r="J53" s="16">
+        <v>-5.1289946979683603E-5</v>
+      </c>
+      <c r="K53" s="16">
+        <v>2.6636159480544601E-4</v>
+      </c>
+      <c r="L53" s="16">
+        <v>-4.92453753521729E-5</v>
+      </c>
+      <c r="M53" s="16">
+        <v>-1.2771749243802499E-4</v>
+      </c>
+      <c r="N53" s="16">
+        <v>0.67595037439467898</v>
+      </c>
+      <c r="O53" s="21">
+        <v>0.35588073338549198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="5">
+        <v>399.81488344685596</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F54" s="17">
+        <v>8.1528486690808102E-4</v>
+      </c>
+      <c r="G54" s="16">
+        <v>-3.6585144460013301E-4</v>
+      </c>
+      <c r="H54" s="16">
+        <v>-3.7756697431736998E-3</v>
+      </c>
+      <c r="I54" s="16">
+        <v>-2.0373515296058299E-3</v>
+      </c>
+      <c r="J54" s="16">
+        <v>-1.06096918934012E-4</v>
+      </c>
+      <c r="K54" s="16">
+        <v>5.5098798488593297E-4</v>
+      </c>
+      <c r="L54" s="16">
+        <v>-1.0186757648033101E-4</v>
+      </c>
+      <c r="M54" s="16">
+        <v>-2.6408158030607299E-4</v>
+      </c>
+      <c r="N54" s="16">
+        <v>0.67608673848248102</v>
+      </c>
+      <c r="O54" s="21">
+        <v>0.73616471733043698</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="E55" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F55" s="17"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="21"/>
+    </row>
+    <row r="56" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="5">
+        <v>13979.558874595172</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F56" s="17">
+        <v>2.8506499553618898E-2</v>
+      </c>
+      <c r="G56" s="16">
+        <v>-1.27920245615861E-2</v>
+      </c>
+      <c r="H56" s="16">
+        <v>-0.13201658980451</v>
+      </c>
+      <c r="I56" s="16">
+        <v>-7.1236156620378896E-2</v>
+      </c>
+      <c r="J56" s="16">
+        <v>-3.7096871228600101E-3</v>
+      </c>
+      <c r="K56" s="16">
+        <v>1.92653382673032E-2</v>
+      </c>
+      <c r="L56" s="16">
+        <v>-3.5618078310189799E-3</v>
+      </c>
+      <c r="M56" s="16">
+        <v>-8.9850295455851902E-3</v>
+      </c>
+      <c r="N56" s="16">
+        <v>0.68480768644761503</v>
+      </c>
+      <c r="O56" s="21">
+        <v>25.740057295023199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="5">
+        <v>12880.894356686529</v>
+      </c>
+      <c r="D57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F57" s="17">
+        <v>2.6266151351627E-2</v>
+      </c>
+      <c r="G57" s="16">
+        <v>-1.17866892985706E-2</v>
+      </c>
+      <c r="H57" s="16">
+        <v>-0.121641302265424</v>
+      </c>
+      <c r="I57" s="16">
+        <v>-6.5637651090049001E-2</v>
+      </c>
+      <c r="J57" s="16">
+        <v>-3.4181398965855299E-3</v>
+      </c>
+      <c r="K57" s="16">
+        <v>1.7751260193047302E-2</v>
+      </c>
+      <c r="L57" s="16">
+        <v>-3.28188255450241E-3</v>
+      </c>
+      <c r="M57" s="16">
+        <v>-8.2969619015157304E-3</v>
+      </c>
+      <c r="N57" s="16">
+        <v>0.68411961880354499</v>
+      </c>
+      <c r="O57" s="21">
+        <v>23.717125964166101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="5">
+        <v>12928.250585906731</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F58" s="17">
+        <v>2.63627180844715E-2</v>
+      </c>
+      <c r="G58" s="16">
+        <v>-1.1830022715079999E-2</v>
+      </c>
+      <c r="H58" s="16">
+        <v>-0.122088512935212</v>
+      </c>
+      <c r="I58" s="16">
+        <v>-6.5878965983597798E-2</v>
+      </c>
+      <c r="J58" s="16">
+        <v>-3.4307065873732299E-3</v>
+      </c>
+      <c r="K58" s="16">
+        <v>1.7816522179006599E-2</v>
+      </c>
+      <c r="L58" s="16">
+        <v>-3.2939482991798399E-3</v>
+      </c>
+      <c r="M58" s="16">
+        <v>-8.3266819369811496E-3</v>
+      </c>
+      <c r="N58" s="16">
+        <v>0.68414933883900797</v>
+      </c>
+      <c r="O58" s="21">
+        <v>23.8043212801518</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="5">
+        <v>20202.167397060159</v>
+      </c>
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F59" s="17">
+        <v>4.1195368255359702E-2</v>
+      </c>
+      <c r="G59" s="16">
+        <v>-1.84860354935877E-2</v>
+      </c>
+      <c r="H59" s="16">
+        <v>-0.19078007184235901</v>
+      </c>
+      <c r="I59" s="16">
+        <v>-0.10294493364761299</v>
+      </c>
+      <c r="J59" s="16">
+        <v>-5.3609502931404396E-3</v>
+      </c>
+      <c r="K59" s="16">
+        <v>2.7840763226394599E-2</v>
+      </c>
+      <c r="L59" s="16">
+        <v>-5.1472466823806002E-3</v>
+      </c>
+      <c r="M59" s="16">
+        <v>-1.28262240076445E-2</v>
+      </c>
+      <c r="N59" s="16">
+        <v>0.68864888090967002</v>
+      </c>
+      <c r="O59" s="21">
+        <v>37.197521820876403</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="5">
+        <v>8287.3401193964201</v>
+      </c>
+      <c r="D60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F60" s="17">
+        <v>1.6899178259736299E-2</v>
+      </c>
+      <c r="G60" s="16">
+        <v>-7.5833478944884103E-3</v>
+      </c>
+      <c r="H60" s="16">
+        <v>-7.82618672682905E-2</v>
+      </c>
+      <c r="I60" s="16">
+        <v>-4.2230106400890699E-2</v>
+      </c>
+      <c r="J60" s="16">
+        <v>-2.1991708894016498E-3</v>
+      </c>
+      <c r="K60" s="16">
+        <v>1.14208475509559E-2</v>
+      </c>
+      <c r="L60" s="16">
+        <v>-2.1115053200444801E-3</v>
+      </c>
+      <c r="M60" s="16">
+        <v>-5.3872899358180402E-3</v>
+      </c>
+      <c r="N60" s="16">
+        <v>0.68120994683784697</v>
+      </c>
+      <c r="O60" s="21">
+        <v>15.2591803082047</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="5">
+        <v>15343.41827613693</v>
+      </c>
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F61" s="17">
+        <v>3.1287621459539998E-2</v>
+      </c>
+      <c r="G61" s="16">
+        <v>-1.4040026957053401E-2</v>
+      </c>
+      <c r="H61" s="16">
+        <v>-0.14489625709441001</v>
+      </c>
+      <c r="I61" s="16">
+        <v>-7.8186025554581706E-2</v>
+      </c>
+      <c r="J61" s="16">
+        <v>-4.0716078175455604E-3</v>
+      </c>
+      <c r="K61" s="16">
+        <v>2.11448834629312E-2</v>
+      </c>
+      <c r="L61" s="16">
+        <v>-3.9093012777291101E-3</v>
+      </c>
+      <c r="M61" s="16">
+        <v>-9.8350235041647308E-3</v>
+      </c>
+      <c r="N61" s="16">
+        <v>0.68565768040619401</v>
+      </c>
+      <c r="O61" s="21">
+        <v>28.251282395397102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="5">
+        <v>860.28054599366999</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F62" s="17">
+        <v>1.75424612610073E-3</v>
+      </c>
+      <c r="G62" s="16">
+        <v>-7.87201511358849E-4</v>
+      </c>
+      <c r="H62" s="16">
+        <v>-8.12409783284492E-3</v>
+      </c>
+      <c r="I62" s="16">
+        <v>-4.3837634836411997E-3</v>
+      </c>
+      <c r="J62" s="16">
+        <v>-2.2828843829403401E-4</v>
+      </c>
+      <c r="K62" s="16">
+        <v>1.18555927780159E-3</v>
+      </c>
+      <c r="L62" s="16">
+        <v>-2.19188174182129E-4</v>
+      </c>
+      <c r="M62" s="16">
+        <v>-5.67690978599069E-4</v>
+      </c>
+      <c r="N62" s="16">
+        <v>0.67639034788070995</v>
+      </c>
+      <c r="O62" s="21">
+        <v>1.5840035255982901</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63">
+        <v>3762.1112153559802</v>
+      </c>
+      <c r="D63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F63" s="17">
+        <v>7.6715311722821197E-3</v>
+      </c>
+      <c r="G63" s="16">
+        <v>-3.4425277293773202E-3</v>
+      </c>
+      <c r="H63" s="16">
+        <v>-3.5527665613194301E-2</v>
+      </c>
+      <c r="I63" s="16">
+        <v>-1.9170729646370201E-2</v>
+      </c>
+      <c r="J63" s="16">
+        <v>-9.9833304151938397E-4</v>
+      </c>
+      <c r="K63" s="16">
+        <v>5.1845945793585297E-3</v>
+      </c>
+      <c r="L63" s="16">
+        <v>-9.5853648231849695E-4</v>
+      </c>
+      <c r="M63" s="16">
+        <v>-2.4680032292173598E-3</v>
+      </c>
+      <c r="N63" s="16">
+        <v>0.67829066013125805</v>
+      </c>
+      <c r="O63" s="21">
+        <v>6.9270396227951299</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64">
+        <v>3466.4439374662097</v>
+      </c>
+      <c r="D64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F64" s="17">
+        <v>7.0686195067000699E-3</v>
+      </c>
+      <c r="G64" s="16">
+        <v>-3.17197676888171E-3</v>
+      </c>
+      <c r="H64" s="16">
+        <v>-3.2735518443606303E-2</v>
+      </c>
+      <c r="I64" s="16">
+        <v>-1.7664086932947E-2</v>
+      </c>
+      <c r="J64" s="16">
+        <v>-9.19873262975745E-4</v>
+      </c>
+      <c r="K64" s="16">
+        <v>4.7771332156476198E-3</v>
+      </c>
+      <c r="L64" s="16">
+        <v>-8.8320434664733904E-4</v>
+      </c>
+      <c r="M64" s="16">
+        <v>-2.2754023377025401E-3</v>
+      </c>
+      <c r="N64" s="16">
+        <v>0.67809805923974598</v>
+      </c>
+      <c r="O64" s="21">
+        <v>6.3826381333476698</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65">
+        <v>9038.6271912206303</v>
+      </c>
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F65" s="17">
+        <v>1.84311697030798E-2</v>
+      </c>
+      <c r="G65" s="16">
+        <v>-8.2708146995418008E-3</v>
+      </c>
+      <c r="H65" s="16">
+        <v>-8.5356680350460901E-2</v>
+      </c>
+      <c r="I65" s="16">
+        <v>-4.6058467795941298E-2</v>
+      </c>
+      <c r="J65" s="16">
+        <v>-2.3985362628672E-3</v>
+      </c>
+      <c r="K65" s="16">
+        <v>1.24562020785475E-2</v>
+      </c>
+      <c r="L65" s="16">
+        <v>-2.3029233897970602E-3</v>
+      </c>
+      <c r="M65" s="16">
+        <v>-5.8668349931535E-3</v>
+      </c>
+      <c r="N65" s="16">
+        <v>0.68168949189518002</v>
+      </c>
+      <c r="O65" s="21">
+        <v>16.642498082910201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66">
+        <v>8328.2743775763392</v>
+      </c>
+      <c r="D66" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F66" s="17">
+        <v>1.6982649592630399E-2</v>
+      </c>
+      <c r="G66" s="16">
+        <v>-7.6208048729771204E-3</v>
+      </c>
+      <c r="H66" s="16">
+        <v>-7.8648431767183197E-2</v>
+      </c>
+      <c r="I66" s="16">
+        <v>-4.2438696618436599E-2</v>
+      </c>
+      <c r="J66" s="16">
+        <v>-2.2100334131633999E-3</v>
+      </c>
+      <c r="K66" s="16">
+        <v>1.14772593689276E-2</v>
+      </c>
+      <c r="L66" s="16">
+        <v>-2.12193483092178E-3</v>
+      </c>
+      <c r="M66" s="16">
+        <v>-5.4134554074330796E-3</v>
+      </c>
+      <c r="N66" s="16">
+        <v>0.68123611230945702</v>
+      </c>
+      <c r="O66" s="21">
+        <v>15.334551080653901</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67">
+        <v>3360.1350171024301</v>
+      </c>
+      <c r="D67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F67" s="17">
+        <v>6.8518390475968104E-3</v>
+      </c>
+      <c r="G67" s="16">
+        <v>-3.0746985691467101E-3</v>
+      </c>
+      <c r="H67" s="16">
+        <v>-3.1731585396925499E-2</v>
+      </c>
+      <c r="I67" s="16">
+        <v>-1.7122364624745898E-2</v>
+      </c>
+      <c r="J67" s="16">
+        <v>-8.9166258505252399E-4</v>
+      </c>
+      <c r="K67" s="16">
+        <v>4.6306280698119803E-3</v>
+      </c>
+      <c r="L67" s="16">
+        <v>-8.5611823123733495E-4</v>
+      </c>
+      <c r="M67" s="16">
+        <v>-2.20609516876474E-3</v>
+      </c>
+      <c r="N67" s="16">
+        <v>0.67802875207080504</v>
+      </c>
+      <c r="O67" s="21">
+        <v>6.1868953545026697</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68">
+        <v>3808.15302114118</v>
+      </c>
+      <c r="D68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F68" s="17">
+        <v>7.7654175908620903E-3</v>
+      </c>
+      <c r="G68" s="16">
+        <v>-3.4846583799752798E-3</v>
+      </c>
+      <c r="H68" s="16">
+        <v>-3.5962463466455E-2</v>
+      </c>
+      <c r="I68" s="16">
+        <v>-1.9405346583672801E-2</v>
+      </c>
+      <c r="J68" s="16">
+        <v>-1.0105509301929301E-3</v>
+      </c>
+      <c r="K68" s="16">
+        <v>5.2480451482102798E-3</v>
+      </c>
+      <c r="L68" s="16">
+        <v>-9.7026732918357897E-4</v>
+      </c>
+      <c r="M68" s="16">
+        <v>-2.49797462654533E-3</v>
+      </c>
+      <c r="N68" s="16">
+        <v>0.67832063152858502</v>
+      </c>
+      <c r="O68" s="21">
+        <v>7.0118147383405196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69">
+        <v>3822.1535825767901</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F69" s="17">
+        <v>7.7939669179113097E-3</v>
+      </c>
+      <c r="G69" s="16">
+        <v>-3.4974696229744299E-3</v>
+      </c>
+      <c r="H69" s="16">
+        <v>-3.60946783948842E-2</v>
+      </c>
+      <c r="I69" s="16">
+        <v>-1.9476689763822198E-2</v>
+      </c>
+      <c r="J69" s="16">
+        <v>-1.01426619066264E-3</v>
+      </c>
+      <c r="K69" s="16">
+        <v>5.2673394302693802E-3</v>
+      </c>
+      <c r="L69" s="16">
+        <v>-9.7383448819114704E-4</v>
+      </c>
+      <c r="M69" s="16">
+        <v>-2.5070873319166399E-3</v>
+      </c>
+      <c r="N69" s="16">
+        <v>0.67832974423395298</v>
+      </c>
+      <c r="O69" s="21">
+        <v>7.0375934668935098</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70">
+        <v>5972.6399961013694</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F70" s="17">
+        <v>1.21791439136323E-2</v>
+      </c>
+      <c r="G70" s="16">
+        <v>-5.4652767095880904E-3</v>
+      </c>
+      <c r="H70" s="16">
+        <v>-5.6402893073273397E-2</v>
+      </c>
+      <c r="I70" s="16">
+        <v>-3.04350031368021E-2</v>
+      </c>
+      <c r="J70" s="16">
+        <v>-1.5849302457806201E-3</v>
+      </c>
+      <c r="K70" s="16">
+        <v>8.2309413985032099E-3</v>
+      </c>
+      <c r="L70" s="16">
+        <v>-1.52175015684013E-3</v>
+      </c>
+      <c r="M70" s="16">
+        <v>-3.9006953846759101E-3</v>
+      </c>
+      <c r="N70" s="16">
+        <v>0.67972335228670699</v>
+      </c>
+      <c r="O70" s="21">
+        <v>10.997206498523999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71">
+        <v>2450.098450813101</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F71" s="17">
+        <v>4.9961326405908299E-3</v>
+      </c>
+      <c r="G71" s="16">
+        <v>-2.2419677074405802E-3</v>
+      </c>
+      <c r="H71" s="16">
+        <v>-2.31376143598815E-2</v>
+      </c>
+      <c r="I71" s="16">
+        <v>-1.24850575431707E-2</v>
+      </c>
+      <c r="J71" s="16">
+        <v>-6.5017063515783403E-4</v>
+      </c>
+      <c r="K71" s="16">
+        <v>3.3764996353991398E-3</v>
+      </c>
+      <c r="L71" s="16">
+        <v>-6.2425287715850799E-4</v>
+      </c>
+      <c r="M71" s="16">
+        <v>-1.6115813311003899E-3</v>
+      </c>
+      <c r="N71" s="16">
+        <v>0.67743423823315196</v>
+      </c>
+      <c r="O71" s="21">
+        <v>4.5112778642098501</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72">
+        <v>4536.1822744070996</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F72" s="17">
+        <v>9.2499827169449794E-3</v>
+      </c>
+      <c r="G72" s="16">
+        <v>-4.1508430695550297E-3</v>
+      </c>
+      <c r="H72" s="16">
+        <v>-4.2837640298305599E-2</v>
+      </c>
+      <c r="I72" s="16">
+        <v>-2.3115192250127901E-2</v>
+      </c>
+      <c r="J72" s="16">
+        <v>-1.2037444901709399E-3</v>
+      </c>
+      <c r="K72" s="16">
+        <v>6.2513478960636798E-3</v>
+      </c>
+      <c r="L72" s="16">
+        <v>-1.1557596125063301E-3</v>
+      </c>
+      <c r="M72" s="16">
+        <v>-2.9711517188327199E-3</v>
+      </c>
+      <c r="N72" s="16">
+        <v>0.67879380862086502</v>
+      </c>
+      <c r="O72" s="21">
+        <v>8.3523087310069108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73">
+        <v>1606695.2125056691</v>
+      </c>
+      <c r="D73" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="11" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v>Market Collapse</v>
+      </c>
+      <c r="F73" s="17">
+        <v>3.2763019755457701</v>
+      </c>
+      <c r="G73" s="16">
+        <v>-1.47020981174916</v>
+      </c>
+      <c r="H73" s="16">
+        <v>-15.1728981374154</v>
+      </c>
+      <c r="I73" s="16">
+        <v>-8.1872963822388307</v>
+      </c>
+      <c r="J73" s="16">
+        <v>-0.426360845407256</v>
+      </c>
+      <c r="K73" s="16">
+        <v>2.2141991059266899</v>
+      </c>
+      <c r="L73" s="16">
+        <v>-0.409364819111942</v>
+      </c>
+      <c r="M73" s="16">
+        <v>-0.24836947336571599</v>
+      </c>
+      <c r="N73" s="16">
+        <v>0.92419213026774105</v>
+      </c>
+      <c r="O73" s="21">
+        <v>2958.34991622601</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74">
+        <v>1405858.3109424603</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="11" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v>Market Collapse</v>
+      </c>
+      <c r="F74" s="17">
+        <v>2.8667642286025501</v>
+      </c>
+      <c r="G74" s="16">
+        <v>-1.28643358528051</v>
+      </c>
+      <c r="H74" s="16">
+        <v>-13.2762858702384</v>
+      </c>
+      <c r="I74" s="16">
+        <v>-7.16388433445898</v>
+      </c>
+      <c r="J74" s="16">
+        <v>-0.37306573973134899</v>
+      </c>
+      <c r="K74" s="16">
+        <v>1.93742421768586</v>
+      </c>
+      <c r="L74" s="16">
+        <v>-0.35819421672294899</v>
+      </c>
+      <c r="M74" s="16">
+        <v>-0.24034049038789099</v>
+      </c>
+      <c r="N74" s="16">
+        <v>0.91616314728991499</v>
+      </c>
+      <c r="O74" s="21">
+        <v>2588.5561766977598</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75">
+        <v>1068040.3431848581</v>
+      </c>
+      <c r="D75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" s="11" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F75" s="17">
+        <v>2.17790073630831</v>
+      </c>
+      <c r="G75" s="16">
+        <v>-0.97731254793838196</v>
+      </c>
+      <c r="H75" s="16">
+        <v>-10.0860867746793</v>
+      </c>
+      <c r="I75" s="16">
+        <v>-5.4424527874241502</v>
+      </c>
+      <c r="J75" s="16">
+        <v>-0.28342063890213098</v>
+      </c>
+      <c r="K75" s="16">
+        <v>1.4718746620807599</v>
+      </c>
+      <c r="L75" s="16">
+        <v>-0.27212263937120701</v>
+      </c>
+      <c r="M75" s="16">
+        <v>-0.22216744096536101</v>
+      </c>
+      <c r="N75" s="16">
+        <v>0.89799009786738504</v>
+      </c>
+      <c r="O75" s="21">
+        <v>1966.5441430297301</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76">
+        <v>901191.22496311564</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="11" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F76" s="17">
+        <v>1.83766937730933</v>
+      </c>
+      <c r="G76" s="16">
+        <v>-0.82463691364135405</v>
+      </c>
+      <c r="H76" s="16">
+        <v>-8.5104396604092596</v>
+      </c>
+      <c r="I76" s="16">
+        <v>-4.5922335477301104</v>
+      </c>
+      <c r="J76" s="16">
+        <v>-0.23914470495599299</v>
+      </c>
+      <c r="K76" s="16">
+        <v>1.2419386010806801</v>
+      </c>
+      <c r="L76" s="16">
+        <v>-0.22961167738650601</v>
+      </c>
+      <c r="M76" s="16">
+        <v>-0.20993664060804701</v>
+      </c>
+      <c r="N76" s="16">
+        <v>0.88575929751007099</v>
+      </c>
+      <c r="O76" s="21">
+        <v>1659.33088249857</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77">
+        <v>1864178.4196379881</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="11" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v>Market Collapse</v>
+      </c>
+      <c r="F77" s="17">
+        <v>3.8013503690627202</v>
+      </c>
+      <c r="G77" s="16">
+        <v>-1.7058203585038301</v>
+      </c>
+      <c r="H77" s="16">
+        <v>-17.604452326103701</v>
+      </c>
+      <c r="I77" s="16">
+        <v>-9.4993631101617204</v>
+      </c>
+      <c r="J77" s="16">
+        <v>-0.49468790396611101</v>
+      </c>
+      <c r="K77" s="16">
+        <v>2.5690387062354598</v>
+      </c>
+      <c r="L77" s="16">
+        <v>-0.47496815550808602</v>
+      </c>
+      <c r="M77" s="16">
+        <v>-0.25665939123451698</v>
+      </c>
+      <c r="N77" s="16">
+        <v>0.93248204813654201</v>
+      </c>
+      <c r="O77" s="21">
+        <v>3432.4444540827499</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78">
+        <v>1789322.1461500002</v>
+      </c>
+      <c r="D78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="11" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v>Market Collapse</v>
+      </c>
+      <c r="F78" s="17">
+        <v>3.6487067594958398</v>
+      </c>
+      <c r="G78" s="16">
+        <v>-1.6373229690198701</v>
+      </c>
+      <c r="H78" s="16">
+        <v>-16.897543757671201</v>
+      </c>
+      <c r="I78" s="16">
+        <v>-9.1179152211372099</v>
+      </c>
+      <c r="J78" s="16">
+        <v>-0.47482366101576201</v>
+      </c>
+      <c r="K78" s="16">
+        <v>2.4658786964588502</v>
+      </c>
+      <c r="L78" s="16">
+        <v>-0.45589576105686003</v>
+      </c>
+      <c r="M78" s="16">
+        <v>-0.25444239102000599</v>
+      </c>
+      <c r="N78" s="16">
+        <v>0.93026504792203102</v>
+      </c>
+      <c r="O78" s="21">
+        <v>3294.6142989428599</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79">
+        <v>1602880.4750000001</v>
+      </c>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="11" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v>Market Collapse</v>
+      </c>
+      <c r="F79" s="17">
+        <v>3.2685231311646201</v>
+      </c>
+      <c r="G79" s="16">
+        <v>-1.46671912822286</v>
+      </c>
+      <c r="H79" s="16">
+        <v>-15.136873493074599</v>
+      </c>
+      <c r="I79" s="16">
+        <v>-8.1678574828531492</v>
+      </c>
+      <c r="J79" s="16">
+        <v>-0.425348547184628</v>
+      </c>
+      <c r="K79" s="16">
+        <v>2.2089419866493998</v>
+      </c>
+      <c r="L79" s="16">
+        <v>-0.40839287414265801</v>
+      </c>
+      <c r="M79" s="16">
+        <v>-0.24823132309608201</v>
+      </c>
+      <c r="N79" s="16">
+        <v>0.92405397999810601</v>
+      </c>
+      <c r="O79" s="21">
+        <v>2951.3259777139201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80">
+        <v>924809.875</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" t="str">
+        <f>IF(Table3689[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F80" s="17">
+        <v>1.8858314861979699</v>
+      </c>
+      <c r="G80" s="16">
+        <v>-0.84624920871401099</v>
+      </c>
+      <c r="H80" s="16">
+        <v>-8.7334834389452194</v>
+      </c>
+      <c r="I80" s="16">
+        <v>-4.7125879786733504</v>
+      </c>
+      <c r="J80" s="16">
+        <v>-0.24541227052706299</v>
+      </c>
+      <c r="K80" s="16">
+        <v>1.2744876454718099</v>
+      </c>
+      <c r="L80" s="16">
+        <v>-0.23562939893366799</v>
+      </c>
+      <c r="M80" s="16">
+        <v>-0.211843222187446</v>
+      </c>
+      <c r="N80" s="16">
+        <v>0.88766587908947103</v>
+      </c>
+      <c r="O80" s="21">
+        <v>1702.81905051832</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="22"/>
+    </row>
+    <row r="84" spans="1:15" ht="38.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J84" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K84" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L84" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M84" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N84" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="O84" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="5">
+        <v>78.279968349613</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F86" s="17">
+        <v>1.5962505704459601E-4</v>
+      </c>
+      <c r="G86" s="16">
+        <v>4.5178554871425899E-5</v>
+      </c>
+      <c r="H86" s="16">
+        <v>-3.35437703286668E-4</v>
+      </c>
+      <c r="I86" s="16">
+        <v>8.9661201224555703E-5</v>
+      </c>
+      <c r="J86" s="16">
+        <v>1.31017809127045E-5</v>
+      </c>
+      <c r="K86" s="16">
+        <v>1.36144417814546E-4</v>
+      </c>
+      <c r="L86" s="16">
+        <v>4.4830600612640398E-6</v>
+      </c>
+      <c r="M86" s="16">
+        <v>-2.34768917298672E-5</v>
+      </c>
+      <c r="N86" s="16">
+        <v>0.852924771558214</v>
+      </c>
+      <c r="O86" s="21">
+        <v>0.31764387935198601</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" s="5">
+        <v>71.425238501169304</v>
+      </c>
+      <c r="D87" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F87" s="17">
+        <v>1.45647194429779E-4</v>
+      </c>
+      <c r="G87" s="16">
+        <v>4.1222411363535398E-5</v>
+      </c>
+      <c r="H87" s="16">
+        <v>-3.06064481943364E-4</v>
+      </c>
+      <c r="I87" s="16">
+        <v>8.1809852721938703E-5</v>
+      </c>
+      <c r="J87" s="16">
+        <v>1.19544992954171E-5</v>
+      </c>
+      <c r="K87" s="16">
+        <v>1.2422268069376601E-4</v>
+      </c>
+      <c r="L87" s="16">
+        <v>4.0904926361083999E-6</v>
+      </c>
+      <c r="M87" s="16">
+        <v>-2.1421393770099501E-5</v>
+      </c>
+      <c r="N87" s="16">
+        <v>0.85292271606077896</v>
+      </c>
+      <c r="O87" s="21">
+        <v>0.28982880703005698</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" s="5">
+        <v>54.2622507724803</v>
+      </c>
+      <c r="D88" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F88" s="17">
+        <v>1.10649187238311E-4</v>
+      </c>
+      <c r="G88" s="16">
+        <v>3.13169527998504E-5</v>
+      </c>
+      <c r="H88" s="16">
+        <v>-2.3251931698540601E-4</v>
+      </c>
+      <c r="I88" s="16">
+        <v>6.2151514467738506E-5</v>
+      </c>
+      <c r="J88" s="16">
+        <v>9.0819163118632594E-6</v>
+      </c>
+      <c r="K88" s="16">
+        <v>9.4372835049335896E-5</v>
+      </c>
+      <c r="L88" s="16">
+        <v>3.1075757234191901E-6</v>
+      </c>
+      <c r="M88" s="16">
+        <v>-1.6274551423132901E-5</v>
+      </c>
+      <c r="N88" s="16">
+        <v>0.85291756921737205</v>
+      </c>
+      <c r="O88" s="21">
+        <v>0.22018496176118299</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="5">
+        <v>45.7854092798406</v>
+      </c>
+      <c r="D89" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F89" s="17">
+        <v>9.3363586140756002E-5</v>
+      </c>
+      <c r="G89" s="16">
+        <v>2.64246226599656E-5</v>
+      </c>
+      <c r="H89" s="16">
+        <v>-1.9619518066640599E-4</v>
+      </c>
+      <c r="I89" s="16">
+        <v>5.2442213265215197E-5</v>
+      </c>
+      <c r="J89" s="16">
+        <v>7.6631405713449299E-6</v>
+      </c>
+      <c r="K89" s="16">
+        <v>7.9629923494157806E-5</v>
+      </c>
+      <c r="L89" s="16">
+        <v>2.6221106632232699E-6</v>
+      </c>
+      <c r="M89" s="16">
+        <v>-1.37323805423566E-5</v>
+      </c>
+      <c r="N89" s="16">
+        <v>0.85291502704648203</v>
+      </c>
+      <c r="O89" s="21">
+        <v>0.18578769674962101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" s="5">
+        <v>94.710389505675494</v>
+      </c>
+      <c r="D90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F90" s="17">
+        <v>1.93129246808569E-4</v>
+      </c>
+      <c r="G90" s="16">
+        <v>5.46612194587027E-5</v>
+      </c>
+      <c r="H90" s="16">
+        <v>-4.0584374525128898E-4</v>
+      </c>
+      <c r="I90" s="16">
+        <v>1.0848046403911E-4</v>
+      </c>
+      <c r="J90" s="16">
+        <v>1.58517536429344E-5</v>
+      </c>
+      <c r="K90" s="16">
+        <v>1.6472018464096401E-4</v>
+      </c>
+      <c r="L90" s="16">
+        <v>5.4240232019042999E-6</v>
+      </c>
+      <c r="M90" s="16">
+        <v>-2.84035766062255E-5</v>
+      </c>
+      <c r="N90" s="16">
+        <v>0.85292969824306697</v>
+      </c>
+      <c r="O90" s="21">
+        <v>0.38431512137494001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" s="5">
+        <v>347.463431650475</v>
+      </c>
+      <c r="D91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E91" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F91" s="17">
+        <v>7.0853209662025205E-4</v>
+      </c>
+      <c r="G91" s="16">
+        <v>2.00535284359459E-4</v>
+      </c>
+      <c r="H91" s="16">
+        <v>-1.48891648714432E-3</v>
+      </c>
+      <c r="I91" s="16">
+        <v>3.9798162058860502E-4</v>
+      </c>
+      <c r="J91" s="16">
+        <v>5.8155232464158798E-5</v>
+      </c>
+      <c r="K91" s="16">
+        <v>6.0430794252014505E-4</v>
+      </c>
+      <c r="L91" s="16">
+        <v>1.98990810294342E-5</v>
+      </c>
+      <c r="M91" s="16">
+        <v>-1.04150360227025E-4</v>
+      </c>
+      <c r="N91" s="16">
+        <v>0.85300544502665498</v>
+      </c>
+      <c r="O91" s="21">
+        <v>1.40993455528162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" s="5">
+        <v>301.51785396969899</v>
+      </c>
+      <c r="D92" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F92" s="17">
+        <v>6.1484190214437405E-4</v>
+      </c>
+      <c r="G92" s="16">
+        <v>1.7401822199839499E-4</v>
+      </c>
+      <c r="H92" s="16">
+        <v>-1.29203496843251E-3</v>
+      </c>
+      <c r="I92" s="16">
+        <v>3.4535595181700302E-4</v>
+      </c>
+      <c r="J92" s="16">
+        <v>5.04652843795345E-5</v>
+      </c>
+      <c r="K92" s="16">
+        <v>5.2439945435410896E-4</v>
+      </c>
+      <c r="L92" s="16">
+        <v>1.7267797590866101E-5</v>
+      </c>
+      <c r="M92" s="16">
+        <v>-9.0386874152650898E-5</v>
+      </c>
+      <c r="N92" s="16">
+        <v>0.85299168154055505</v>
+      </c>
+      <c r="O92" s="21">
+        <v>1.22349692837289</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="5">
+        <v>229.06521214312818</v>
+      </c>
+      <c r="D93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F93" s="17">
+        <v>4.6709967219168101E-4</v>
+      </c>
+      <c r="G93" s="16">
+        <v>1.32202854371726E-4</v>
+      </c>
+      <c r="H93" s="16">
+        <v>-9.8156795773077904E-4</v>
+      </c>
+      <c r="I93" s="16">
+        <v>2.62369320178926E-4</v>
+      </c>
+      <c r="J93" s="16">
+        <v>3.8338827767769502E-5</v>
+      </c>
+      <c r="K93" s="16">
+        <v>3.9838991515054798E-4</v>
+      </c>
+      <c r="L93" s="16">
+        <v>1.31184660089111E-5</v>
+      </c>
+      <c r="M93" s="16">
+        <v>-6.8677677720365403E-5</v>
+      </c>
+      <c r="N93" s="16">
+        <v>0.85296997234418404</v>
+      </c>
+      <c r="O93" s="21">
+        <v>0.92949913169074805</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="5">
+        <v>193.28067562836512</v>
+      </c>
+      <c r="D94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F94" s="17">
+        <v>3.94129424465313E-4</v>
+      </c>
+      <c r="G94" s="16">
+        <v>1.1155014231072E-4</v>
+      </c>
+      <c r="H94" s="16">
+        <v>-8.2822754389566295E-4</v>
+      </c>
+      <c r="I94" s="16">
+        <v>2.21382020403146E-4</v>
+      </c>
+      <c r="J94" s="16">
+        <v>3.2349541270067197E-5</v>
+      </c>
+      <c r="K94" s="16">
+        <v>3.3615349639256898E-4</v>
+      </c>
+      <c r="L94" s="16">
+        <v>1.10691010202026E-5</v>
+      </c>
+      <c r="M94" s="16">
+        <v>-5.7953087055843903E-5</v>
+      </c>
+      <c r="N94" s="16">
+        <v>0.85295924775354004</v>
+      </c>
+      <c r="O94" s="21">
+        <v>0.78429290283022302</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" s="5">
+        <v>399.81488344685596</v>
+      </c>
+      <c r="D95" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F95" s="17">
+        <v>8.1528486690808102E-4</v>
+      </c>
+      <c r="G95" s="16">
+        <v>2.3074943732148199E-4</v>
+      </c>
+      <c r="H95" s="16">
+        <v>-1.7132478342879801E-3</v>
+      </c>
+      <c r="I95" s="16">
+        <v>4.5794452237404902E-4</v>
+      </c>
+      <c r="J95" s="16">
+        <v>6.6917336823202694E-5</v>
+      </c>
+      <c r="K95" s="16">
+        <v>6.9535751850796504E-4</v>
+      </c>
+      <c r="L95" s="16">
+        <v>2.2897226118698101E-5</v>
+      </c>
+      <c r="M95" s="16">
+        <v>-1.19829653097316E-4</v>
+      </c>
+      <c r="N95" s="16">
+        <v>0.85302112431969601</v>
+      </c>
+      <c r="O95" s="21">
+        <v>1.6223658910229299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="E96" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F96" s="17"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="21"/>
+    </row>
+    <row r="97" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="5">
+        <v>13979.558874595172</v>
+      </c>
+      <c r="D97" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F97" s="17">
+        <v>2.8506499553618898E-2</v>
+      </c>
+      <c r="G97" s="16">
+        <v>8.0681722413746895E-3</v>
+      </c>
+      <c r="H97" s="16">
+        <v>-5.9903845398948802E-2</v>
+      </c>
+      <c r="I97" s="16">
+        <v>1.60120662758606E-2</v>
+      </c>
+      <c r="J97" s="16">
+        <v>2.3397699499986199E-3</v>
+      </c>
+      <c r="K97" s="16">
+        <v>2.43132303756925E-2</v>
+      </c>
+      <c r="L97" s="16">
+        <v>8.0060331379302996E-4</v>
+      </c>
+      <c r="M97" s="16">
+        <v>-4.0770468438909102E-3</v>
+      </c>
+      <c r="N97" s="16">
+        <v>0.85697834151042496</v>
+      </c>
+      <c r="O97" s="21">
+        <v>56.726151098161701</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98" s="5">
+        <v>12880.894356686529</v>
+      </c>
+      <c r="D98" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F98" s="17">
+        <v>2.6266151351627E-2</v>
+      </c>
+      <c r="G98" s="16">
+        <v>7.4340882444837502E-3</v>
+      </c>
+      <c r="H98" s="16">
+        <v>-5.5195955113102803E-2</v>
+      </c>
+      <c r="I98" s="16">
+        <v>1.4753665404023401E-2</v>
+      </c>
+      <c r="J98" s="16">
+        <v>2.1558855909002E-3</v>
+      </c>
+      <c r="K98" s="16">
+        <v>2.2402434493709801E-2</v>
+      </c>
+      <c r="L98" s="16">
+        <v>7.3768327020118699E-4</v>
+      </c>
+      <c r="M98" s="16">
+        <v>-3.7648292821784398E-3</v>
+      </c>
+      <c r="N98" s="16">
+        <v>0.856666123948713</v>
+      </c>
+      <c r="O98" s="21">
+        <v>52.267998304633103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" s="5">
+        <v>12928.250585906731</v>
+      </c>
+      <c r="D99" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F99" s="17">
+        <v>2.63627180844715E-2</v>
+      </c>
+      <c r="G99" s="16">
+        <v>7.4614194512463297E-3</v>
+      </c>
+      <c r="H99" s="16">
+        <v>-5.5398881418528001E-2</v>
+      </c>
+      <c r="I99" s="16">
+        <v>1.4807906820913E-2</v>
+      </c>
+      <c r="J99" s="16">
+        <v>2.16381164086134E-3</v>
+      </c>
+      <c r="K99" s="16">
+        <v>2.2484796385174501E-2</v>
+      </c>
+      <c r="L99" s="16">
+        <v>7.4039534104560802E-4</v>
+      </c>
+      <c r="M99" s="16">
+        <v>-3.7783150449330598E-3</v>
+      </c>
+      <c r="N99" s="16">
+        <v>0.85667960971146595</v>
+      </c>
+      <c r="O99" s="21">
+        <v>52.460160062975199</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C100" s="5">
+        <v>20202.167397060159</v>
+      </c>
+      <c r="D100" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F100" s="17">
+        <v>4.1195368255359702E-2</v>
+      </c>
+      <c r="G100" s="16">
+        <v>1.16594928116631E-2</v>
+      </c>
+      <c r="H100" s="16">
+        <v>-8.6568361944268798E-2</v>
+      </c>
+      <c r="I100" s="16">
+        <v>2.3139388458502001E-2</v>
+      </c>
+      <c r="J100" s="16">
+        <v>3.3812529153822899E-3</v>
+      </c>
+      <c r="K100" s="16">
+        <v>3.5135582919260902E-2</v>
+      </c>
+      <c r="L100" s="16">
+        <v>1.15696942292511E-3</v>
+      </c>
+      <c r="M100" s="16">
+        <v>-5.8200271734330303E-3</v>
+      </c>
+      <c r="N100" s="16">
+        <v>0.85872132183996697</v>
+      </c>
+      <c r="O100" s="21">
+        <v>81.976206156160998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" s="5">
+        <v>8287.3401193964201</v>
+      </c>
+      <c r="D101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F101" s="17">
+        <v>1.6899178259736299E-2</v>
+      </c>
+      <c r="G101" s="16">
+        <v>4.7829611868265001E-3</v>
+      </c>
+      <c r="H101" s="16">
+        <v>-3.5512103474381003E-2</v>
+      </c>
+      <c r="I101" s="16">
+        <v>9.4922479623819108E-3</v>
+      </c>
+      <c r="J101" s="16">
+        <v>1.3870587441796899E-3</v>
+      </c>
+      <c r="K101" s="16">
+        <v>1.44133310165295E-2</v>
+      </c>
+      <c r="L101" s="16">
+        <v>4.7461239811904897E-4</v>
+      </c>
+      <c r="M101" s="16">
+        <v>-2.4445365837160301E-3</v>
+      </c>
+      <c r="N101" s="16">
+        <v>0.85534583125024799</v>
+      </c>
+      <c r="O101" s="21">
+        <v>33.628307733591001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" t="s">
+        <v>32</v>
+      </c>
+      <c r="C102" s="5">
+        <v>15343.41827613693</v>
+      </c>
+      <c r="D102" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F102" s="17">
+        <v>3.1287621459539998E-2</v>
+      </c>
+      <c r="G102" s="16">
+        <v>8.8553109961356305E-3</v>
+      </c>
+      <c r="H102" s="16">
+        <v>-6.57481229951698E-2</v>
+      </c>
+      <c r="I102" s="16">
+        <v>1.7574219082279099E-2</v>
+      </c>
+      <c r="J102" s="16">
+        <v>2.5680401888793099E-3</v>
+      </c>
+      <c r="K102" s="16">
+        <v>2.6685252849878102E-2</v>
+      </c>
+      <c r="L102" s="16">
+        <v>8.7871095411399798E-4</v>
+      </c>
+      <c r="M102" s="16">
+        <v>-4.4627400871430096E-3</v>
+      </c>
+      <c r="N102" s="16">
+        <v>0.85736403475367795</v>
+      </c>
+      <c r="O102" s="21">
+        <v>62.260409738404199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" s="5">
+        <v>860.28054599366999</v>
+      </c>
+      <c r="D103" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F103" s="17">
+        <v>1.75424612610073E-3</v>
+      </c>
+      <c r="G103" s="16">
+        <v>4.9650290708337999E-4</v>
+      </c>
+      <c r="H103" s="16">
+        <v>-3.68639048550904E-3</v>
+      </c>
+      <c r="I103" s="16">
+        <v>9.8535792451344005E-4</v>
+      </c>
+      <c r="J103" s="16">
+        <v>1.43985843054161E-4</v>
+      </c>
+      <c r="K103" s="16">
+        <v>1.49619879211506E-3</v>
+      </c>
+      <c r="L103" s="16">
+        <v>4.9267896225738501E-5</v>
+      </c>
+      <c r="M103" s="16">
+        <v>-2.5759544816857598E-4</v>
+      </c>
+      <c r="N103" s="16">
+        <v>0.85315889011472501</v>
+      </c>
+      <c r="O103" s="21">
+        <v>3.4908400670294402</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104">
+        <v>3762.1112153559802</v>
+      </c>
+      <c r="D104" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F104" s="17">
+        <v>7.6715311722821197E-3</v>
+      </c>
+      <c r="G104" s="16">
+        <v>2.17126745907993E-3</v>
+      </c>
+      <c r="H104" s="16">
+        <v>-1.6121032905258299E-2</v>
+      </c>
+      <c r="I104" s="16">
+        <v>4.3090897686986597E-3</v>
+      </c>
+      <c r="J104" s="16">
+        <v>6.2966756313318102E-4</v>
+      </c>
+      <c r="K104" s="16">
+        <v>6.5430588689140302E-3</v>
+      </c>
+      <c r="L104" s="16">
+        <v>2.1545448843490601E-4</v>
+      </c>
+      <c r="M104" s="16">
+        <v>-1.11988110059562E-3</v>
+      </c>
+      <c r="N104" s="16">
+        <v>0.854021175767121</v>
+      </c>
+      <c r="O104" s="21">
+        <v>15.2658671968678</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105">
+        <v>3466.4439374662097</v>
+      </c>
+      <c r="D105" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F105" s="17">
+        <v>7.0686195067000699E-3</v>
+      </c>
+      <c r="G105" s="16">
+        <v>2.0006258425917002E-3</v>
+      </c>
+      <c r="H105" s="16">
+        <v>-1.48540682561497E-2</v>
+      </c>
+      <c r="I105" s="16">
+        <v>3.9704350163102999E-3</v>
+      </c>
+      <c r="J105" s="16">
+        <v>5.8018149435155105E-4</v>
+      </c>
+      <c r="K105" s="16">
+        <v>6.0288347287695198E-3</v>
+      </c>
+      <c r="L105" s="16">
+        <v>1.9852175081550599E-4</v>
+      </c>
+      <c r="M105" s="16">
+        <v>-1.03248652354974E-3</v>
+      </c>
+      <c r="N105" s="16">
+        <v>0.85393378119007701</v>
+      </c>
+      <c r="O105" s="21">
+        <v>14.0661106930458</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B106" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106">
+        <v>9038.6271912206303</v>
+      </c>
+      <c r="D106" t="s">
+        <v>25</v>
+      </c>
+      <c r="E106" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F106" s="17">
+        <v>1.84311697030798E-2</v>
+      </c>
+      <c r="G106" s="16">
+        <v>5.2165595251268499E-3</v>
+      </c>
+      <c r="H106" s="16">
+        <v>-3.8731445730064297E-2</v>
+      </c>
+      <c r="I106" s="16">
+        <v>1.03527657007568E-2</v>
+      </c>
+      <c r="J106" s="16">
+        <v>1.5128022622867799E-3</v>
+      </c>
+      <c r="K106" s="16">
+        <v>1.5719968501975299E-2</v>
+      </c>
+      <c r="L106" s="16">
+        <v>5.1763828503784202E-4</v>
+      </c>
+      <c r="M106" s="16">
+        <v>-2.6621349402483098E-3</v>
+      </c>
+      <c r="N106" s="16">
+        <v>0.855563429606778</v>
+      </c>
+      <c r="O106" s="21">
+        <v>36.676874883434998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B107" t="s">
+        <v>30</v>
+      </c>
+      <c r="C107">
+        <v>8328.2743775763392</v>
+      </c>
+      <c r="D107" t="s">
+        <v>25</v>
+      </c>
+      <c r="E107" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F107" s="17">
+        <v>1.6982649592630399E-2</v>
+      </c>
+      <c r="G107" s="16">
+        <v>4.8065860127977696E-3</v>
+      </c>
+      <c r="H107" s="16">
+        <v>-3.56875109743977E-2</v>
+      </c>
+      <c r="I107" s="16">
+        <v>9.5391337089787594E-3</v>
+      </c>
+      <c r="J107" s="16">
+        <v>1.39390994371134E-3</v>
+      </c>
+      <c r="K107" s="16">
+        <v>1.4484523824422601E-2</v>
+      </c>
+      <c r="L107" s="16">
+        <v>4.7695668544899E-4</v>
+      </c>
+      <c r="M107" s="16">
+        <v>-2.4564094276421601E-3</v>
+      </c>
+      <c r="N107" s="16">
+        <v>0.855357704094176</v>
+      </c>
+      <c r="O107" s="21">
+        <v>33.794410465117998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108">
+        <v>3360.1350171024301</v>
+      </c>
+      <c r="D108" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F108" s="17">
+        <v>6.8518390475968104E-3</v>
+      </c>
+      <c r="G108" s="16">
+        <v>1.9392706390417101E-3</v>
+      </c>
+      <c r="H108" s="16">
+        <v>-1.4398523615068199E-2</v>
+      </c>
+      <c r="I108" s="16">
+        <v>3.84866969496857E-3</v>
+      </c>
+      <c r="J108" s="16">
+        <v>5.6238848532205602E-4</v>
+      </c>
+      <c r="K108" s="16">
+        <v>5.8439423945420002E-3</v>
+      </c>
+      <c r="L108" s="16">
+        <v>1.92433484748459E-4</v>
+      </c>
+      <c r="M108" s="16">
+        <v>-1.00103770382757E-3</v>
+      </c>
+      <c r="N108" s="16">
+        <v>0.85390233237036295</v>
+      </c>
+      <c r="O108" s="21">
+        <v>13.634731138531</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109">
+        <v>3808.15302114118</v>
+      </c>
+      <c r="D109" t="s">
+        <v>25</v>
+      </c>
+      <c r="E109" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F109" s="17">
+        <v>7.7654175908620903E-3</v>
+      </c>
+      <c r="G109" s="16">
+        <v>2.1978400585955398E-3</v>
+      </c>
+      <c r="H109" s="16">
+        <v>-1.6318326771279201E-2</v>
+      </c>
+      <c r="I109" s="16">
+        <v>4.3618256563117902E-3</v>
+      </c>
+      <c r="J109" s="16">
+        <v>6.3737361699266204E-4</v>
+      </c>
+      <c r="K109" s="16">
+        <v>6.6231347168726204E-3</v>
+      </c>
+      <c r="L109" s="16">
+        <v>2.18091282815628E-4</v>
+      </c>
+      <c r="M109" s="16">
+        <v>-1.1334809213042799E-3</v>
+      </c>
+      <c r="N109" s="16">
+        <v>0.85403477558784502</v>
+      </c>
+      <c r="O109" s="21">
+        <v>15.4526952974705</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110">
+        <v>3822.1535825767901</v>
+      </c>
+      <c r="D110" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F110" s="17">
+        <v>7.7939669179113097E-3</v>
+      </c>
+      <c r="G110" s="16">
+        <v>2.2059203522694702E-3</v>
+      </c>
+      <c r="H110" s="16">
+        <v>-1.6378320614808799E-2</v>
+      </c>
+      <c r="I110" s="16">
+        <v>4.3778617787401299E-3</v>
+      </c>
+      <c r="J110" s="16">
+        <v>6.3971690215813099E-4</v>
+      </c>
+      <c r="K110" s="16">
+        <v>6.6474844748746799E-3</v>
+      </c>
+      <c r="L110" s="16">
+        <v>2.1889308893707299E-4</v>
+      </c>
+      <c r="M110" s="16">
+        <v>-1.13761590232857E-3</v>
+      </c>
+      <c r="N110" s="16">
+        <v>0.85403891056886305</v>
+      </c>
+      <c r="O110" s="21">
+        <v>15.5095066726063</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111">
+        <v>5972.6399961013694</v>
+      </c>
+      <c r="D111" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F111" s="17">
+        <v>1.21791439136323E-2</v>
+      </c>
+      <c r="G111" s="16">
+        <v>3.4470535627445899E-3</v>
+      </c>
+      <c r="H111" s="16">
+        <v>-2.5593375739504699E-2</v>
+      </c>
+      <c r="I111" s="16">
+        <v>6.8410103864740401E-3</v>
+      </c>
+      <c r="J111" s="16">
+        <v>9.9964553319588693E-4</v>
+      </c>
+      <c r="K111" s="16">
+        <v>1.0387607611867E-2</v>
+      </c>
+      <c r="L111" s="16">
+        <v>3.4205051932365401E-4</v>
+      </c>
+      <c r="M111" s="16">
+        <v>-1.7699794671111599E-3</v>
+      </c>
+      <c r="N111" s="16">
+        <v>0.85467127413364397</v>
+      </c>
+      <c r="O111" s="21">
+        <v>24.2357346117318</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B112" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112">
+        <v>2450.098450813101</v>
+      </c>
+      <c r="D112" t="s">
+        <v>25</v>
+      </c>
+      <c r="E112" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F112" s="17">
+        <v>4.9961326405908299E-3</v>
+      </c>
+      <c r="G112" s="16">
+        <v>1.41405150812104E-3</v>
+      </c>
+      <c r="H112" s="16">
+        <v>-1.0498923472931699E-2</v>
+      </c>
+      <c r="I112" s="16">
+        <v>2.80632165354632E-3</v>
+      </c>
+      <c r="J112" s="16">
+        <v>4.1007493735501399E-4</v>
+      </c>
+      <c r="K112" s="16">
+        <v>4.2612079974855997E-3</v>
+      </c>
+      <c r="L112" s="16">
+        <v>1.4031608267730701E-4</v>
+      </c>
+      <c r="M112" s="16">
+        <v>-7.3127111561536605E-4</v>
+      </c>
+      <c r="N112" s="16">
+        <v>0.85363256578214297</v>
+      </c>
+      <c r="O112" s="21">
+        <v>9.9419914585975295</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" t="s">
+        <v>33</v>
+      </c>
+      <c r="C113">
+        <v>4536.1822744070996</v>
+      </c>
+      <c r="D113" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F113" s="17">
+        <v>9.2499827169449794E-3</v>
+      </c>
+      <c r="G113" s="16">
+        <v>2.61801536346751E-3</v>
+      </c>
+      <c r="H113" s="16">
+        <v>-1.94380068859932E-2</v>
+      </c>
+      <c r="I113" s="16">
+        <v>5.1957040897181702E-3</v>
+      </c>
+      <c r="J113" s="16">
+        <v>7.59224455405543E-4</v>
+      </c>
+      <c r="K113" s="16">
+        <v>7.8893222349254999E-3</v>
+      </c>
+      <c r="L113" s="16">
+        <v>2.5978520448585501E-4</v>
+      </c>
+      <c r="M113" s="16">
+        <v>-1.34818975013165E-3</v>
+      </c>
+      <c r="N113" s="16">
+        <v>0.85424948441666704</v>
+      </c>
+      <c r="O113" s="21">
+        <v>18.406887042368801</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114">
+        <v>1606695.2125056691</v>
+      </c>
+      <c r="D114" t="s">
+        <v>25</v>
+      </c>
+      <c r="E114" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F114" s="17">
+        <v>3.2763019755457701</v>
+      </c>
+      <c r="G114" s="16">
+        <v>0.92728918202456301</v>
+      </c>
+      <c r="H114" s="16">
+        <v>-6.8848539840608201</v>
+      </c>
+      <c r="I114" s="16">
+        <v>1.84029485182834</v>
+      </c>
+      <c r="J114" s="16">
+        <v>0.26891386278712298</v>
+      </c>
+      <c r="K114" s="16">
+        <v>2.7943621966615102</v>
+      </c>
+      <c r="L114" s="16">
+        <v>9.2014742591416898E-2</v>
+      </c>
+      <c r="M114" s="16">
+        <v>-0.11270012773659401</v>
+      </c>
+      <c r="N114" s="16">
+        <v>0.96560142240312896</v>
+      </c>
+      <c r="O114" s="21">
+        <v>6519.6360064637902</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115">
+        <v>1405858.3109424603</v>
+      </c>
+      <c r="D115" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F115" s="17">
+        <v>2.8667642286025501</v>
+      </c>
+      <c r="G115" s="16">
+        <v>0.81137803427149202</v>
+      </c>
+      <c r="H115" s="16">
+        <v>-6.0242472360532204</v>
+      </c>
+      <c r="I115" s="16">
+        <v>1.6102579953498</v>
+      </c>
+      <c r="J115" s="16">
+        <v>0.23529962993873299</v>
+      </c>
+      <c r="K115" s="16">
+        <v>2.4450669220788201</v>
+      </c>
+      <c r="L115" s="16">
+        <v>8.0512899767489904E-2</v>
+      </c>
+      <c r="M115" s="16">
+        <v>-0.109056896565976</v>
+      </c>
+      <c r="N115" s="16">
+        <v>0.96195819123251103</v>
+      </c>
+      <c r="O115" s="21">
+        <v>5704.6815056558098</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116">
+        <v>1068040.3431848581</v>
+      </c>
+      <c r="D116" t="s">
+        <v>25</v>
+      </c>
+      <c r="E116" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F116" s="17">
+        <v>2.17790073630831</v>
+      </c>
+      <c r="G116" s="16">
+        <v>0.61640953958940503</v>
+      </c>
+      <c r="H116" s="16">
+        <v>-4.5766625522250504</v>
+      </c>
+      <c r="I116" s="16">
+        <v>1.2233242059910201</v>
+      </c>
+      <c r="J116" s="16">
+        <v>0.17875876648092701</v>
+      </c>
+      <c r="K116" s="16">
+        <v>1.85753435765256</v>
+      </c>
+      <c r="L116" s="16">
+        <v>6.1166210299550897E-2</v>
+      </c>
+      <c r="M116" s="16">
+        <v>-0.10081069398911301</v>
+      </c>
+      <c r="N116" s="16">
+        <v>0.95371198865564699</v>
+      </c>
+      <c r="O116" s="21">
+        <v>4333.8862427582999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117">
+        <v>901191.22496311564</v>
+      </c>
+      <c r="D117" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F117" s="17">
+        <v>1.83766937730933</v>
+      </c>
+      <c r="G117" s="16">
+        <v>0.52011412453300798</v>
+      </c>
+      <c r="H117" s="16">
+        <v>-3.8616969461879598</v>
+      </c>
+      <c r="I117" s="16">
+        <v>1.0322166636857699</v>
+      </c>
+      <c r="J117" s="16">
+        <v>0.15083309611457199</v>
+      </c>
+      <c r="K117" s="16">
+        <v>1.56735059107617</v>
+      </c>
+      <c r="L117" s="16">
+        <v>5.1610833184288302E-2</v>
+      </c>
+      <c r="M117" s="16">
+        <v>-9.5260846240471195E-2</v>
+      </c>
+      <c r="N117" s="16">
+        <v>0.94816214090700601</v>
+      </c>
+      <c r="O117" s="21">
+        <v>3656.84711901013</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118">
+        <v>1864178.4196379881</v>
+      </c>
+      <c r="D118" t="s">
+        <v>25</v>
+      </c>
+      <c r="E118" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F118" s="17">
+        <v>3.8013503690627202</v>
+      </c>
+      <c r="G118" s="16">
+        <v>1.0758932176054199</v>
+      </c>
+      <c r="H118" s="16">
+        <v>-7.98819596868596</v>
+      </c>
+      <c r="I118" s="16">
+        <v>2.1352138985956999</v>
+      </c>
+      <c r="J118" s="16">
+        <v>0.31200903310557199</v>
+      </c>
+      <c r="K118" s="16">
+        <v>3.2421766512547001</v>
+      </c>
+      <c r="L118" s="16">
+        <v>0.106760694929785</v>
+      </c>
+      <c r="M118" s="16">
+        <v>-0.116461760718615</v>
+      </c>
+      <c r="N118" s="16">
+        <v>0.96936305538515</v>
+      </c>
+      <c r="O118" s="21">
+        <v>7564.4494690381098</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B119" t="s">
+        <v>34</v>
+      </c>
+      <c r="C119">
+        <v>1789322.1461500002</v>
+      </c>
+      <c r="D119" t="s">
+        <v>25</v>
+      </c>
+      <c r="E119" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F119" s="17">
+        <v>3.6487067594958398</v>
+      </c>
+      <c r="G119" s="16">
+        <v>1.0326906163455201</v>
+      </c>
+      <c r="H119" s="16">
+        <v>-7.6674291494757396</v>
+      </c>
+      <c r="I119" s="16">
+        <v>2.0494741679642998</v>
+      </c>
+      <c r="J119" s="16">
+        <v>0.299480278740199</v>
+      </c>
+      <c r="K119" s="16">
+        <v>3.1119867190325401</v>
+      </c>
+      <c r="L119" s="16">
+        <v>0.102473708398215</v>
+      </c>
+      <c r="M119" s="16">
+        <v>-0.115455774741427</v>
+      </c>
+      <c r="N119" s="16">
+        <v>0.96835706940796196</v>
+      </c>
+      <c r="O119" s="21">
+        <v>7260.6982334936401</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B120" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120">
+        <v>1602880.4750000001</v>
+      </c>
+      <c r="D120" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F120" s="17">
+        <v>3.2685231311646201</v>
+      </c>
+      <c r="G120" s="16">
+        <v>0.92508754179203001</v>
+      </c>
+      <c r="H120" s="16">
+        <v>-6.8685074420971501</v>
+      </c>
+      <c r="I120" s="16">
+        <v>1.83592548436019</v>
+      </c>
+      <c r="J120" s="16">
+        <v>0.26827538711968801</v>
+      </c>
+      <c r="K120" s="16">
+        <v>2.7877276102178201</v>
+      </c>
+      <c r="L120" s="16">
+        <v>9.1796274218009302E-2</v>
+      </c>
+      <c r="M120" s="16">
+        <v>-0.112637440672746</v>
+      </c>
+      <c r="N120" s="16">
+        <v>0.96553873533928103</v>
+      </c>
+      <c r="O120" s="21">
+        <v>6504.15659269346</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B121" t="s">
+        <v>36</v>
+      </c>
+      <c r="C121">
+        <v>924809.875</v>
+      </c>
+      <c r="D121" t="s">
+        <v>25</v>
+      </c>
+      <c r="E121" t="str">
+        <f>IF(Table36810[[#This Row],[% Price Change
+Fuel]]&lt;-1, "Market Collapse", "")</f>
+        <v/>
+      </c>
+      <c r="F121" s="17">
+        <v>1.8858314861979699</v>
+      </c>
+      <c r="G121" s="16">
+        <v>0.53374540848951602</v>
+      </c>
+      <c r="H121" s="16">
+        <v>-3.9629052870972399</v>
+      </c>
+      <c r="I121" s="16">
+        <v>1.05926926192077</v>
+      </c>
+      <c r="J121" s="16">
+        <v>0.15478616846196</v>
+      </c>
+      <c r="K121" s="16">
+        <v>1.60842811610117</v>
+      </c>
+      <c r="L121" s="16">
+        <v>5.2963463096038298E-2</v>
+      </c>
+      <c r="M121" s="16">
+        <v>-9.6125976663412396E-2</v>
+      </c>
+      <c r="N121" s="16">
+        <v>0.94902727132994702</v>
+      </c>
+      <c r="O121" s="21">
+        <v>3752.6867032735299</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A42:O42"/>
+    <mergeCell ref="A83:O83"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="3">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/results/xlsx/KDI_results.xlsx
+++ b/results/xlsx/KDI_results.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="682" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="gasoline_shocks" sheetId="3" r:id="rId1"/>
+    <sheet name="fuel_shocks" sheetId="3" r:id="rId1"/>
     <sheet name="electricity_shocks" sheetId="4" r:id="rId2"/>
-    <sheet name="gasoline_shocks_MC_trials" sheetId="6" r:id="rId3"/>
+    <sheet name="fuel_shocks_MC_trials" sheetId="6" r:id="rId3"/>
     <sheet name="electricity_shocks_MC_trials" sheetId="7" r:id="rId4"/>
+    <sheet name="electricity_percent_shocks" sheetId="8" r:id="rId5"/>
+    <sheet name="fuel_percent_shocks" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
@@ -137,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="56">
   <si>
     <t>Feedstock</t>
   </si>
@@ -304,6 +306,15 @@
   <si>
     <t>95th Percentile</t>
   </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>% Quantity Change    Gasoline</t>
+  </si>
+  <si>
+    <t>Rebound effect on Gasoline</t>
+  </si>
 </sst>
 </file>
 
@@ -314,7 +325,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000000000000%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,8 +392,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +411,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCB5151"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -437,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -483,11 +519,41 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="61">
+    <dxf>
+      <border>
+        <left style="dashDotDot">
+          <color auto="1"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000%"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -549,19 +615,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.000%"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -573,6 +626,19 @@
         <shadow val="0"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -914,34 +980,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:O20" totalsRowShown="0" headerRowDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:O20" totalsRowShown="0" headerRowDxfId="60">
   <autoFilter ref="A1:O20"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Feedstock" dataDxfId="58"/>
+    <tableColumn id="1" name="Feedstock" dataDxfId="59"/>
     <tableColumn id="2" name="Technology"/>
     <tableColumn id="3" name="Quantity (MatLab)"/>
     <tableColumn id="4" name="Unit"/>
     <tableColumn id="14" name="Notes"/>
-    <tableColumn id="16" name="% Supply Shock" dataDxfId="57"/>
-    <tableColumn id="5" name="% Price Change_x000a_Fuel" dataDxfId="56"/>
-    <tableColumn id="6" name="% Price Change_x000a_Electricity" dataDxfId="55"/>
-    <tableColumn id="7" name="% Price Change_x000a_Natural Gas" dataDxfId="54"/>
-    <tableColumn id="8" name="% Quantity Change_x000a_Fuel" dataDxfId="53"/>
-    <tableColumn id="9" name="% Quantity Change_x000a_Electricity" dataDxfId="52"/>
-    <tableColumn id="10" name="% Quantity Change_x000a_Natural Gas" dataDxfId="51"/>
-    <tableColumn id="11" name="% Quantity Change_x000a_Gasoline" dataDxfId="50"/>
-    <tableColumn id="19" name="Rebound Effect    Gasoline" dataDxfId="49"/>
-    <tableColumn id="15" name="CO2 Reduction (tonnes)" dataDxfId="48"/>
+    <tableColumn id="16" name="% Supply Shock" dataDxfId="58"/>
+    <tableColumn id="5" name="% Price Change_x000a_Fuel" dataDxfId="57"/>
+    <tableColumn id="6" name="% Price Change_x000a_Electricity" dataDxfId="56"/>
+    <tableColumn id="7" name="% Price Change_x000a_Natural Gas" dataDxfId="55"/>
+    <tableColumn id="8" name="% Quantity Change_x000a_Fuel" dataDxfId="54"/>
+    <tableColumn id="9" name="% Quantity Change_x000a_Electricity" dataDxfId="53"/>
+    <tableColumn id="10" name="% Quantity Change_x000a_Natural Gas" dataDxfId="52"/>
+    <tableColumn id="11" name="% Quantity Change_x000a_Gasoline" dataDxfId="51"/>
+    <tableColumn id="19" name="Rebound Effect    Gasoline" dataDxfId="50"/>
+    <tableColumn id="15" name="CO2 Reduction (tonnes)" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table36" displayName="Table36" ref="A1:O38" totalsRowShown="0" headerRowDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table36" displayName="Table36" ref="A1:O38" totalsRowShown="0" headerRowDxfId="48">
   <autoFilter ref="A1:O38"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Feedstock" dataDxfId="46"/>
+    <tableColumn id="1" name="Feedstock" dataDxfId="47"/>
     <tableColumn id="2" name="Technology"/>
     <tableColumn id="3" name="Quantity (MatLab)"/>
     <tableColumn id="4" name="Unit"/>
@@ -954,7 +1020,7 @@
     <tableColumn id="9" name="% Quantity Change_x000a_Electricity"/>
     <tableColumn id="10" name="% Quantity Change_x000a_Natural Gas"/>
     <tableColumn id="12" name="% Quantity Change    Non-biomass Electricity"/>
-    <tableColumn id="18" name="Rebound effect on Electricity" dataDxfId="45"/>
+    <tableColumn id="18" name="Rebound effect on Electricity" dataDxfId="46"/>
     <tableColumn id="14" name="CO2 Reduction (tonnes)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -962,79 +1028,79 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table33" displayName="Table33" ref="A2:O21" totalsRowShown="0" headerRowDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table33" displayName="Table33" ref="A2:O21" totalsRowShown="0" headerRowDxfId="45">
   <autoFilter ref="A2:O21"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Feedstock" dataDxfId="43"/>
+    <tableColumn id="1" name="Feedstock" dataDxfId="44"/>
     <tableColumn id="2" name="Technology"/>
     <tableColumn id="3" name="Quantity (MatLab)"/>
     <tableColumn id="4" name="Unit"/>
     <tableColumn id="14" name="Notes"/>
-    <tableColumn id="16" name="% Supply Shock" dataDxfId="42"/>
-    <tableColumn id="5" name="% Price Change_x000a_Fuel" dataDxfId="41"/>
-    <tableColumn id="6" name="% Price Change_x000a_Electricity" dataDxfId="40"/>
-    <tableColumn id="7" name="% Price Change_x000a_Natural Gas" dataDxfId="39"/>
-    <tableColumn id="8" name="% Quantity Change_x000a_Fuel" dataDxfId="38"/>
-    <tableColumn id="9" name="% Quantity Change_x000a_Electricity" dataDxfId="37"/>
-    <tableColumn id="10" name="% Quantity Change_x000a_Natural Gas" dataDxfId="36"/>
-    <tableColumn id="11" name="% Quantity Change_x000a_Gasoline" dataDxfId="35"/>
-    <tableColumn id="19" name="Rebound Effect    Gasoline" dataDxfId="34"/>
-    <tableColumn id="15" name="CO2 Reduction (tonnes)" dataDxfId="33"/>
+    <tableColumn id="16" name="% Supply Shock" dataDxfId="43"/>
+    <tableColumn id="5" name="% Price Change_x000a_Fuel" dataDxfId="42"/>
+    <tableColumn id="6" name="% Price Change_x000a_Electricity" dataDxfId="41"/>
+    <tableColumn id="7" name="% Price Change_x000a_Natural Gas" dataDxfId="40"/>
+    <tableColumn id="8" name="% Quantity Change_x000a_Fuel" dataDxfId="39"/>
+    <tableColumn id="9" name="% Quantity Change_x000a_Electricity" dataDxfId="38"/>
+    <tableColumn id="10" name="% Quantity Change_x000a_Natural Gas" dataDxfId="37"/>
+    <tableColumn id="11" name="% Quantity Change_x000a_Gasoline" dataDxfId="36"/>
+    <tableColumn id="19" name="Rebound Effect    Gasoline" dataDxfId="35"/>
+    <tableColumn id="15" name="CO2 Reduction (tonnes)" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table336" displayName="Table336" ref="A25:O44" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table336" displayName="Table336" ref="A25:O44" totalsRowShown="0" headerRowDxfId="33">
   <autoFilter ref="A25:O44"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Feedstock" dataDxfId="31"/>
+    <tableColumn id="1" name="Feedstock" dataDxfId="32"/>
     <tableColumn id="2" name="Technology"/>
     <tableColumn id="3" name="Quantity (MatLab)"/>
     <tableColumn id="4" name="Unit"/>
     <tableColumn id="14" name="Notes"/>
-    <tableColumn id="16" name="% Supply Shock" dataDxfId="30"/>
-    <tableColumn id="5" name="% Price Change_x000a_Fuel" dataDxfId="29"/>
-    <tableColumn id="6" name="% Price Change_x000a_Electricity" dataDxfId="28"/>
-    <tableColumn id="7" name="% Price Change_x000a_Natural Gas" dataDxfId="27"/>
-    <tableColumn id="8" name="% Quantity Change_x000a_Fuel" dataDxfId="26"/>
-    <tableColumn id="9" name="% Quantity Change_x000a_Electricity" dataDxfId="25"/>
-    <tableColumn id="10" name="% Quantity Change_x000a_Natural Gas" dataDxfId="24"/>
-    <tableColumn id="11" name="% Quantity Change_x000a_Gasoline" dataDxfId="23"/>
-    <tableColumn id="19" name="Rebound Effect    Gasoline" dataDxfId="22"/>
-    <tableColumn id="15" name="CO2 Reduction (tonnes)" dataDxfId="21"/>
+    <tableColumn id="16" name="% Supply Shock" dataDxfId="31"/>
+    <tableColumn id="5" name="% Price Change_x000a_Fuel" dataDxfId="30"/>
+    <tableColumn id="6" name="% Price Change_x000a_Electricity" dataDxfId="29"/>
+    <tableColumn id="7" name="% Price Change_x000a_Natural Gas" dataDxfId="28"/>
+    <tableColumn id="8" name="% Quantity Change_x000a_Fuel" dataDxfId="27"/>
+    <tableColumn id="9" name="% Quantity Change_x000a_Electricity" dataDxfId="26"/>
+    <tableColumn id="10" name="% Quantity Change_x000a_Natural Gas" dataDxfId="25"/>
+    <tableColumn id="11" name="% Quantity Change_x000a_Gasoline" dataDxfId="24"/>
+    <tableColumn id="19" name="Rebound Effect    Gasoline" dataDxfId="23"/>
+    <tableColumn id="15" name="CO2 Reduction (tonnes)" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table3367" displayName="Table3367" ref="A48:O67" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table3367" displayName="Table3367" ref="A48:O67" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="A48:O67"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Feedstock" dataDxfId="19"/>
+    <tableColumn id="1" name="Feedstock" dataDxfId="20"/>
     <tableColumn id="2" name="Technology"/>
     <tableColumn id="3" name="Quantity (MatLab)"/>
     <tableColumn id="4" name="Unit"/>
     <tableColumn id="14" name="Notes"/>
-    <tableColumn id="16" name="% Supply Shock" dataDxfId="18"/>
-    <tableColumn id="5" name="% Price Change_x000a_Fuel" dataDxfId="17"/>
-    <tableColumn id="6" name="% Price Change_x000a_Electricity" dataDxfId="16"/>
-    <tableColumn id="7" name="% Price Change_x000a_Natural Gas" dataDxfId="15"/>
-    <tableColumn id="8" name="% Quantity Change_x000a_Fuel" dataDxfId="14"/>
-    <tableColumn id="9" name="% Quantity Change_x000a_Electricity" dataDxfId="13"/>
-    <tableColumn id="10" name="% Quantity Change_x000a_Natural Gas" dataDxfId="12"/>
-    <tableColumn id="11" name="% Quantity Change_x000a_Gasoline" dataDxfId="11"/>
-    <tableColumn id="19" name="Rebound Effect    Gasoline" dataDxfId="10"/>
-    <tableColumn id="15" name="CO2 Reduction (tonnes)" dataDxfId="9"/>
+    <tableColumn id="16" name="% Supply Shock" dataDxfId="19"/>
+    <tableColumn id="5" name="% Price Change_x000a_Fuel" dataDxfId="18"/>
+    <tableColumn id="6" name="% Price Change_x000a_Electricity" dataDxfId="17"/>
+    <tableColumn id="7" name="% Price Change_x000a_Natural Gas" dataDxfId="16"/>
+    <tableColumn id="8" name="% Quantity Change_x000a_Fuel" dataDxfId="15"/>
+    <tableColumn id="9" name="% Quantity Change_x000a_Electricity" dataDxfId="14"/>
+    <tableColumn id="10" name="% Quantity Change_x000a_Natural Gas" dataDxfId="13"/>
+    <tableColumn id="11" name="% Quantity Change_x000a_Gasoline" dataDxfId="12"/>
+    <tableColumn id="19" name="Rebound Effect    Gasoline" dataDxfId="11"/>
+    <tableColumn id="15" name="CO2 Reduction (tonnes)" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table368" displayName="Table368" ref="A2:O39" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table368" displayName="Table368" ref="A2:O39" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A2:O39"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Feedstock" dataDxfId="8"/>
@@ -1058,10 +1124,10 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table3689" displayName="Table3689" ref="A43:O80" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table3689" displayName="Table3689" ref="A43:O80" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A43:O80"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Feedstock" dataDxfId="4"/>
+    <tableColumn id="1" name="Feedstock" dataDxfId="5"/>
     <tableColumn id="2" name="Technology"/>
     <tableColumn id="3" name="Quantity (MatLab)"/>
     <tableColumn id="4" name="Unit"/>
@@ -1074,7 +1140,7 @@
     <tableColumn id="9" name="% Quantity Change_x000a_Electricity"/>
     <tableColumn id="10" name="% Quantity Change_x000a_Natural Gas"/>
     <tableColumn id="12" name="% Quantity Change    Non-biomass Electricity"/>
-    <tableColumn id="18" name="Rebound effect on Electricity" dataDxfId="3"/>
+    <tableColumn id="18" name="Rebound effect on Electricity" dataDxfId="4"/>
     <tableColumn id="14" name="CO2 Reduction (tonnes)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1082,10 +1148,10 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table36810" displayName="Table36810" ref="A84:O121" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table36810" displayName="Table36810" ref="A84:O121" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A84:O121"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Feedstock" dataDxfId="1"/>
+    <tableColumn id="1" name="Feedstock" dataDxfId="2"/>
     <tableColumn id="2" name="Technology"/>
     <tableColumn id="3" name="Quantity (MatLab)"/>
     <tableColumn id="4" name="Unit"/>
@@ -1098,7 +1164,7 @@
     <tableColumn id="9" name="% Quantity Change_x000a_Electricity"/>
     <tableColumn id="10" name="% Quantity Change_x000a_Natural Gas"/>
     <tableColumn id="12" name="% Quantity Change    Non-biomass Electricity"/>
-    <tableColumn id="18" name="Rebound effect on Electricity" dataDxfId="0"/>
+    <tableColumn id="18" name="Rebound effect on Electricity" dataDxfId="1"/>
     <tableColumn id="14" name="CO2 Reduction (tonnes)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1396,7 +1462,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1:O13"/>
+      <selection pane="topRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6877,8 +6943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D43" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView topLeftCell="E31" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12335,4 +12401,4372 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:J48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="7" width="26.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="9" max="10" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="B4" s="26">
+        <v>-3.2326958676073899E-3</v>
+      </c>
+      <c r="C4" s="26">
+        <v>-0.15553254562347699</v>
+      </c>
+      <c r="D4" s="26">
+        <v>-4.0331732381847903E-2</v>
+      </c>
+      <c r="E4" s="26">
+        <v>-9.3748180160617303E-4</v>
+      </c>
+      <c r="F4" s="26">
+        <v>3.9112721806356603E-2</v>
+      </c>
+      <c r="G4" s="26">
+        <v>-2.0165866190923901E-3</v>
+      </c>
+      <c r="H4" s="26">
+        <v>-1.03688363748985E-2</v>
+      </c>
+      <c r="I4" s="26">
+        <v>0.79262327250203102</v>
+      </c>
+      <c r="J4" s="27">
+        <v>66.830711933885496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
+        <f>A4+5%</f>
+        <v>0.1</v>
+      </c>
+      <c r="B5" s="28">
+        <v>-6.4653917352148404E-3</v>
+      </c>
+      <c r="C5" s="28">
+        <v>-0.31106509124695497</v>
+      </c>
+      <c r="D5" s="28">
+        <v>-8.0663464763695805E-2</v>
+      </c>
+      <c r="E5" s="28">
+        <v>-1.87496360321234E-3</v>
+      </c>
+      <c r="F5" s="28">
+        <v>7.8225443612713205E-2</v>
+      </c>
+      <c r="G5" s="28">
+        <v>-4.0331732381847897E-3</v>
+      </c>
+      <c r="H5" s="28">
+        <v>-1.9795051261169799E-2</v>
+      </c>
+      <c r="I5" s="28">
+        <v>0.80204948738830195</v>
+      </c>
+      <c r="J5" s="29">
+        <v>133.66142386777099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
+        <f t="shared" ref="A6:A13" si="0">A5+5%</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="B6" s="26">
+        <v>-9.6980876028222793E-3</v>
+      </c>
+      <c r="C6" s="26">
+        <v>-0.46659763687043099</v>
+      </c>
+      <c r="D6" s="26">
+        <v>-0.12099519714554401</v>
+      </c>
+      <c r="E6" s="26">
+        <v>-2.8124454048184902E-3</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0.11733816541907</v>
+      </c>
+      <c r="G6" s="26">
+        <v>-6.0497598572771703E-3</v>
+      </c>
+      <c r="H6" s="26">
+        <v>-2.8401595287765501E-2</v>
+      </c>
+      <c r="I6" s="26">
+        <v>0.81065603141489695</v>
+      </c>
+      <c r="J6" s="27">
+        <v>200.49213580165701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="B7" s="28">
+        <v>-1.29307834704297E-2</v>
+      </c>
+      <c r="C7" s="28">
+        <v>-0.62213018249390895</v>
+      </c>
+      <c r="D7" s="28">
+        <v>-0.161326929527391</v>
+      </c>
+      <c r="E7" s="28">
+        <v>-3.7499272064246401E-3</v>
+      </c>
+      <c r="F7" s="28">
+        <v>0.15645088722542599</v>
+      </c>
+      <c r="G7" s="28">
+        <v>-8.0663464763695708E-3</v>
+      </c>
+      <c r="H7" s="28">
+        <v>-3.6290927312144797E-2</v>
+      </c>
+      <c r="I7" s="28">
+        <v>0.81854536343927597</v>
+      </c>
+      <c r="J7" s="29">
+        <v>267.32284773554301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="B8" s="26">
+        <v>-1.61634793380371E-2</v>
+      </c>
+      <c r="C8" s="26">
+        <v>-0.77766272811738901</v>
+      </c>
+      <c r="D8" s="26">
+        <v>-0.20165866190924001</v>
+      </c>
+      <c r="E8" s="26">
+        <v>-4.6874090080308E-3</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0.19556360903178299</v>
+      </c>
+      <c r="G8" s="26">
+        <v>-1.0082933095462E-2</v>
+      </c>
+      <c r="H8" s="26">
+        <v>-4.3549112774573601E-2</v>
+      </c>
+      <c r="I8" s="26">
+        <v>0.82580354890170504</v>
+      </c>
+      <c r="J8" s="27">
+        <v>334.15355966942798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="B9" s="28">
+        <v>-1.93961752056446E-2</v>
+      </c>
+      <c r="C9" s="28">
+        <v>-0.93319527374086497</v>
+      </c>
+      <c r="D9" s="28">
+        <v>-0.24199039429108701</v>
+      </c>
+      <c r="E9" s="28">
+        <v>-5.6248908096369604E-3</v>
+      </c>
+      <c r="F9" s="28">
+        <v>0.23467633083813899</v>
+      </c>
+      <c r="G9" s="28">
+        <v>-1.20995197145544E-2</v>
+      </c>
+      <c r="H9" s="28">
+        <v>-5.0248976278354403E-2</v>
+      </c>
+      <c r="I9" s="28">
+        <v>0.83250341240548598</v>
+      </c>
+      <c r="J9" s="29">
+        <v>400.98427160331403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="B10" s="26">
+        <v>-2.2628871073252E-2</v>
+      </c>
+      <c r="C10" s="26">
+        <v>-1.0887278193643399</v>
+      </c>
+      <c r="D10" s="26">
+        <v>-0.28232212667293499</v>
+      </c>
+      <c r="E10" s="26">
+        <v>-6.5623726112431103E-3</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0.27378905264449599</v>
+      </c>
+      <c r="G10" s="26">
+        <v>-1.4116106333646799E-2</v>
+      </c>
+      <c r="H10" s="26">
+        <v>-5.6452553596669702E-2</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0.83870698972379898</v>
+      </c>
+      <c r="J10" s="27">
+        <v>467.81498353720002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="B11" s="28">
+        <v>-2.58615669408594E-2</v>
+      </c>
+      <c r="C11" s="28">
+        <v>-1.2442603649878199</v>
+      </c>
+      <c r="D11" s="28">
+        <v>-0.322653859054783</v>
+      </c>
+      <c r="E11" s="28">
+        <v>-7.4998544128492602E-3</v>
+      </c>
+      <c r="F11" s="28">
+        <v>0.31290177445085299</v>
+      </c>
+      <c r="G11" s="28">
+        <v>-1.6132692952739201E-2</v>
+      </c>
+      <c r="H11" s="28">
+        <v>-6.2213018249391003E-2</v>
+      </c>
+      <c r="I11" s="28">
+        <v>0.84446745437652104</v>
+      </c>
+      <c r="J11" s="29">
+        <v>534.64569547108499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="B12" s="26">
+        <v>-2.90942628084668E-2</v>
+      </c>
+      <c r="C12" s="26">
+        <v>-1.3997929106113001</v>
+      </c>
+      <c r="D12" s="26">
+        <v>-0.36298559143663101</v>
+      </c>
+      <c r="E12" s="26">
+        <v>-8.4373362144554206E-3</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0.35201449625720899</v>
+      </c>
+      <c r="G12" s="26">
+        <v>-1.81492795718315E-2</v>
+      </c>
+      <c r="H12" s="26">
+        <v>-6.7576209477786905E-2</v>
+      </c>
+      <c r="I12" s="26">
+        <v>0.84983064560491794</v>
+      </c>
+      <c r="J12" s="27">
+        <v>601.47640740497104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <f t="shared" si="0"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="B13" s="28">
+        <v>-3.2326958676074297E-2</v>
+      </c>
+      <c r="C13" s="28">
+        <v>-1.55532545623478</v>
+      </c>
+      <c r="D13" s="28">
+        <v>-0.40331732381847901</v>
+      </c>
+      <c r="E13" s="28">
+        <v>-9.3748180160615792E-3</v>
+      </c>
+      <c r="F13" s="28">
+        <v>0.39112721806356598</v>
+      </c>
+      <c r="G13" s="28">
+        <v>-2.0165866190924E-2</v>
+      </c>
+      <c r="H13" s="28">
+        <v>-7.2581854624289496E-2</v>
+      </c>
+      <c r="I13" s="28">
+        <v>0.85483629075142098</v>
+      </c>
+      <c r="J13" s="29">
+        <v>668.30711933885505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
+        <f t="shared" ref="A14:A23" si="1">A13+5%</f>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="B14" s="26">
+        <v>-3.55596545436817E-2</v>
+      </c>
+      <c r="C14" s="26">
+        <v>-1.71085800185825</v>
+      </c>
+      <c r="D14" s="26">
+        <v>-0.44364905620032702</v>
+      </c>
+      <c r="E14" s="26">
+        <v>-1.03122998176677E-2</v>
+      </c>
+      <c r="F14" s="26">
+        <v>0.43023993986992198</v>
+      </c>
+      <c r="G14" s="26">
+        <v>-2.2182452810016299E-2</v>
+      </c>
+      <c r="H14" s="26">
+        <v>-7.7264554922630901E-2</v>
+      </c>
+      <c r="I14" s="26">
+        <v>0.85951899104976204</v>
+      </c>
+      <c r="J14" s="27">
+        <v>735.13783127274303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="B15" s="28">
+        <v>-3.87923504112892E-2</v>
+      </c>
+      <c r="C15" s="28">
+        <v>-1.8663905474817299</v>
+      </c>
+      <c r="D15" s="28">
+        <v>-0.48398078858217503</v>
+      </c>
+      <c r="E15" s="28">
+        <v>-1.12497816192739E-2</v>
+      </c>
+      <c r="F15" s="28">
+        <v>0.46935266167627898</v>
+      </c>
+      <c r="G15" s="28">
+        <v>-2.4199039429108699E-2</v>
+      </c>
+      <c r="H15" s="28">
+        <v>-8.1654586452325706E-2</v>
+      </c>
+      <c r="I15" s="28">
+        <v>0.86390902257945701</v>
+      </c>
+      <c r="J15" s="29">
+        <v>801.96854320662703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="32">
+        <f t="shared" si="1"/>
+        <v>0.65</v>
+      </c>
+      <c r="B16" s="26">
+        <v>-4.2025046278896597E-2</v>
+      </c>
+      <c r="C16" s="26">
+        <v>-2.0219230931052001</v>
+      </c>
+      <c r="D16" s="26">
+        <v>-0.52431252096402203</v>
+      </c>
+      <c r="E16" s="26">
+        <v>-1.218726342088E-2</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0.50846538348263604</v>
+      </c>
+      <c r="G16" s="26">
+        <v>-2.6215626048201102E-2</v>
+      </c>
+      <c r="H16" s="26">
+        <v>-8.5778555465069406E-2</v>
+      </c>
+      <c r="I16" s="26">
+        <v>0.86803299159220104</v>
+      </c>
+      <c r="J16" s="27">
+        <v>868.79925514051297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
+        <f t="shared" si="1"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="B17" s="28">
+        <v>-4.5257742146504E-2</v>
+      </c>
+      <c r="C17" s="28">
+        <v>-2.1774556387286799</v>
+      </c>
+      <c r="D17" s="28">
+        <v>-0.56464425334586998</v>
+      </c>
+      <c r="E17" s="28">
+        <v>-1.31247452224862E-2</v>
+      </c>
+      <c r="F17" s="28">
+        <v>0.54757810528899198</v>
+      </c>
+      <c r="G17" s="28">
+        <v>-2.8232212667293501E-2</v>
+      </c>
+      <c r="H17" s="28">
+        <v>-8.9659938065298803E-2</v>
+      </c>
+      <c r="I17" s="28">
+        <v>0.87191437419242901</v>
+      </c>
+      <c r="J17" s="29">
+        <v>935.629967074398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
+        <f t="shared" si="1"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="B18" s="26">
+        <v>-4.84904380141115E-2</v>
+      </c>
+      <c r="C18" s="26">
+        <v>-2.33298818435216</v>
+      </c>
+      <c r="D18" s="26">
+        <v>-0.60497598572771905</v>
+      </c>
+      <c r="E18" s="26">
+        <v>-1.40622270240924E-2</v>
+      </c>
+      <c r="F18" s="26">
+        <v>0.58669082709534803</v>
+      </c>
+      <c r="G18" s="26">
+        <v>-3.0248799286385901E-2</v>
+      </c>
+      <c r="H18" s="26">
+        <v>-9.3319527374086497E-2</v>
+      </c>
+      <c r="I18" s="26">
+        <v>0.87557396350121797</v>
+      </c>
+      <c r="J18" s="27">
+        <v>1002.46067900828</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
+        <f t="shared" si="1"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="B19" s="28">
+        <v>-5.1723133881718897E-2</v>
+      </c>
+      <c r="C19" s="28">
+        <v>-2.4885207299756398</v>
+      </c>
+      <c r="D19" s="28">
+        <v>-0.645307718109567</v>
+      </c>
+      <c r="E19" s="28">
+        <v>-1.49997088256985E-2</v>
+      </c>
+      <c r="F19" s="28">
+        <v>0.62580354890170498</v>
+      </c>
+      <c r="G19" s="28">
+        <v>-3.2265385905478297E-2</v>
+      </c>
+      <c r="H19" s="28">
+        <v>-9.6775806165719402E-2</v>
+      </c>
+      <c r="I19" s="28">
+        <v>0.87903024229285098</v>
+      </c>
+      <c r="J19" s="29">
+        <v>1069.29139094217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="32">
+        <f t="shared" si="1"/>
+        <v>0.8500000000000002</v>
+      </c>
+      <c r="B20" s="26">
+        <v>-5.49558297493263E-2</v>
+      </c>
+      <c r="C20" s="26">
+        <v>-2.6440532755991102</v>
+      </c>
+      <c r="D20" s="26">
+        <v>-0.68563945049141495</v>
+      </c>
+      <c r="E20" s="26">
+        <v>-1.5937190627304601E-2</v>
+      </c>
+      <c r="F20" s="26">
+        <v>0.66491627070806203</v>
+      </c>
+      <c r="G20" s="26">
+        <v>-3.42819725245707E-2</v>
+      </c>
+      <c r="H20" s="26">
+        <v>-0.100045259076723</v>
+      </c>
+      <c r="I20" s="26">
+        <v>0.88229969520385498</v>
+      </c>
+      <c r="J20" s="27">
+        <v>1136.1221028760599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="33">
+        <f t="shared" si="1"/>
+        <v>0.90000000000000024</v>
+      </c>
+      <c r="B21" s="28">
+        <v>-5.8188525616933703E-2</v>
+      </c>
+      <c r="C21" s="28">
+        <v>-2.7995858212226001</v>
+      </c>
+      <c r="D21" s="28">
+        <v>-0.72597118287326201</v>
+      </c>
+      <c r="E21" s="28">
+        <v>-1.68746724289108E-2</v>
+      </c>
+      <c r="F21" s="28">
+        <v>0.70402899251441797</v>
+      </c>
+      <c r="G21" s="28">
+        <v>-3.6298559143663103E-2</v>
+      </c>
+      <c r="H21" s="28">
+        <v>-0.103142635518727</v>
+      </c>
+      <c r="I21" s="28">
+        <v>0.88539707164585901</v>
+      </c>
+      <c r="J21" s="29">
+        <v>1202.95281480994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="32">
+        <f t="shared" si="1"/>
+        <v>0.95000000000000029</v>
+      </c>
+      <c r="B22" s="26">
+        <v>-6.14212214845411E-2</v>
+      </c>
+      <c r="C22" s="26">
+        <v>-2.9551183668460701</v>
+      </c>
+      <c r="D22" s="26">
+        <v>-0.76630291525511096</v>
+      </c>
+      <c r="E22" s="26">
+        <v>-1.7812154230517002E-2</v>
+      </c>
+      <c r="F22" s="26">
+        <v>0.74314171432077503</v>
+      </c>
+      <c r="G22" s="26">
+        <v>-3.8315145762755499E-2</v>
+      </c>
+      <c r="H22" s="26">
+        <v>-0.106081172143192</v>
+      </c>
+      <c r="I22" s="26">
+        <v>0.88833560827032299</v>
+      </c>
+      <c r="J22" s="27">
+        <v>1269.78352674383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="B23" s="28">
+        <v>-6.4653917352148593E-2</v>
+      </c>
+      <c r="C23" s="28">
+        <v>-3.1106509124695498</v>
+      </c>
+      <c r="D23" s="28">
+        <v>-0.80663464763695802</v>
+      </c>
+      <c r="E23" s="28">
+        <v>-1.8749636032123099E-2</v>
+      </c>
+      <c r="F23" s="28">
+        <v>0.78225443612713197</v>
+      </c>
+      <c r="G23" s="28">
+        <v>-4.0331732381847903E-2</v>
+      </c>
+      <c r="H23" s="28">
+        <v>-0.108872781936434</v>
+      </c>
+      <c r="I23" s="28">
+        <v>0.89112721806356598</v>
+      </c>
+      <c r="J23" s="29">
+        <v>1336.6142386777101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="1:10" ht="38.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="B29" s="26">
+        <v>-2.6011395387644701E-2</v>
+      </c>
+      <c r="C29" s="26">
+        <v>-0.236475523869839</v>
+      </c>
+      <c r="D29" s="26">
+        <v>-0.13105841239940499</v>
+      </c>
+      <c r="E29" s="26">
+        <v>-7.5433046624169796E-3</v>
+      </c>
+      <c r="F29" s="26">
+        <v>3.3446713329111297E-2</v>
+      </c>
+      <c r="G29" s="26">
+        <v>-6.5529206199701701E-3</v>
+      </c>
+      <c r="H29" s="26">
+        <v>-1.5765034924655901E-2</v>
+      </c>
+      <c r="I29" s="26">
+        <v>0.68469930150688196</v>
+      </c>
+      <c r="J29" s="27">
+        <v>45.785240594712398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="33">
+        <f>A29+5%</f>
+        <v>0.1</v>
+      </c>
+      <c r="B30" s="28">
+        <v>-5.2022790775289499E-2</v>
+      </c>
+      <c r="C30" s="28">
+        <v>-0.472951047739678</v>
+      </c>
+      <c r="D30" s="28">
+        <v>-0.26211682479880899</v>
+      </c>
+      <c r="E30" s="28">
+        <v>-1.5086609324834001E-2</v>
+      </c>
+      <c r="F30" s="28">
+        <v>6.6893426658222593E-2</v>
+      </c>
+      <c r="G30" s="28">
+        <v>-1.3105841239940399E-2</v>
+      </c>
+      <c r="H30" s="28">
+        <v>-3.0096884856161299E-2</v>
+      </c>
+      <c r="I30" s="28">
+        <v>0.69903115143838701</v>
+      </c>
+      <c r="J30" s="29">
+        <v>91.570481189424797</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="32">
+        <f t="shared" ref="A31:A48" si="2">A30+5%</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="B31" s="26">
+        <v>-7.8034186162934199E-2</v>
+      </c>
+      <c r="C31" s="26">
+        <v>-0.70942657160951705</v>
+      </c>
+      <c r="D31" s="26">
+        <v>-0.39317523719821301</v>
+      </c>
+      <c r="E31" s="26">
+        <v>-2.2629913987250901E-2</v>
+      </c>
+      <c r="F31" s="26">
+        <v>0.100340139987334</v>
+      </c>
+      <c r="G31" s="26">
+        <v>-1.9658761859910601E-2</v>
+      </c>
+      <c r="H31" s="26">
+        <v>-4.3182486967535898E-2</v>
+      </c>
+      <c r="I31" s="26">
+        <v>0.71211675354976001</v>
+      </c>
+      <c r="J31" s="27">
+        <v>137.35572178413801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="33">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="B32" s="28">
+        <v>-0.104045581550579</v>
+      </c>
+      <c r="C32" s="28">
+        <v>-0.945902095479355</v>
+      </c>
+      <c r="D32" s="28">
+        <v>-0.52423364959761698</v>
+      </c>
+      <c r="E32" s="28">
+        <v>-3.0173218649667901E-2</v>
+      </c>
+      <c r="F32" s="28">
+        <v>0.13378685331644499</v>
+      </c>
+      <c r="G32" s="28">
+        <v>-2.6211682479880899E-2</v>
+      </c>
+      <c r="H32" s="28">
+        <v>-5.5177622236295798E-2</v>
+      </c>
+      <c r="I32" s="28">
+        <v>0.72411188881852095</v>
+      </c>
+      <c r="J32" s="29">
+        <v>183.14096237884999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="32">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="B33" s="26">
+        <v>-0.13005697693822399</v>
+      </c>
+      <c r="C33" s="26">
+        <v>-1.1823776193491999</v>
+      </c>
+      <c r="D33" s="26">
+        <v>-0.65529206199702195</v>
+      </c>
+      <c r="E33" s="26">
+        <v>-3.7716523312084999E-2</v>
+      </c>
+      <c r="F33" s="26">
+        <v>0.167233566645556</v>
+      </c>
+      <c r="G33" s="26">
+        <v>-3.2764603099851103E-2</v>
+      </c>
+      <c r="H33" s="26">
+        <v>-6.6213146683554894E-2</v>
+      </c>
+      <c r="I33" s="26">
+        <v>0.73514741326578104</v>
+      </c>
+      <c r="J33" s="27">
+        <v>228.926202973562</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="33">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="B34" s="28">
+        <v>-0.15606837232586901</v>
+      </c>
+      <c r="C34" s="28">
+        <v>-1.4188531432190301</v>
+      </c>
+      <c r="D34" s="28">
+        <v>-0.78635047439642602</v>
+      </c>
+      <c r="E34" s="28">
+        <v>-4.5259827974502002E-2</v>
+      </c>
+      <c r="F34" s="28">
+        <v>0.200680279974668</v>
+      </c>
+      <c r="G34" s="28">
+        <v>-3.93175237198213E-2</v>
+      </c>
+      <c r="H34" s="28">
+        <v>-7.6399784634871196E-2</v>
+      </c>
+      <c r="I34" s="28">
+        <v>0.74533405121709595</v>
+      </c>
+      <c r="J34" s="29">
+        <v>274.711443568275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="32">
+        <f t="shared" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="B35" s="26">
+        <v>-0.182079767713513</v>
+      </c>
+      <c r="C35" s="26">
+        <v>-1.6553286670888701</v>
+      </c>
+      <c r="D35" s="26">
+        <v>-0.91740888679582999</v>
+      </c>
+      <c r="E35" s="26">
+        <v>-5.2803132636918902E-2</v>
+      </c>
+      <c r="F35" s="26">
+        <v>0.23412699330377901</v>
+      </c>
+      <c r="G35" s="26">
+        <v>-4.5870444339791497E-2</v>
+      </c>
+      <c r="H35" s="26">
+        <v>-8.5831856812015703E-2</v>
+      </c>
+      <c r="I35" s="26">
+        <v>0.75476612339424098</v>
+      </c>
+      <c r="J35" s="27">
+        <v>320.496684162988</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="33">
+        <f t="shared" si="2"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="B36" s="28">
+        <v>-0.20809116310115799</v>
+      </c>
+      <c r="C36" s="28">
+        <v>-1.89180419095871</v>
+      </c>
+      <c r="D36" s="28">
+        <v>-1.04846729919523</v>
+      </c>
+      <c r="E36" s="28">
+        <v>-6.0346437299335899E-2</v>
+      </c>
+      <c r="F36" s="28">
+        <v>0.26757370663288998</v>
+      </c>
+      <c r="G36" s="28">
+        <v>-5.2423364959761701E-2</v>
+      </c>
+      <c r="H36" s="28">
+        <v>-9.4590209547935705E-2</v>
+      </c>
+      <c r="I36" s="28">
+        <v>0.76352447613016095</v>
+      </c>
+      <c r="J36" s="29">
+        <v>366.28192475770101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="32">
+        <f t="shared" si="2"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="B37" s="26">
+        <v>-0.23410255848880299</v>
+      </c>
+      <c r="C37" s="26">
+        <v>-2.1282797148285502</v>
+      </c>
+      <c r="D37" s="26">
+        <v>-1.17952571159464</v>
+      </c>
+      <c r="E37" s="26">
+        <v>-6.7889741961752903E-2</v>
+      </c>
+      <c r="F37" s="26">
+        <v>0.30102041996200102</v>
+      </c>
+      <c r="G37" s="26">
+        <v>-5.8976285579731898E-2</v>
+      </c>
+      <c r="H37" s="26">
+        <v>-0.10274453795724001</v>
+      </c>
+      <c r="I37" s="26">
+        <v>0.77167880453946602</v>
+      </c>
+      <c r="J37" s="27">
+        <v>412.06716535241299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="33">
+        <f t="shared" si="2"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="B38" s="28">
+        <v>-0.26011395387644798</v>
+      </c>
+      <c r="C38" s="28">
+        <v>-2.3647552386983901</v>
+      </c>
+      <c r="D38" s="28">
+        <v>-1.3105841239940399</v>
+      </c>
+      <c r="E38" s="28">
+        <v>-7.5433046624169997E-2</v>
+      </c>
+      <c r="F38" s="28">
+        <v>0.33446713329111299</v>
+      </c>
+      <c r="G38" s="28">
+        <v>-6.5529206199702206E-2</v>
+      </c>
+      <c r="H38" s="28">
+        <v>-0.110355244472592</v>
+      </c>
+      <c r="I38" s="28">
+        <v>0.77928951105481703</v>
+      </c>
+      <c r="J38" s="29">
+        <v>457.852405947124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="32">
+        <f t="shared" si="2"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="B39" s="26">
+        <v>-0.286125349264093</v>
+      </c>
+      <c r="C39" s="26">
+        <v>-2.60123076256823</v>
+      </c>
+      <c r="D39" s="26">
+        <v>-1.44164253639345</v>
+      </c>
+      <c r="E39" s="26">
+        <v>-8.2976351286586897E-2</v>
+      </c>
+      <c r="F39" s="26">
+        <v>0.36791384662022403</v>
+      </c>
+      <c r="G39" s="26">
+        <v>-7.2082126819672396E-2</v>
+      </c>
+      <c r="H39" s="26">
+        <v>-0.117474937664372</v>
+      </c>
+      <c r="I39" s="26">
+        <v>0.78640920424659699</v>
+      </c>
+      <c r="J39" s="27">
+        <v>503.63764654183802</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="33">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="B40" s="28">
+        <v>-0.31213674465173702</v>
+      </c>
+      <c r="C40" s="28">
+        <v>-2.83770628643807</v>
+      </c>
+      <c r="D40" s="28">
+        <v>-1.5727009487928501</v>
+      </c>
+      <c r="E40" s="28">
+        <v>-9.0519655949003894E-2</v>
+      </c>
+      <c r="F40" s="28">
+        <v>0.40136055994933501</v>
+      </c>
+      <c r="G40" s="28">
+        <v>-7.86350474396426E-2</v>
+      </c>
+      <c r="H40" s="28">
+        <v>-0.124149650031666</v>
+      </c>
+      <c r="I40" s="28">
+        <v>0.79308391661389099</v>
+      </c>
+      <c r="J40" s="29">
+        <v>549.42288713655</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="32">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
+      <c r="B41" s="26">
+        <v>-0.33814814003938198</v>
+      </c>
+      <c r="C41" s="26">
+        <v>-3.0741818103079099</v>
+      </c>
+      <c r="D41" s="26">
+        <v>-1.7037593611922599</v>
+      </c>
+      <c r="E41" s="26">
+        <v>-9.8062960611420794E-2</v>
+      </c>
+      <c r="F41" s="26">
+        <v>0.43480727327844598</v>
+      </c>
+      <c r="G41" s="26">
+        <v>-8.5187968059612804E-2</v>
+      </c>
+      <c r="H41" s="26">
+        <v>-0.13041983437669899</v>
+      </c>
+      <c r="I41" s="26">
+        <v>0.79935410095892501</v>
+      </c>
+      <c r="J41" s="27">
+        <v>595.20812773126295</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="33">
+        <f t="shared" si="2"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="B42" s="28">
+        <v>-0.364159535427027</v>
+      </c>
+      <c r="C42" s="28">
+        <v>-3.3106573341777499</v>
+      </c>
+      <c r="D42" s="28">
+        <v>-1.83481777359166</v>
+      </c>
+      <c r="E42" s="28">
+        <v>-0.105606265273838</v>
+      </c>
+      <c r="F42" s="28">
+        <v>0.46825398660755801</v>
+      </c>
+      <c r="G42" s="28">
+        <v>-9.1740888679582994E-2</v>
+      </c>
+      <c r="H42" s="28">
+        <v>-0.13632118434849599</v>
+      </c>
+      <c r="I42" s="28">
+        <v>0.80525545093072104</v>
+      </c>
+      <c r="J42" s="29">
+        <v>640.99336832597498</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="32">
+        <f t="shared" si="2"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="B43" s="26">
+        <v>-0.39017093081467202</v>
+      </c>
+      <c r="C43" s="26">
+        <v>-3.5471328580475898</v>
+      </c>
+      <c r="D43" s="26">
+        <v>-1.9658761859910701</v>
+      </c>
+      <c r="E43" s="26">
+        <v>-0.113149569936255</v>
+      </c>
+      <c r="F43" s="26">
+        <v>0.50170069993666899</v>
+      </c>
+      <c r="G43" s="26">
+        <v>-9.8293809299553198E-2</v>
+      </c>
+      <c r="H43" s="26">
+        <v>-0.14188531432190299</v>
+      </c>
+      <c r="I43" s="26">
+        <v>0.81081958090412898</v>
+      </c>
+      <c r="J43" s="27">
+        <v>686.778608920686</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="33">
+        <f t="shared" si="2"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="B44" s="28">
+        <v>-0.41618232620231699</v>
+      </c>
+      <c r="C44" s="28">
+        <v>-3.7836083819174302</v>
+      </c>
+      <c r="D44" s="28">
+        <v>-2.0969345983904701</v>
+      </c>
+      <c r="E44" s="28">
+        <v>-0.12069287459867201</v>
+      </c>
+      <c r="F44" s="28">
+        <v>0.53514741326577997</v>
+      </c>
+      <c r="G44" s="28">
+        <v>-0.104846729919523</v>
+      </c>
+      <c r="H44" s="28">
+        <v>-0.147140325963456</v>
+      </c>
+      <c r="I44" s="28">
+        <v>0.81607459254568104</v>
+      </c>
+      <c r="J44" s="29">
+        <v>732.56384951539997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="32">
+        <f t="shared" si="2"/>
+        <v>0.8500000000000002</v>
+      </c>
+      <c r="B45" s="26">
+        <v>-0.44219372158996101</v>
+      </c>
+      <c r="C45" s="26">
+        <v>-4.0200839057872599</v>
+      </c>
+      <c r="D45" s="26">
+        <v>-2.22799301078987</v>
+      </c>
+      <c r="E45" s="26">
+        <v>-0.12823617926108899</v>
+      </c>
+      <c r="F45" s="26">
+        <v>0.56859412659489195</v>
+      </c>
+      <c r="G45" s="26">
+        <v>-0.11139965053949399</v>
+      </c>
+      <c r="H45" s="26">
+        <v>-0.15211128292168</v>
+      </c>
+      <c r="I45" s="26">
+        <v>0.82104554950390596</v>
+      </c>
+      <c r="J45" s="27">
+        <v>778.34909011011302</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="33">
+        <f t="shared" si="2"/>
+        <v>0.90000000000000024</v>
+      </c>
+      <c r="B46" s="28">
+        <v>-0.46820511697760597</v>
+      </c>
+      <c r="C46" s="28">
+        <v>-4.2565594296571003</v>
+      </c>
+      <c r="D46" s="28">
+        <v>-2.3590514231892801</v>
+      </c>
+      <c r="E46" s="28">
+        <v>-0.135779483923506</v>
+      </c>
+      <c r="F46" s="28">
+        <v>0.60204083992400304</v>
+      </c>
+      <c r="G46" s="28">
+        <v>-0.117952571159464</v>
+      </c>
+      <c r="H46" s="28">
+        <v>-0.15682061056631399</v>
+      </c>
+      <c r="I46" s="28">
+        <v>0.82575487714854001</v>
+      </c>
+      <c r="J46" s="29">
+        <v>824.13433070482495</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="32">
+        <f t="shared" si="2"/>
+        <v>0.95000000000000029</v>
+      </c>
+      <c r="B47" s="26">
+        <v>-0.49421651236525099</v>
+      </c>
+      <c r="C47" s="26">
+        <v>-4.4930349535269398</v>
+      </c>
+      <c r="D47" s="26">
+        <v>-2.4901098355886799</v>
+      </c>
+      <c r="E47" s="26">
+        <v>-0.14332278858592301</v>
+      </c>
+      <c r="F47" s="26">
+        <v>0.63548755325311401</v>
+      </c>
+      <c r="G47" s="26">
+        <v>-0.124505491779434</v>
+      </c>
+      <c r="H47" s="26">
+        <v>-0.161288434229172</v>
+      </c>
+      <c r="I47" s="26">
+        <v>0.83022270081139804</v>
+      </c>
+      <c r="J47" s="27">
+        <v>869.91957129953698</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="33">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="B48" s="28">
+        <v>-0.52022790775289596</v>
+      </c>
+      <c r="C48" s="28">
+        <v>-4.7295104773967802</v>
+      </c>
+      <c r="D48" s="28">
+        <v>-2.62116824798809</v>
+      </c>
+      <c r="E48" s="28">
+        <v>-0.15086609324833999</v>
+      </c>
+      <c r="F48" s="28">
+        <v>0.66893426658222499</v>
+      </c>
+      <c r="G48" s="28">
+        <v>-0.131058412399404</v>
+      </c>
+      <c r="H48" s="28">
+        <v>-0.16553286670888701</v>
+      </c>
+      <c r="I48" s="28">
+        <v>0.83446713329111299</v>
+      </c>
+      <c r="J48" s="29">
+        <v>915.70481189424902</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+    </row>
+    <row r="52" spans="1:10" ht="38.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J52" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="B54" s="26">
+        <v>1.5198667779511101E-2</v>
+      </c>
+      <c r="C54" s="26">
+        <v>-0.10655422956924</v>
+      </c>
+      <c r="D54" s="26">
+        <v>3.5486408356591302E-2</v>
+      </c>
+      <c r="E54" s="26">
+        <v>4.4076136560581899E-3</v>
+      </c>
+      <c r="F54" s="26">
+        <v>4.2541203930153197E-2</v>
+      </c>
+      <c r="G54" s="26">
+        <v>1.7743204178295099E-3</v>
+      </c>
+      <c r="H54" s="26">
+        <v>-7.1036153046160101E-3</v>
+      </c>
+      <c r="I54" s="26">
+        <v>0.85792769390767998</v>
+      </c>
+      <c r="J54" s="27">
+        <v>101.611065078422</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="33">
+        <f>A54+5%</f>
+        <v>0.1</v>
+      </c>
+      <c r="B55" s="28">
+        <v>3.03973355590221E-2</v>
+      </c>
+      <c r="C55" s="28">
+        <v>-0.213108459138481</v>
+      </c>
+      <c r="D55" s="28">
+        <v>7.0972816713182604E-2</v>
+      </c>
+      <c r="E55" s="28">
+        <v>8.8152273121163797E-3</v>
+      </c>
+      <c r="F55" s="28">
+        <v>8.5082407860306394E-2</v>
+      </c>
+      <c r="G55" s="28">
+        <v>3.5486408356591001E-3</v>
+      </c>
+      <c r="H55" s="28">
+        <v>-1.35614473997215E-2</v>
+      </c>
+      <c r="I55" s="28">
+        <v>0.86438552600278595</v>
+      </c>
+      <c r="J55" s="29">
+        <v>203.222130156845</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="32">
+        <f t="shared" ref="A56:A73" si="3">A55+5%</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="B56" s="26">
+        <v>4.5596003338533198E-2</v>
+      </c>
+      <c r="C56" s="26">
+        <v>-0.31966268870772102</v>
+      </c>
+      <c r="D56" s="26">
+        <v>0.106459225069774</v>
+      </c>
+      <c r="E56" s="26">
+        <v>1.3222840968174601E-2</v>
+      </c>
+      <c r="F56" s="26">
+        <v>0.127623611790459</v>
+      </c>
+      <c r="G56" s="26">
+        <v>5.3229612534886903E-3</v>
+      </c>
+      <c r="H56" s="26">
+        <v>-1.9457728877861302E-2</v>
+      </c>
+      <c r="I56" s="26">
+        <v>0.87028180748092399</v>
+      </c>
+      <c r="J56" s="27">
+        <v>304.83319523526802</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="33">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="B57" s="28">
+        <v>6.0794671118044201E-2</v>
+      </c>
+      <c r="C57" s="28">
+        <v>-0.42621691827696101</v>
+      </c>
+      <c r="D57" s="28">
+        <v>0.14194563342636499</v>
+      </c>
+      <c r="E57" s="28">
+        <v>1.7630454624232801E-2</v>
+      </c>
+      <c r="F57" s="28">
+        <v>0.17016481572061301</v>
+      </c>
+      <c r="G57" s="28">
+        <v>7.09728167131828E-3</v>
+      </c>
+      <c r="H57" s="28">
+        <v>-2.48626535661561E-2</v>
+      </c>
+      <c r="I57" s="28">
+        <v>0.875686732169219</v>
+      </c>
+      <c r="J57" s="29">
+        <v>406.44426031368999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="32">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="B58" s="26">
+        <v>7.5993338897555301E-2</v>
+      </c>
+      <c r="C58" s="26">
+        <v>-0.53277114784620205</v>
+      </c>
+      <c r="D58" s="26">
+        <v>0.17743204178295699</v>
+      </c>
+      <c r="E58" s="26">
+        <v>2.2038068280291E-2</v>
+      </c>
+      <c r="F58" s="26">
+        <v>0.21270601965076599</v>
+      </c>
+      <c r="G58" s="26">
+        <v>8.8716020891478706E-3</v>
+      </c>
+      <c r="H58" s="26">
+        <v>-2.9835184279387202E-2</v>
+      </c>
+      <c r="I58" s="26">
+        <v>0.880659262882451</v>
+      </c>
+      <c r="J58" s="27">
+        <v>508.05532539211202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="33">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="B59" s="28">
+        <v>9.1192006677066395E-2</v>
+      </c>
+      <c r="C59" s="28">
+        <v>-0.63932537741544204</v>
+      </c>
+      <c r="D59" s="28">
+        <v>0.21291845013954799</v>
+      </c>
+      <c r="E59" s="28">
+        <v>2.6445681936349202E-2</v>
+      </c>
+      <c r="F59" s="28">
+        <v>0.255247223580919</v>
+      </c>
+      <c r="G59" s="28">
+        <v>1.06459225069774E-2</v>
+      </c>
+      <c r="H59" s="28">
+        <v>-3.4425212630062298E-2</v>
+      </c>
+      <c r="I59" s="28">
+        <v>0.88524929123312601</v>
+      </c>
+      <c r="J59" s="29">
+        <v>609.66639047053604</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="32">
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="B60" s="26">
+        <v>0.106390674456578</v>
+      </c>
+      <c r="C60" s="26">
+        <v>-0.74587960698468203</v>
+      </c>
+      <c r="D60" s="26">
+        <v>0.248404858496139</v>
+      </c>
+      <c r="E60" s="26">
+        <v>3.0853295592407501E-2</v>
+      </c>
+      <c r="F60" s="26">
+        <v>0.29778842751107198</v>
+      </c>
+      <c r="G60" s="26">
+        <v>1.2420242924807E-2</v>
+      </c>
+      <c r="H60" s="26">
+        <v>-3.8675238880687302E-2</v>
+      </c>
+      <c r="I60" s="26">
+        <v>0.889499317483751</v>
+      </c>
+      <c r="J60" s="27">
+        <v>711.27745554895796</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="33">
+        <f t="shared" si="3"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="B61" s="28">
+        <v>0.121589342236089</v>
+      </c>
+      <c r="C61" s="28">
+        <v>-0.85243383655392202</v>
+      </c>
+      <c r="D61" s="28">
+        <v>0.28389126685273097</v>
+      </c>
+      <c r="E61" s="28">
+        <v>3.5260909248465602E-2</v>
+      </c>
+      <c r="F61" s="28">
+        <v>0.34032963144122502</v>
+      </c>
+      <c r="G61" s="28">
+        <v>1.41945633426366E-2</v>
+      </c>
+      <c r="H61" s="28">
+        <v>-4.26216918276962E-2</v>
+      </c>
+      <c r="I61" s="28">
+        <v>0.89344577043076001</v>
+      </c>
+      <c r="J61" s="29">
+        <v>812.88852062738101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="32">
+        <f t="shared" si="3"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="B62" s="26">
+        <v>0.13678801001560001</v>
+      </c>
+      <c r="C62" s="26">
+        <v>-0.95898806612316301</v>
+      </c>
+      <c r="D62" s="26">
+        <v>0.31937767520932198</v>
+      </c>
+      <c r="E62" s="26">
+        <v>3.9668522904523801E-2</v>
+      </c>
+      <c r="F62" s="26">
+        <v>0.382870835371378</v>
+      </c>
+      <c r="G62" s="26">
+        <v>1.59688837604661E-2</v>
+      </c>
+      <c r="H62" s="26">
+        <v>-4.6295975605945901E-2</v>
+      </c>
+      <c r="I62" s="26">
+        <v>0.89712005420900898</v>
+      </c>
+      <c r="J62" s="27">
+        <v>914.49958570580304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="33">
+        <f t="shared" si="3"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="B63" s="28">
+        <v>0.15198667779511099</v>
+      </c>
+      <c r="C63" s="28">
+        <v>-1.0655422956924001</v>
+      </c>
+      <c r="D63" s="28">
+        <v>0.35486408356591298</v>
+      </c>
+      <c r="E63" s="28">
+        <v>4.4076136560582201E-2</v>
+      </c>
+      <c r="F63" s="28">
+        <v>0.42541203930153199</v>
+      </c>
+      <c r="G63" s="28">
+        <v>1.77432041782957E-2</v>
+      </c>
+      <c r="H63" s="28">
+        <v>-4.9725307132311998E-2</v>
+      </c>
+      <c r="I63" s="28">
+        <v>0.90054938573537602</v>
+      </c>
+      <c r="J63" s="29">
+        <v>1016.11065078423</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="32">
+        <f t="shared" si="3"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="B64" s="26">
+        <v>0.167185345574622</v>
+      </c>
+      <c r="C64" s="26">
+        <v>-1.17209652526164</v>
+      </c>
+      <c r="D64" s="26">
+        <v>0.39035049192250498</v>
+      </c>
+      <c r="E64" s="26">
+        <v>4.8483750216640302E-2</v>
+      </c>
+      <c r="F64" s="26">
+        <v>0.46795324323168502</v>
+      </c>
+      <c r="G64" s="26">
+        <v>1.95175245961253E-2</v>
+      </c>
+      <c r="H64" s="26">
+        <v>-5.2933391463429097E-2</v>
+      </c>
+      <c r="I64" s="26">
+        <v>0.90375747006649298</v>
+      </c>
+      <c r="J64" s="27">
+        <v>1117.7217158626499</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="33">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="B65" s="28">
+        <v>0.18238401335413301</v>
+      </c>
+      <c r="C65" s="28">
+        <v>-1.2786507548308801</v>
+      </c>
+      <c r="D65" s="28">
+        <v>0.42583690027909599</v>
+      </c>
+      <c r="E65" s="28">
+        <v>5.2891363872698403E-2</v>
+      </c>
+      <c r="F65" s="28">
+        <v>0.51049444716183801</v>
+      </c>
+      <c r="G65" s="28">
+        <v>2.1291845013954799E-2</v>
+      </c>
+      <c r="H65" s="28">
+        <v>-5.5940970523851198E-2</v>
+      </c>
+      <c r="I65" s="28">
+        <v>0.90676504912691502</v>
+      </c>
+      <c r="J65" s="29">
+        <v>1219.33278094107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="32">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
+      <c r="B66" s="26">
+        <v>0.19758268113364399</v>
+      </c>
+      <c r="C66" s="26">
+        <v>-1.38520498440012</v>
+      </c>
+      <c r="D66" s="26">
+        <v>0.46132330863568699</v>
+      </c>
+      <c r="E66" s="26">
+        <v>5.7298977528756699E-2</v>
+      </c>
+      <c r="F66" s="26">
+        <v>0.55303565109199104</v>
+      </c>
+      <c r="G66" s="26">
+        <v>2.3066165431784399E-2</v>
+      </c>
+      <c r="H66" s="26">
+        <v>-5.8766272065459799E-2</v>
+      </c>
+      <c r="I66" s="26">
+        <v>0.90959035066852301</v>
+      </c>
+      <c r="J66" s="27">
+        <v>1320.9438460194899</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="33">
+        <f t="shared" si="3"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="B67" s="28">
+        <v>0.21278134891315501</v>
+      </c>
+      <c r="C67" s="28">
+        <v>-1.4917592139693601</v>
+      </c>
+      <c r="D67" s="28">
+        <v>0.49680971699227899</v>
+      </c>
+      <c r="E67" s="28">
+        <v>6.1706591184814898E-2</v>
+      </c>
+      <c r="F67" s="28">
+        <v>0.59557685502214397</v>
+      </c>
+      <c r="G67" s="28">
+        <v>2.4840485849614E-2</v>
+      </c>
+      <c r="H67" s="28">
+        <v>-6.1425379398738503E-2</v>
+      </c>
+      <c r="I67" s="28">
+        <v>0.91224945800180202</v>
+      </c>
+      <c r="J67" s="29">
+        <v>1422.55491109792</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="32">
+        <f t="shared" si="3"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="B68" s="26">
+        <v>0.22798001669266599</v>
+      </c>
+      <c r="C68" s="26">
+        <v>-1.5983134435386099</v>
+      </c>
+      <c r="D68" s="26">
+        <v>0.53229612534887005</v>
+      </c>
+      <c r="E68" s="26">
+        <v>6.6114204840873103E-2</v>
+      </c>
+      <c r="F68" s="26">
+        <v>0.63811805895229801</v>
+      </c>
+      <c r="G68" s="26">
+        <v>2.6614806267443499E-2</v>
+      </c>
+      <c r="H68" s="26">
+        <v>-6.3932537741544102E-2</v>
+      </c>
+      <c r="I68" s="26">
+        <v>0.91475661634460803</v>
+      </c>
+      <c r="J68" s="27">
+        <v>1524.1659761763401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="33">
+        <f t="shared" si="3"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="B69" s="28">
+        <v>0.243178684472177</v>
+      </c>
+      <c r="C69" s="28">
+        <v>-1.70486767310785</v>
+      </c>
+      <c r="D69" s="28">
+        <v>0.56778253370546095</v>
+      </c>
+      <c r="E69" s="28">
+        <v>7.0521818496931302E-2</v>
+      </c>
+      <c r="F69" s="28">
+        <v>0.68065926288245104</v>
+      </c>
+      <c r="G69" s="28">
+        <v>2.8389126685273099E-2</v>
+      </c>
+      <c r="H69" s="28">
+        <v>-6.6300409509749594E-2</v>
+      </c>
+      <c r="I69" s="28">
+        <v>0.917124488112813</v>
+      </c>
+      <c r="J69" s="29">
+        <v>1625.77704125476</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="32">
+        <f t="shared" si="3"/>
+        <v>0.8500000000000002</v>
+      </c>
+      <c r="B70" s="26">
+        <v>0.25837735225168801</v>
+      </c>
+      <c r="C70" s="26">
+        <v>-1.8114219026770899</v>
+      </c>
+      <c r="D70" s="26">
+        <v>0.60326894206205295</v>
+      </c>
+      <c r="E70" s="26">
+        <v>7.4929432152989597E-2</v>
+      </c>
+      <c r="F70" s="26">
+        <v>0.72320046681260397</v>
+      </c>
+      <c r="G70" s="26">
+        <v>3.0163447103102599E-2</v>
+      </c>
+      <c r="H70" s="26">
+        <v>-6.8540288209403305E-2</v>
+      </c>
+      <c r="I70" s="26">
+        <v>0.91936436681246703</v>
+      </c>
+      <c r="J70" s="27">
+        <v>1727.3881063331801</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="33">
+        <f t="shared" si="3"/>
+        <v>0.90000000000000024</v>
+      </c>
+      <c r="B71" s="28">
+        <v>0.27357602003119902</v>
+      </c>
+      <c r="C71" s="28">
+        <v>-1.91797613224633</v>
+      </c>
+      <c r="D71" s="28">
+        <v>0.63875535041864395</v>
+      </c>
+      <c r="E71" s="28">
+        <v>7.9337045809047796E-2</v>
+      </c>
+      <c r="F71" s="28">
+        <v>0.76574167074275701</v>
+      </c>
+      <c r="G71" s="28">
+        <v>3.1937767520932199E-2</v>
+      </c>
+      <c r="H71" s="28">
+        <v>-7.0662278556443595E-2</v>
+      </c>
+      <c r="I71" s="28">
+        <v>0.921486357159507</v>
+      </c>
+      <c r="J71" s="29">
+        <v>1828.99917141161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="32">
+        <f t="shared" si="3"/>
+        <v>0.95000000000000029</v>
+      </c>
+      <c r="B72" s="26">
+        <v>0.28877468781070997</v>
+      </c>
+      <c r="C72" s="26">
+        <v>-2.0245303618155699</v>
+      </c>
+      <c r="D72" s="26">
+        <v>0.67424175877523496</v>
+      </c>
+      <c r="E72" s="26">
+        <v>8.3744659465105897E-2</v>
+      </c>
+      <c r="F72" s="26">
+        <v>0.80828287467291005</v>
+      </c>
+      <c r="G72" s="26">
+        <v>3.3712087938761799E-2</v>
+      </c>
+      <c r="H72" s="26">
+        <v>-7.2675448885687E-2</v>
+      </c>
+      <c r="I72" s="26">
+        <v>0.92349952748875097</v>
+      </c>
+      <c r="J72" s="27">
+        <v>1930.61023649003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="33">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="B73" s="28">
+        <v>0.30397335559022098</v>
+      </c>
+      <c r="C73" s="28">
+        <v>-2.13108459138481</v>
+      </c>
+      <c r="D73" s="28">
+        <v>0.70972816713182696</v>
+      </c>
+      <c r="E73" s="28">
+        <v>8.8152273121163999E-2</v>
+      </c>
+      <c r="F73" s="28">
+        <v>0.85082407860306397</v>
+      </c>
+      <c r="G73" s="28">
+        <v>3.5486408356591302E-2</v>
+      </c>
+      <c r="H73" s="28">
+        <v>-7.4587960698468195E-2</v>
+      </c>
+      <c r="I73" s="28">
+        <v>0.92541203930153204</v>
+      </c>
+      <c r="J73" s="29">
+        <v>2032.2213015684499</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A51:J51"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="7" width="26.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="9" max="10" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="B4" s="26">
+        <v>-6.0201044544565901E-2</v>
+      </c>
+      <c r="C4" s="26">
+        <v>-7.03171225018954E-3</v>
+      </c>
+      <c r="D4" s="26">
+        <v>-7.9992314157480995E-2</v>
+      </c>
+      <c r="E4" s="26">
+        <v>3.2541697082075799E-2</v>
+      </c>
+      <c r="F4" s="26">
+        <v>-4.9221985751325703E-4</v>
+      </c>
+      <c r="G4" s="26">
+        <v>-3.9996157078740499E-3</v>
+      </c>
+      <c r="H4" s="26">
+        <v>-1.6626955159927799E-2</v>
+      </c>
+      <c r="I4" s="26">
+        <v>0.66746089680144405</v>
+      </c>
+      <c r="J4" s="27">
+        <v>702776.37507396005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
+        <f>A4+5%</f>
+        <v>0.1</v>
+      </c>
+      <c r="B5" s="28">
+        <v>-0.120402089089132</v>
+      </c>
+      <c r="C5" s="28">
+        <v>-1.40634245003778E-2</v>
+      </c>
+      <c r="D5" s="28">
+        <v>-0.15998462831496199</v>
+      </c>
+      <c r="E5" s="28">
+        <v>6.5083394164151806E-2</v>
+      </c>
+      <c r="F5" s="28">
+        <v>-9.8443971502643296E-4</v>
+      </c>
+      <c r="G5" s="28">
+        <v>-7.9992314157481207E-3</v>
+      </c>
+      <c r="H5" s="28">
+        <v>-3.1742368941680303E-2</v>
+      </c>
+      <c r="I5" s="28">
+        <v>0.68257631058319801</v>
+      </c>
+      <c r="J5" s="29">
+        <v>1405552.7501479201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
+        <f t="shared" ref="A6:A23" si="0">A5+5%</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="B6" s="26">
+        <v>-0.18060313363369801</v>
+      </c>
+      <c r="C6" s="26">
+        <v>-2.1095136750566498E-2</v>
+      </c>
+      <c r="D6" s="26">
+        <v>-0.239976942472443</v>
+      </c>
+      <c r="E6" s="26">
+        <v>9.7625091246227605E-2</v>
+      </c>
+      <c r="F6" s="26">
+        <v>-1.47665957253964E-3</v>
+      </c>
+      <c r="G6" s="26">
+        <v>-1.1998847123622199E-2</v>
+      </c>
+      <c r="H6" s="26">
+        <v>-4.55433989163238E-2</v>
+      </c>
+      <c r="I6" s="26">
+        <v>0.69637734055783995</v>
+      </c>
+      <c r="J6" s="27">
+        <v>2108329.1252218699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="B7" s="28">
+        <v>-0.24080417817826399</v>
+      </c>
+      <c r="C7" s="28">
+        <v>-2.81268490007552E-2</v>
+      </c>
+      <c r="D7" s="28">
+        <v>-0.31996925662992398</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0.130166788328303</v>
+      </c>
+      <c r="F7" s="28">
+        <v>-1.9688794300528499E-3</v>
+      </c>
+      <c r="G7" s="28">
+        <v>-1.59984628314962E-2</v>
+      </c>
+      <c r="H7" s="28">
+        <v>-5.8194343059747203E-2</v>
+      </c>
+      <c r="I7" s="28">
+        <v>0.709028284701264</v>
+      </c>
+      <c r="J7" s="29">
+        <v>2811105.50029583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="B8" s="26">
+        <v>-0.30100522272282998</v>
+      </c>
+      <c r="C8" s="26">
+        <v>-3.5158561250944499E-2</v>
+      </c>
+      <c r="D8" s="26">
+        <v>-0.39996157078740502</v>
+      </c>
+      <c r="E8" s="26">
+        <v>0.16270848541037899</v>
+      </c>
+      <c r="F8" s="26">
+        <v>-2.4610992875661098E-3</v>
+      </c>
+      <c r="G8" s="26">
+        <v>-1.9998078539370301E-2</v>
+      </c>
+      <c r="H8" s="26">
+        <v>-6.9833211671696496E-2</v>
+      </c>
+      <c r="I8" s="26">
+        <v>0.72066715331321296</v>
+      </c>
+      <c r="J8" s="27">
+        <v>3513881.87536979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="B9" s="28">
+        <v>-0.36120626726739602</v>
+      </c>
+      <c r="C9" s="28">
+        <v>-4.2190273501133101E-2</v>
+      </c>
+      <c r="D9" s="28">
+        <v>-0.479953884944887</v>
+      </c>
+      <c r="E9" s="28">
+        <v>0.19525018249245499</v>
+      </c>
+      <c r="F9" s="28">
+        <v>-2.9533191450793E-3</v>
+      </c>
+      <c r="G9" s="28">
+        <v>-2.3997694247244301E-2</v>
+      </c>
+      <c r="H9" s="28">
+        <v>-8.0576782698111402E-2</v>
+      </c>
+      <c r="I9" s="28">
+        <v>0.73141072433962895</v>
+      </c>
+      <c r="J9" s="29">
+        <v>4216658.2504437501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="B10" s="26">
+        <v>-0.421407311811962</v>
+      </c>
+      <c r="C10" s="26">
+        <v>-4.9221985751322E-2</v>
+      </c>
+      <c r="D10" s="26">
+        <v>-0.55994619910236698</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0.22779187957453101</v>
+      </c>
+      <c r="F10" s="26">
+        <v>-3.44553900259252E-3</v>
+      </c>
+      <c r="G10" s="26">
+        <v>-2.7997309955118399E-2</v>
+      </c>
+      <c r="H10" s="26">
+        <v>-9.0524533648495498E-2</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0.74135847529001198</v>
+      </c>
+      <c r="J10" s="27">
+        <v>4919434.6255176999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="B11" s="28">
+        <v>-0.48160835635652699</v>
+      </c>
+      <c r="C11" s="28">
+        <v>-5.6253698001510699E-2</v>
+      </c>
+      <c r="D11" s="28">
+        <v>-0.63993851325984896</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0.260333576656607</v>
+      </c>
+      <c r="F11" s="28">
+        <v>-3.9377588601057396E-3</v>
+      </c>
+      <c r="G11" s="28">
+        <v>-3.19969256629924E-2</v>
+      </c>
+      <c r="H11" s="28">
+        <v>-9.9761730959566405E-2</v>
+      </c>
+      <c r="I11" s="28">
+        <v>0.75059567260108395</v>
+      </c>
+      <c r="J11" s="29">
+        <v>5622211.0005916702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="B12" s="26">
+        <v>-0.54180940090109297</v>
+      </c>
+      <c r="C12" s="26">
+        <v>-6.3285410251699398E-2</v>
+      </c>
+      <c r="D12" s="26">
+        <v>-0.71993082741732894</v>
+      </c>
+      <c r="E12" s="26">
+        <v>0.292875273738683</v>
+      </c>
+      <c r="F12" s="26">
+        <v>-4.4299787176189497E-3</v>
+      </c>
+      <c r="G12" s="26">
+        <v>-3.5996541370866497E-2</v>
+      </c>
+      <c r="H12" s="26">
+        <v>-0.108361880180219</v>
+      </c>
+      <c r="I12" s="26">
+        <v>0.75919582182173595</v>
+      </c>
+      <c r="J12" s="27">
+        <v>6324987.3756656302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <f t="shared" si="0"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="B13" s="28">
+        <v>-0.60201044544565896</v>
+      </c>
+      <c r="C13" s="28">
+        <v>-7.0317122501888402E-2</v>
+      </c>
+      <c r="D13" s="28">
+        <v>-0.79992314157481004</v>
+      </c>
+      <c r="E13" s="28">
+        <v>0.32541697082075899</v>
+      </c>
+      <c r="F13" s="28">
+        <v>-4.9221985751321798E-3</v>
+      </c>
+      <c r="G13" s="28">
+        <v>-3.9996157078740498E-2</v>
+      </c>
+      <c r="H13" s="28">
+        <v>-0.116388686119494</v>
+      </c>
+      <c r="I13" s="28">
+        <v>0.76722262776101202</v>
+      </c>
+      <c r="J13" s="29">
+        <v>7027763.7507395903</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
+        <f t="shared" si="0"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="B14" s="26">
+        <v>-0.66221148999022506</v>
+      </c>
+      <c r="C14" s="26">
+        <v>-7.7348834752077406E-2</v>
+      </c>
+      <c r="D14" s="26">
+        <v>-0.87991545573229302</v>
+      </c>
+      <c r="E14" s="26">
+        <v>0.35795866790283398</v>
+      </c>
+      <c r="F14" s="26">
+        <v>-5.4144184326454002E-3</v>
+      </c>
+      <c r="G14" s="26">
+        <v>-4.3995772786614602E-2</v>
+      </c>
+      <c r="H14" s="26">
+        <v>-0.123897633611075</v>
+      </c>
+      <c r="I14" s="26">
+        <v>0.77473157525259195</v>
+      </c>
+      <c r="J14" s="27">
+        <v>7730540.1258135503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="B15" s="28">
+        <v>-0.72241253453479204</v>
+      </c>
+      <c r="C15" s="28">
+        <v>-8.4380547002266298E-2</v>
+      </c>
+      <c r="D15" s="28">
+        <v>-0.959907769889773</v>
+      </c>
+      <c r="E15" s="28">
+        <v>0.39050036498491097</v>
+      </c>
+      <c r="F15" s="28">
+        <v>-5.9066382901586199E-3</v>
+      </c>
+      <c r="G15" s="28">
+        <v>-4.79953884944887E-2</v>
+      </c>
+      <c r="H15" s="28">
+        <v>-0.13093727188443099</v>
+      </c>
+      <c r="I15" s="28">
+        <v>0.78177121352594903</v>
+      </c>
+      <c r="J15" s="29">
+        <v>8433316.5008875001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="32">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="B16" s="26">
+        <v>-0.78261357907935702</v>
+      </c>
+      <c r="C16" s="26">
+        <v>-9.1412259252455094E-2</v>
+      </c>
+      <c r="D16" s="26">
+        <v>-1.0399000840472501</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0.42304206206698602</v>
+      </c>
+      <c r="F16" s="26">
+        <v>-6.3988581476718499E-3</v>
+      </c>
+      <c r="G16" s="26">
+        <v>-5.19950042023627E-2</v>
+      </c>
+      <c r="H16" s="26">
+        <v>-0.13755026541394799</v>
+      </c>
+      <c r="I16" s="26">
+        <v>0.78838420705546497</v>
+      </c>
+      <c r="J16" s="27">
+        <v>9136092.8759614602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="B17" s="28">
+        <v>-0.84281462362392401</v>
+      </c>
+      <c r="C17" s="28">
+        <v>-9.8443971502643599E-2</v>
+      </c>
+      <c r="D17" s="28">
+        <v>-1.11989239820473</v>
+      </c>
+      <c r="E17" s="28">
+        <v>0.45558375914906202</v>
+      </c>
+      <c r="F17" s="28">
+        <v>-6.89107800518504E-3</v>
+      </c>
+      <c r="G17" s="28">
+        <v>-5.5994619910236798E-2</v>
+      </c>
+      <c r="H17" s="28">
+        <v>-0.143774259324081</v>
+      </c>
+      <c r="I17" s="28">
+        <v>0.79460820096559903</v>
+      </c>
+      <c r="J17" s="29">
+        <v>9838869.2510353997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
+        <f t="shared" si="0"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="B18" s="26">
+        <v>-0.90301566816848999</v>
+      </c>
+      <c r="C18" s="26">
+        <v>-0.105475683752833</v>
+      </c>
+      <c r="D18" s="26">
+        <v>-1.1998847123622201</v>
+      </c>
+      <c r="E18" s="26">
+        <v>0.48812545623113801</v>
+      </c>
+      <c r="F18" s="26">
+        <v>-7.3832978626982796E-3</v>
+      </c>
+      <c r="G18" s="26">
+        <v>-5.9994235618110799E-2</v>
+      </c>
+      <c r="H18" s="26">
+        <v>-0.14964259643934999</v>
+      </c>
+      <c r="I18" s="26">
+        <v>0.80047653808086705</v>
+      </c>
+      <c r="J18" s="27">
+        <v>10541645.626109401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
+        <f t="shared" si="0"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="B19" s="28">
+        <v>-0.96321671271305498</v>
+      </c>
+      <c r="C19" s="28">
+        <v>-0.11250739600302199</v>
+      </c>
+      <c r="D19" s="28">
+        <v>-1.2798770265196999</v>
+      </c>
+      <c r="E19" s="28">
+        <v>0.520667153313214</v>
+      </c>
+      <c r="F19" s="28">
+        <v>-7.8755177202115001E-3</v>
+      </c>
+      <c r="G19" s="28">
+        <v>-6.3993851325984799E-2</v>
+      </c>
+      <c r="H19" s="28">
+        <v>-0.155184914825992</v>
+      </c>
+      <c r="I19" s="28">
+        <v>0.80601885646750904</v>
+      </c>
+      <c r="J19" s="29">
+        <v>11244422.001183299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="32">
+        <f t="shared" si="0"/>
+        <v>0.8500000000000002</v>
+      </c>
+      <c r="B20" s="26">
+        <v>-1.02341775725762</v>
+      </c>
+      <c r="C20" s="26">
+        <v>-0.11953910825321</v>
+      </c>
+      <c r="D20" s="26">
+        <v>-1.35986934067718</v>
+      </c>
+      <c r="E20" s="26">
+        <v>0.55320885039529</v>
+      </c>
+      <c r="F20" s="26">
+        <v>-8.3677375777246894E-3</v>
+      </c>
+      <c r="G20" s="26">
+        <v>-6.7993467033859001E-2</v>
+      </c>
+      <c r="H20" s="26">
+        <v>-0.160427648434979</v>
+      </c>
+      <c r="I20" s="26">
+        <v>0.81126159007649601</v>
+      </c>
+      <c r="J20" s="27">
+        <v>11947198.3762573</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="33">
+        <f t="shared" si="0"/>
+        <v>0.90000000000000024</v>
+      </c>
+      <c r="B21" s="28">
+        <v>-1.0836188018021899</v>
+      </c>
+      <c r="C21" s="28">
+        <v>-0.12657082050339899</v>
+      </c>
+      <c r="D21" s="28">
+        <v>-1.4398616548346601</v>
+      </c>
+      <c r="E21" s="28">
+        <v>0.58575054747736499</v>
+      </c>
+      <c r="F21" s="28">
+        <v>-8.8599574352379307E-3</v>
+      </c>
+      <c r="G21" s="28">
+        <v>-7.1993082741732994E-2</v>
+      </c>
+      <c r="H21" s="28">
+        <v>-0.16539444869612299</v>
+      </c>
+      <c r="I21" s="28">
+        <v>0.81622839033764105</v>
+      </c>
+      <c r="J21" s="29">
+        <v>12649974.7513313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="32">
+        <f t="shared" si="0"/>
+        <v>0.95000000000000029</v>
+      </c>
+      <c r="B22" s="26">
+        <v>-1.1438198463467499</v>
+      </c>
+      <c r="C22" s="26">
+        <v>-0.13360253275358799</v>
+      </c>
+      <c r="D22" s="26">
+        <v>-1.51985396899214</v>
+      </c>
+      <c r="E22" s="26">
+        <v>0.61829224455944098</v>
+      </c>
+      <c r="F22" s="26">
+        <v>-9.3521772927511407E-3</v>
+      </c>
+      <c r="G22" s="26">
+        <v>-7.5992698449607002E-2</v>
+      </c>
+      <c r="H22" s="26">
+        <v>-0.17010654125156899</v>
+      </c>
+      <c r="I22" s="26">
+        <v>0.82094048289308497</v>
+      </c>
+      <c r="J22" s="27">
+        <v>13352751.1264052</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="B23" s="28">
+        <v>-1.2040208908913199</v>
+      </c>
+      <c r="C23" s="28">
+        <v>-0.140634245003777</v>
+      </c>
+      <c r="D23" s="28">
+        <v>-1.5998462831496201</v>
+      </c>
+      <c r="E23" s="28">
+        <v>0.65083394164151698</v>
+      </c>
+      <c r="F23" s="28">
+        <v>-9.8443971502643699E-3</v>
+      </c>
+      <c r="G23" s="28">
+        <v>-7.9992314157481106E-2</v>
+      </c>
+      <c r="H23" s="28">
+        <v>-0.17458302917924101</v>
+      </c>
+      <c r="I23" s="28">
+        <v>0.82541697082075804</v>
+      </c>
+      <c r="J23" s="29">
+        <v>14055527.501479199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="1:10" ht="38.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="B29" s="26">
+        <v>-7.1396951464903005E-2</v>
+      </c>
+      <c r="C29" s="26">
+        <v>-4.04299270187162E-2</v>
+      </c>
+      <c r="D29" s="26">
+        <v>-0.14225526564209501</v>
+      </c>
+      <c r="E29" s="26">
+        <v>2.92948840751781E-2</v>
+      </c>
+      <c r="F29" s="26">
+        <v>-2.8300948913101199E-3</v>
+      </c>
+      <c r="G29" s="26">
+        <v>-7.1127632821047998E-3</v>
+      </c>
+      <c r="H29" s="26">
+        <v>-1.97191580236399E-2</v>
+      </c>
+      <c r="I29" s="26">
+        <v>0.60561683952720202</v>
+      </c>
+      <c r="J29" s="27">
+        <v>594172.67650196899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="33">
+        <f>A29+5%</f>
+        <v>0.1</v>
+      </c>
+      <c r="B30" s="28">
+        <v>-0.14279390292980601</v>
+      </c>
+      <c r="C30" s="28">
+        <v>-8.0859854037432302E-2</v>
+      </c>
+      <c r="D30" s="28">
+        <v>-0.28451053128419102</v>
+      </c>
+      <c r="E30" s="28">
+        <v>5.8589768150356297E-2</v>
+      </c>
+      <c r="F30" s="28">
+        <v>-5.6601897826202303E-3</v>
+      </c>
+      <c r="G30" s="28">
+        <v>-1.42255265642096E-2</v>
+      </c>
+      <c r="H30" s="28">
+        <v>-3.7645665317857999E-2</v>
+      </c>
+      <c r="I30" s="28">
+        <v>0.62354334682141999</v>
+      </c>
+      <c r="J30" s="29">
+        <v>1188345.3530039401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="32">
+        <f t="shared" ref="A31:A48" si="1">A30+5%</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="B31" s="26">
+        <v>-0.214190854394709</v>
+      </c>
+      <c r="C31" s="26">
+        <v>-0.121289781056148</v>
+      </c>
+      <c r="D31" s="26">
+        <v>-0.42676579692628602</v>
+      </c>
+      <c r="E31" s="26">
+        <v>8.7884652225534293E-2</v>
+      </c>
+      <c r="F31" s="26">
+        <v>-8.4902846739303497E-3</v>
+      </c>
+      <c r="G31" s="26">
+        <v>-2.13382898463143E-2</v>
+      </c>
+      <c r="H31" s="26">
+        <v>-5.4013345890839601E-2</v>
+      </c>
+      <c r="I31" s="26">
+        <v>0.63991102739440198</v>
+      </c>
+      <c r="J31" s="27">
+        <v>1782518.0295059001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="33">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="B32" s="28">
+        <v>-0.28558780585961202</v>
+      </c>
+      <c r="C32" s="28">
+        <v>-0.16171970807486499</v>
+      </c>
+      <c r="D32" s="28">
+        <v>-0.56902106256838303</v>
+      </c>
+      <c r="E32" s="28">
+        <v>0.117179536300712</v>
+      </c>
+      <c r="F32" s="28">
+        <v>-1.13203795652405E-2</v>
+      </c>
+      <c r="G32" s="28">
+        <v>-2.8451053128419099E-2</v>
+      </c>
+      <c r="H32" s="28">
+        <v>-6.9017053082739699E-2</v>
+      </c>
+      <c r="I32" s="28">
+        <v>0.65491473458630201</v>
+      </c>
+      <c r="J32" s="29">
+        <v>2376690.7060078802</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="32">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="B33" s="26">
+        <v>-0.35698475732451501</v>
+      </c>
+      <c r="C33" s="26">
+        <v>-0.202149635093581</v>
+      </c>
+      <c r="D33" s="26">
+        <v>-0.71127632821047804</v>
+      </c>
+      <c r="E33" s="26">
+        <v>0.14647442037589101</v>
+      </c>
+      <c r="F33" s="26">
+        <v>-1.4150474456550601E-2</v>
+      </c>
+      <c r="G33" s="26">
+        <v>-3.5563816410523898E-2</v>
+      </c>
+      <c r="H33" s="26">
+        <v>-8.2820463699287597E-2</v>
+      </c>
+      <c r="I33" s="26">
+        <v>0.66871814520285</v>
+      </c>
+      <c r="J33" s="27">
+        <v>2970863.3825098402</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="33">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="B34" s="28">
+        <v>-0.428381708789419</v>
+      </c>
+      <c r="C34" s="28">
+        <v>-0.242579562112297</v>
+      </c>
+      <c r="D34" s="28">
+        <v>-0.85353159385257404</v>
+      </c>
+      <c r="E34" s="28">
+        <v>0.175769304451069</v>
+      </c>
+      <c r="F34" s="28">
+        <v>-1.69805693478608E-2</v>
+      </c>
+      <c r="G34" s="28">
+        <v>-4.2676579692628697E-2</v>
+      </c>
+      <c r="H34" s="28">
+        <v>-9.5562073499178002E-2</v>
+      </c>
+      <c r="I34" s="28">
+        <v>0.68145975500274003</v>
+      </c>
+      <c r="J34" s="29">
+        <v>3565036.05901181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="32">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+      <c r="B35" s="26">
+        <v>-0.49977866025432199</v>
+      </c>
+      <c r="C35" s="26">
+        <v>-0.28300948913101398</v>
+      </c>
+      <c r="D35" s="26">
+        <v>-0.99578685949467005</v>
+      </c>
+      <c r="E35" s="26">
+        <v>0.205064188526247</v>
+      </c>
+      <c r="F35" s="26">
+        <v>-1.98106642391709E-2</v>
+      </c>
+      <c r="G35" s="26">
+        <v>-4.9789342974733503E-2</v>
+      </c>
+      <c r="H35" s="26">
+        <v>-0.107359860350928</v>
+      </c>
+      <c r="I35" s="26">
+        <v>0.69325754185448996</v>
+      </c>
+      <c r="J35" s="27">
+        <v>4159208.7355137798</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="33">
+        <f t="shared" si="1"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="B36" s="28">
+        <v>-0.57117561171922504</v>
+      </c>
+      <c r="C36" s="28">
+        <v>-0.32343941614972999</v>
+      </c>
+      <c r="D36" s="28">
+        <v>-1.1380421251367701</v>
+      </c>
+      <c r="E36" s="28">
+        <v>0.23435907260142499</v>
+      </c>
+      <c r="F36" s="28">
+        <v>-2.2640759130481102E-2</v>
+      </c>
+      <c r="G36" s="28">
+        <v>-5.6902106256838302E-2</v>
+      </c>
+      <c r="H36" s="28">
+        <v>-0.118314948141839</v>
+      </c>
+      <c r="I36" s="28">
+        <v>0.70421262964540099</v>
+      </c>
+      <c r="J36" s="29">
+        <v>4753381.4120157501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="32">
+        <f t="shared" si="1"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="B37" s="26">
+        <v>-0.64257256318412803</v>
+      </c>
+      <c r="C37" s="26">
+        <v>-0.36386934316844599</v>
+      </c>
+      <c r="D37" s="26">
+        <v>-1.28029739077886</v>
+      </c>
+      <c r="E37" s="26">
+        <v>0.26365395667660302</v>
+      </c>
+      <c r="F37" s="26">
+        <v>-2.5470854021791198E-2</v>
+      </c>
+      <c r="G37" s="26">
+        <v>-6.4014869538943101E-2</v>
+      </c>
+      <c r="H37" s="26">
+        <v>-0.12851451263682601</v>
+      </c>
+      <c r="I37" s="26">
+        <v>0.71441219414038803</v>
+      </c>
+      <c r="J37" s="27">
+        <v>5347554.0885177199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="33">
+        <f t="shared" si="1"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="B38" s="28">
+        <v>-0.71396951464903102</v>
+      </c>
+      <c r="C38" s="28">
+        <v>-0.404299270187162</v>
+      </c>
+      <c r="D38" s="28">
+        <v>-1.4225526564209601</v>
+      </c>
+      <c r="E38" s="28">
+        <v>0.29294884075178101</v>
+      </c>
+      <c r="F38" s="28">
+        <v>-2.8300948913101299E-2</v>
+      </c>
+      <c r="G38" s="28">
+        <v>-7.1127632821047795E-2</v>
+      </c>
+      <c r="H38" s="28">
+        <v>-0.13803410616547901</v>
+      </c>
+      <c r="I38" s="28">
+        <v>0.72393178766904098</v>
+      </c>
+      <c r="J38" s="29">
+        <v>5941726.7650196897</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="32">
+        <f t="shared" si="1"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="B39" s="26">
+        <v>-0.78536646611393401</v>
+      </c>
+      <c r="C39" s="26">
+        <v>-0.444729197205879</v>
+      </c>
+      <c r="D39" s="26">
+        <v>-1.56480792206305</v>
+      </c>
+      <c r="E39" s="26">
+        <v>0.32224372482695901</v>
+      </c>
+      <c r="F39" s="26">
+        <v>-3.11310438044115E-2</v>
+      </c>
+      <c r="G39" s="26">
+        <v>-7.8240396103152601E-2</v>
+      </c>
+      <c r="H39" s="26">
+        <v>-0.146939532369704</v>
+      </c>
+      <c r="I39" s="26">
+        <v>0.73283721387326595</v>
+      </c>
+      <c r="J39" s="27">
+        <v>6535899.4415216502</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="33">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="B40" s="28">
+        <v>-0.85676341757883701</v>
+      </c>
+      <c r="C40" s="28">
+        <v>-0.48515912422459501</v>
+      </c>
+      <c r="D40" s="28">
+        <v>-1.7070631877051501</v>
+      </c>
+      <c r="E40" s="28">
+        <v>0.35153860890213701</v>
+      </c>
+      <c r="F40" s="28">
+        <v>-3.39611386957216E-2</v>
+      </c>
+      <c r="G40" s="28">
+        <v>-8.5353159385257393E-2</v>
+      </c>
+      <c r="H40" s="28">
+        <v>-0.155288369436164</v>
+      </c>
+      <c r="I40" s="28">
+        <v>0.741186050939726</v>
+      </c>
+      <c r="J40" s="29">
+        <v>7130072.1180236302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="32">
+        <f t="shared" si="1"/>
+        <v>0.65</v>
+      </c>
+      <c r="B41" s="26">
+        <v>-0.92816036904374</v>
+      </c>
+      <c r="C41" s="26">
+        <v>-0.52558905124331101</v>
+      </c>
+      <c r="D41" s="26">
+        <v>-1.84931845334724</v>
+      </c>
+      <c r="E41" s="26">
+        <v>0.380833492977315</v>
+      </c>
+      <c r="F41" s="26">
+        <v>-3.6791233587031798E-2</v>
+      </c>
+      <c r="G41" s="26">
+        <v>-9.2465922667362199E-2</v>
+      </c>
+      <c r="H41" s="26">
+        <v>-0.16313121637738501</v>
+      </c>
+      <c r="I41" s="26">
+        <v>0.74902889788094695</v>
+      </c>
+      <c r="J41" s="27">
+        <v>7724244.7945256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="33">
+        <f t="shared" si="1"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="B42" s="28">
+        <v>-0.99955732050864299</v>
+      </c>
+      <c r="C42" s="28">
+        <v>-0.56601897826202696</v>
+      </c>
+      <c r="D42" s="28">
+        <v>-1.9915737189893401</v>
+      </c>
+      <c r="E42" s="28">
+        <v>0.410128377052493</v>
+      </c>
+      <c r="F42" s="28">
+        <v>-3.9621328478341898E-2</v>
+      </c>
+      <c r="G42" s="28">
+        <v>-9.9578685949467005E-2</v>
+      </c>
+      <c r="H42" s="28">
+        <v>-0.170512719380886</v>
+      </c>
+      <c r="I42" s="28">
+        <v>0.756410400884448</v>
+      </c>
+      <c r="J42" s="29">
+        <v>8318417.4710275596</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="32">
+        <f t="shared" si="1"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="B43" s="26">
+        <v>-1.0709542719735501</v>
+      </c>
+      <c r="C43" s="26">
+        <v>-0.60644890528074402</v>
+      </c>
+      <c r="D43" s="26">
+        <v>-2.1338289846314402</v>
+      </c>
+      <c r="E43" s="26">
+        <v>0.43942326112767199</v>
+      </c>
+      <c r="F43" s="26">
+        <v>-4.2451423369652103E-2</v>
+      </c>
+      <c r="G43" s="26">
+        <v>-0.10669144923157201</v>
+      </c>
+      <c r="H43" s="26">
+        <v>-0.177472422212759</v>
+      </c>
+      <c r="I43" s="26">
+        <v>0.76337010371632097</v>
+      </c>
+      <c r="J43" s="27">
+        <v>8912590.1475295294</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="33">
+        <f t="shared" si="1"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="B44" s="28">
+        <v>-1.1423512234384501</v>
+      </c>
+      <c r="C44" s="28">
+        <v>-0.64687883229945997</v>
+      </c>
+      <c r="D44" s="28">
+        <v>-2.2760842502735299</v>
+      </c>
+      <c r="E44" s="28">
+        <v>0.46871814520284999</v>
+      </c>
+      <c r="F44" s="28">
+        <v>-4.5281518260962203E-2</v>
+      </c>
+      <c r="G44" s="28">
+        <v>-0.11380421251367701</v>
+      </c>
+      <c r="H44" s="28">
+        <v>-0.18404547488730599</v>
+      </c>
+      <c r="I44" s="28">
+        <v>0.76994315639086797</v>
+      </c>
+      <c r="J44" s="29">
+        <v>9506762.8240315001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="32">
+        <f t="shared" si="1"/>
+        <v>0.8500000000000002</v>
+      </c>
+      <c r="B45" s="26">
+        <v>-1.2137481749033501</v>
+      </c>
+      <c r="C45" s="26">
+        <v>-0.68730875931817603</v>
+      </c>
+      <c r="D45" s="26">
+        <v>-2.4183395159156298</v>
+      </c>
+      <c r="E45" s="26">
+        <v>0.49801302927802799</v>
+      </c>
+      <c r="F45" s="26">
+        <v>-4.8111613152272303E-2</v>
+      </c>
+      <c r="G45" s="26">
+        <v>-0.12091697579578101</v>
+      </c>
+      <c r="H45" s="26">
+        <v>-0.19026322741728199</v>
+      </c>
+      <c r="I45" s="26">
+        <v>0.77616090892084399</v>
+      </c>
+      <c r="J45" s="27">
+        <v>10100935.500533501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="33">
+        <f t="shared" si="1"/>
+        <v>0.90000000000000024</v>
+      </c>
+      <c r="B46" s="28">
+        <v>-1.2851451263682601</v>
+      </c>
+      <c r="C46" s="28">
+        <v>-0.72773868633689198</v>
+      </c>
+      <c r="D46" s="28">
+        <v>-2.5605947815577199</v>
+      </c>
+      <c r="E46" s="28">
+        <v>0.52730791335320604</v>
+      </c>
+      <c r="F46" s="28">
+        <v>-5.0941708043582501E-2</v>
+      </c>
+      <c r="G46" s="28">
+        <v>-0.12802973907788601</v>
+      </c>
+      <c r="H46" s="28">
+        <v>-0.19615372981410201</v>
+      </c>
+      <c r="I46" s="28">
+        <v>0.78205141131766398</v>
+      </c>
+      <c r="J46" s="29">
+        <v>10695108.177035401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="32">
+        <f t="shared" si="1"/>
+        <v>0.95000000000000029</v>
+      </c>
+      <c r="B47" s="26">
+        <v>-1.3565420778331601</v>
+      </c>
+      <c r="C47" s="26">
+        <v>-0.76816861335560904</v>
+      </c>
+      <c r="D47" s="26">
+        <v>-2.7028500471998198</v>
+      </c>
+      <c r="E47" s="26">
+        <v>0.55660279742838403</v>
+      </c>
+      <c r="F47" s="26">
+        <v>-5.3771802934892601E-2</v>
+      </c>
+      <c r="G47" s="26">
+        <v>-0.13514250235999101</v>
+      </c>
+      <c r="H47" s="26">
+        <v>-0.20174215516493099</v>
+      </c>
+      <c r="I47" s="26">
+        <v>0.78763983666849302</v>
+      </c>
+      <c r="J47" s="27">
+        <v>11289280.853537399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="33">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="B48" s="28">
+        <v>-1.42793902929806</v>
+      </c>
+      <c r="C48" s="28">
+        <v>-0.80859854037432499</v>
+      </c>
+      <c r="D48" s="28">
+        <v>-2.8451053128419099</v>
+      </c>
+      <c r="E48" s="28">
+        <v>0.58589768150356203</v>
+      </c>
+      <c r="F48" s="28">
+        <v>-5.6601897826202702E-2</v>
+      </c>
+      <c r="G48" s="28">
+        <v>-0.14225526564209601</v>
+      </c>
+      <c r="H48" s="28">
+        <v>-0.20705115924821901</v>
+      </c>
+      <c r="I48" s="28">
+        <v>0.79294884075178096</v>
+      </c>
+      <c r="J48" s="29">
+        <v>11883453.5300394</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+    </row>
+    <row r="52" spans="1:10" ht="38.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I52" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J52" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="B54" s="26">
+        <v>-5.0897863152406901E-2</v>
+      </c>
+      <c r="C54" s="26">
+        <v>2.0484214097779702E-2</v>
+      </c>
+      <c r="D54" s="26">
+        <v>-4.3125736187924799E-2</v>
+      </c>
+      <c r="E54" s="26">
+        <v>3.5239619685801998E-2</v>
+      </c>
+      <c r="F54" s="26">
+        <v>1.4338949868446299E-3</v>
+      </c>
+      <c r="G54" s="26">
+        <v>-2.1562868093962101E-3</v>
+      </c>
+      <c r="H54" s="26">
+        <v>-1.4057505061141E-2</v>
+      </c>
+      <c r="I54" s="26">
+        <v>0.71884989877717997</v>
+      </c>
+      <c r="J54" s="27">
+        <v>833475.41760162194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="33">
+        <f>A54+5%</f>
+        <v>0.1</v>
+      </c>
+      <c r="B55" s="28">
+        <v>-0.101795726304814</v>
+      </c>
+      <c r="C55" s="28">
+        <v>4.0968428195560201E-2</v>
+      </c>
+      <c r="D55" s="28">
+        <v>-8.6251472375850097E-2</v>
+      </c>
+      <c r="E55" s="28">
+        <v>7.0479239371604094E-2</v>
+      </c>
+      <c r="F55" s="28">
+        <v>2.8677899736892099E-3</v>
+      </c>
+      <c r="G55" s="28">
+        <v>-4.3125736187925E-3</v>
+      </c>
+      <c r="H55" s="28">
+        <v>-2.6837055116723699E-2</v>
+      </c>
+      <c r="I55" s="28">
+        <v>0.73162944883276304</v>
+      </c>
+      <c r="J55" s="29">
+        <v>1666950.8352032399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="32">
+        <f t="shared" ref="A56:A73" si="2">A55+5%</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="B56" s="26">
+        <v>-0.152693589457221</v>
+      </c>
+      <c r="C56" s="26">
+        <v>6.1452642293340201E-2</v>
+      </c>
+      <c r="D56" s="26">
+        <v>-0.12937720856377499</v>
+      </c>
+      <c r="E56" s="26">
+        <v>0.10571885905740599</v>
+      </c>
+      <c r="F56" s="26">
+        <v>4.3016849605337802E-3</v>
+      </c>
+      <c r="G56" s="26">
+        <v>-6.4688604281887101E-3</v>
+      </c>
+      <c r="H56" s="26">
+        <v>-3.8505339950081797E-2</v>
+      </c>
+      <c r="I56" s="26">
+        <v>0.74329773366612095</v>
+      </c>
+      <c r="J56" s="27">
+        <v>2500426.25280486</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="33">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="B57" s="28">
+        <v>-0.20359145260962799</v>
+      </c>
+      <c r="C57" s="28">
+        <v>8.1936856391120097E-2</v>
+      </c>
+      <c r="D57" s="28">
+        <v>-0.1725029447517</v>
+      </c>
+      <c r="E57" s="28">
+        <v>0.14095847874320799</v>
+      </c>
+      <c r="F57" s="28">
+        <v>5.7355799473784198E-3</v>
+      </c>
+      <c r="G57" s="28">
+        <v>-8.6251472375849896E-3</v>
+      </c>
+      <c r="H57" s="28">
+        <v>-4.9201267713993503E-2</v>
+      </c>
+      <c r="I57" s="28">
+        <v>0.75399366143003299</v>
+      </c>
+      <c r="J57" s="29">
+        <v>3333901.6704064901</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="32">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="B58" s="26">
+        <v>-0.25448931576203498</v>
+      </c>
+      <c r="C58" s="26">
+        <v>0.10242107048890001</v>
+      </c>
+      <c r="D58" s="26">
+        <v>-0.21562868093962501</v>
+      </c>
+      <c r="E58" s="26">
+        <v>0.17619809842900999</v>
+      </c>
+      <c r="F58" s="26">
+        <v>7.1694749342229901E-3</v>
+      </c>
+      <c r="G58" s="26">
+        <v>-1.07814340469813E-2</v>
+      </c>
+      <c r="H58" s="26">
+        <v>-5.9041521256792101E-2</v>
+      </c>
+      <c r="I58" s="26">
+        <v>0.76383391497283204</v>
+      </c>
+      <c r="J58" s="27">
+        <v>4167377.0880081099</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="33">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="B59" s="28">
+        <v>-0.305387178914442</v>
+      </c>
+      <c r="C59" s="28">
+        <v>0.12290528458668</v>
+      </c>
+      <c r="D59" s="28">
+        <v>-0.25875441712755098</v>
+      </c>
+      <c r="E59" s="28">
+        <v>0.21143771811481199</v>
+      </c>
+      <c r="F59" s="28">
+        <v>8.6033699210675708E-3</v>
+      </c>
+      <c r="G59" s="28">
+        <v>-1.29377208563775E-2</v>
+      </c>
+      <c r="H59" s="28">
+        <v>-6.81248322193755E-2</v>
+      </c>
+      <c r="I59" s="28">
+        <v>0.77291722593541501</v>
+      </c>
+      <c r="J59" s="29">
+        <v>5000852.5056097303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="32">
+        <f t="shared" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="B60" s="26">
+        <v>-0.35628504206684902</v>
+      </c>
+      <c r="C60" s="26">
+        <v>0.14338949868445999</v>
+      </c>
+      <c r="D60" s="26">
+        <v>-0.30188015331547602</v>
+      </c>
+      <c r="E60" s="26">
+        <v>0.24667733780061399</v>
+      </c>
+      <c r="F60" s="26">
+        <v>1.00372649079123E-2</v>
+      </c>
+      <c r="G60" s="26">
+        <v>-1.50940076657738E-2</v>
+      </c>
+      <c r="H60" s="26">
+        <v>-7.6535305332878695E-2</v>
+      </c>
+      <c r="I60" s="26">
+        <v>0.78132769904891797</v>
+      </c>
+      <c r="J60" s="27">
+        <v>5834327.9232113604</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="33">
+        <f t="shared" si="2"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="B61" s="28">
+        <v>-0.40718290521925599</v>
+      </c>
+      <c r="C61" s="28">
+        <v>0.16387371278224</v>
+      </c>
+      <c r="D61" s="28">
+        <v>-0.345005889503401</v>
+      </c>
+      <c r="E61" s="28">
+        <v>0.28191695748641599</v>
+      </c>
+      <c r="F61" s="28">
+        <v>1.14711598947568E-2</v>
+      </c>
+      <c r="G61" s="28">
+        <v>-1.725029447517E-2</v>
+      </c>
+      <c r="H61" s="28">
+        <v>-8.4345030366845902E-2</v>
+      </c>
+      <c r="I61" s="28">
+        <v>0.78913742408288501</v>
+      </c>
+      <c r="J61" s="29">
+        <v>6667803.34081297</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="32">
+        <f t="shared" si="2"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="B62" s="26">
+        <v>-0.45808076837166301</v>
+      </c>
+      <c r="C62" s="26">
+        <v>0.18435792688002001</v>
+      </c>
+      <c r="D62" s="26">
+        <v>-0.38813162569132598</v>
+      </c>
+      <c r="E62" s="26">
+        <v>0.31715657717221801</v>
+      </c>
+      <c r="F62" s="26">
+        <v>1.2905054881601499E-2</v>
+      </c>
+      <c r="G62" s="26">
+        <v>-1.94065812845663E-2</v>
+      </c>
+      <c r="H62" s="26">
+        <v>-9.1616153674332707E-2</v>
+      </c>
+      <c r="I62" s="26">
+        <v>0.79640854739037203</v>
+      </c>
+      <c r="J62" s="27">
+        <v>7501278.7584145898</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="33">
+        <f t="shared" si="2"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="B63" s="28">
+        <v>-0.50897863152406997</v>
+      </c>
+      <c r="C63" s="28">
+        <v>0.20484214097780001</v>
+      </c>
+      <c r="D63" s="28">
+        <v>-0.43125736187925101</v>
+      </c>
+      <c r="E63" s="28">
+        <v>0.35239619685801998</v>
+      </c>
+      <c r="F63" s="28">
+        <v>1.4338949868445999E-2</v>
+      </c>
+      <c r="G63" s="28">
+        <v>-2.1562868093962601E-2</v>
+      </c>
+      <c r="H63" s="28">
+        <v>-9.8402535427986895E-2</v>
+      </c>
+      <c r="I63" s="28">
+        <v>0.80319492914402602</v>
+      </c>
+      <c r="J63" s="29">
+        <v>8334754.1760162199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="32">
+        <f t="shared" si="2"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="B64" s="26">
+        <v>-0.55987649467647704</v>
+      </c>
+      <c r="C64" s="26">
+        <v>0.22532635507557999</v>
+      </c>
+      <c r="D64" s="26">
+        <v>-0.47438309806717599</v>
+      </c>
+      <c r="E64" s="26">
+        <v>0.38763581654382201</v>
+      </c>
+      <c r="F64" s="26">
+        <v>1.57728448552906E-2</v>
+      </c>
+      <c r="G64" s="26">
+        <v>-2.37191549033588E-2</v>
+      </c>
+      <c r="H64" s="26">
+        <v>-0.10475108610076</v>
+      </c>
+      <c r="I64" s="26">
+        <v>0.80954347981679997</v>
+      </c>
+      <c r="J64" s="27">
+        <v>9168229.5936178397</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="33">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="B65" s="28">
+        <v>-0.61077435782888401</v>
+      </c>
+      <c r="C65" s="28">
+        <v>0.24581056917336</v>
+      </c>
+      <c r="D65" s="28">
+        <v>-0.51750883425510097</v>
+      </c>
+      <c r="E65" s="28">
+        <v>0.42287543622962398</v>
+      </c>
+      <c r="F65" s="28">
+        <v>1.7206739842135301E-2</v>
+      </c>
+      <c r="G65" s="28">
+        <v>-2.58754417127551E-2</v>
+      </c>
+      <c r="H65" s="28">
+        <v>-0.110702852356485</v>
+      </c>
+      <c r="I65" s="28">
+        <v>0.81549524607252499</v>
+      </c>
+      <c r="J65" s="29">
+        <v>10001705.0112195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="32">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
+      <c r="B66" s="26">
+        <v>-0.66167222098129097</v>
+      </c>
+      <c r="C66" s="26">
+        <v>0.26629478327113998</v>
+      </c>
+      <c r="D66" s="26">
+        <v>-0.560634570443026</v>
+      </c>
+      <c r="E66" s="26">
+        <v>0.45811505591542501</v>
+      </c>
+      <c r="F66" s="26">
+        <v>1.8640634828979801E-2</v>
+      </c>
+      <c r="G66" s="26">
+        <v>-2.80317285221513E-2</v>
+      </c>
+      <c r="H66" s="26">
+        <v>-0.116293905505803</v>
+      </c>
+      <c r="I66" s="26">
+        <v>0.82108629922184195</v>
+      </c>
+      <c r="J66" s="27">
+        <v>10835180.4288211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="33">
+        <f t="shared" si="2"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="B67" s="28">
+        <v>-0.71257008413369805</v>
+      </c>
+      <c r="C67" s="28">
+        <v>0.28677899736891999</v>
+      </c>
+      <c r="D67" s="28">
+        <v>-0.60376030663095204</v>
+      </c>
+      <c r="E67" s="28">
+        <v>0.49335467560122798</v>
+      </c>
+      <c r="F67" s="28">
+        <v>2.0074529815824499E-2</v>
+      </c>
+      <c r="G67" s="28">
+        <v>-3.01880153315476E-2</v>
+      </c>
+      <c r="H67" s="28">
+        <v>-0.121556073175749</v>
+      </c>
+      <c r="I67" s="28">
+        <v>0.82634846689178798</v>
+      </c>
+      <c r="J67" s="29">
+        <v>11668655.8464227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="32">
+        <f t="shared" si="2"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="B68" s="26">
+        <v>-0.76346794728610501</v>
+      </c>
+      <c r="C68" s="26">
+        <v>0.30726321146669999</v>
+      </c>
+      <c r="D68" s="26">
+        <v>-0.64688604281887696</v>
+      </c>
+      <c r="E68" s="26">
+        <v>0.52859429528702995</v>
+      </c>
+      <c r="F68" s="26">
+        <v>2.1508424802668999E-2</v>
+      </c>
+      <c r="G68" s="26">
+        <v>-3.2344302140943797E-2</v>
+      </c>
+      <c r="H68" s="26">
+        <v>-0.12651754555026901</v>
+      </c>
+      <c r="I68" s="26">
+        <v>0.83130993926630803</v>
+      </c>
+      <c r="J68" s="27">
+        <v>12502131.264024301</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="33">
+        <f t="shared" si="2"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="B69" s="28">
+        <v>-0.81436581043851197</v>
+      </c>
+      <c r="C69" s="28">
+        <v>0.32774742556448</v>
+      </c>
+      <c r="D69" s="28">
+        <v>-0.690011779006802</v>
+      </c>
+      <c r="E69" s="28">
+        <v>0.56383391497283197</v>
+      </c>
+      <c r="F69" s="28">
+        <v>2.29423197895136E-2</v>
+      </c>
+      <c r="G69" s="28">
+        <v>-3.4500588950340097E-2</v>
+      </c>
+      <c r="H69" s="28">
+        <v>-0.13120338057064901</v>
+      </c>
+      <c r="I69" s="28">
+        <v>0.83599577428668903</v>
+      </c>
+      <c r="J69" s="29">
+        <v>13335606.681625901</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="32">
+        <f t="shared" si="2"/>
+        <v>0.8500000000000002</v>
+      </c>
+      <c r="B70" s="26">
+        <v>-0.86526367359091905</v>
+      </c>
+      <c r="C70" s="26">
+        <v>0.34823163966226001</v>
+      </c>
+      <c r="D70" s="26">
+        <v>-0.73313751519472703</v>
+      </c>
+      <c r="E70" s="26">
+        <v>0.599073534658633</v>
+      </c>
+      <c r="F70" s="26">
+        <v>2.43762147763582E-2</v>
+      </c>
+      <c r="G70" s="26">
+        <v>-3.66568757597363E-2</v>
+      </c>
+      <c r="H70" s="26">
+        <v>-0.13563592721154999</v>
+      </c>
+      <c r="I70" s="26">
+        <v>0.84042832092758901</v>
+      </c>
+      <c r="J70" s="27">
+        <v>14169082.0992276</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="33">
+        <f t="shared" si="2"/>
+        <v>0.90000000000000024</v>
+      </c>
+      <c r="B71" s="28">
+        <v>-0.91616153674332601</v>
+      </c>
+      <c r="C71" s="28">
+        <v>0.36871585376004001</v>
+      </c>
+      <c r="D71" s="28">
+        <v>-0.77626325138265195</v>
+      </c>
+      <c r="E71" s="28">
+        <v>0.63431315434443503</v>
+      </c>
+      <c r="F71" s="28">
+        <v>2.5810109763202801E-2</v>
+      </c>
+      <c r="G71" s="28">
+        <v>-3.88131625691326E-2</v>
+      </c>
+      <c r="H71" s="28">
+        <v>-0.13983518192398101</v>
+      </c>
+      <c r="I71" s="28">
+        <v>0.844627575640021</v>
+      </c>
+      <c r="J71" s="29">
+        <v>15002557.5168292</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="32">
+        <f t="shared" si="2"/>
+        <v>0.95000000000000029</v>
+      </c>
+      <c r="B72" s="26">
+        <v>-0.96705939989573297</v>
+      </c>
+      <c r="C72" s="26">
+        <v>0.38920006785782002</v>
+      </c>
+      <c r="D72" s="26">
+        <v>-0.81938898757057699</v>
+      </c>
+      <c r="E72" s="26">
+        <v>0.66955277403023705</v>
+      </c>
+      <c r="F72" s="26">
+        <v>2.7244004750047499E-2</v>
+      </c>
+      <c r="G72" s="26">
+        <v>-4.0969449378528797E-2</v>
+      </c>
+      <c r="H72" s="26">
+        <v>-0.143819090240904</v>
+      </c>
+      <c r="I72" s="26">
+        <v>0.84861148395694297</v>
+      </c>
+      <c r="J72" s="27">
+        <v>15836032.9344308</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="33">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="B73" s="28">
+        <v>-1.0179572630481399</v>
+      </c>
+      <c r="C73" s="28">
+        <v>0.40968428195560003</v>
+      </c>
+      <c r="D73" s="28">
+        <v>-0.86251472375850302</v>
+      </c>
+      <c r="E73" s="28">
+        <v>0.70479239371603897</v>
+      </c>
+      <c r="F73" s="28">
+        <v>2.8677899736891999E-2</v>
+      </c>
+      <c r="G73" s="28">
+        <v>-4.3125736187925097E-2</v>
+      </c>
+      <c r="H73" s="28">
+        <v>-0.14760380314197999</v>
+      </c>
+      <c r="I73" s="28">
+        <v>0.85239619685802004</v>
+      </c>
+      <c r="J73" s="29">
+        <v>16669508.352032401</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A51:J51"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>